--- a/docs/coverage-testing/collapsed.xlsx
+++ b/docs/coverage-testing/collapsed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D3E8CF-8651-4E73-A24D-D8DE190C79B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE6109F-C558-485B-A047-2B745FDE7EAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="240" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,15 +21,14 @@
     <sheet name="CMS" sheetId="6" r:id="rId6"/>
     <sheet name="SP800-78" sheetId="7" r:id="rId7"/>
     <sheet name="PKIX" sheetId="8" r:id="rId8"/>
-    <sheet name="DEADBEEF" sheetId="11" r:id="rId9"/>
-    <sheet name="SP800-85A" sheetId="9" r:id="rId10"/>
+    <sheet name="DeadBeef" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1223">
   <si>
     <t>Test Case</t>
   </si>
@@ -2452,12 +2451,6 @@
     <t>PIV OID for test CHUID signer cert</t>
   </si>
   <si>
-    <t>SP800-85b</t>
-  </si>
-  <si>
-    <t>CMS.10</t>
-  </si>
-  <si>
     <t>8.1.0.1</t>
   </si>
   <si>
@@ -2839,9 +2832,6 @@
     <t>Discovery Object in PIV card applet conforms to SP800-73 Appendix A</t>
   </si>
   <si>
-    <t>DEADBEEF.1</t>
-  </si>
-  <si>
     <t>8.11.0.2</t>
   </si>
   <si>
@@ -3640,9 +3630,6 @@
     <t>76.9, 76.10, 76.11, 76.12, 76.12, 76.13, 76.14, 76.15, 76.15, 76.16, 76.16, 76.17, 76.18</t>
   </si>
   <si>
-    <t>76.19, 76.20, 76.21, 76.22, DEADBEEF.1, 76.23, 76.24, 76.25, 76.26, 76.27, 76.28</t>
-  </si>
-  <si>
     <t>76.24, 76.28</t>
   </si>
   <si>
@@ -3664,24 +3651,12 @@
     <t>PKIX.3, PKIX.4, PKIX.5, PKIX.6</t>
   </si>
   <si>
-    <t>PKIX.9, DEADBEEF.1</t>
-  </si>
-  <si>
-    <t>PKIX.7, PKIX.8, PKIX.9, PKIX.9, DEADBEEF.1</t>
-  </si>
-  <si>
     <t>PKIX.2, PKIX.15, PKIX.11, PKIX.13, PKIX.14, PKIX.6</t>
   </si>
   <si>
     <t>PKIX.7, PKIX.8, PKIX.9, PKIX.10, PKIX.11</t>
   </si>
   <si>
-    <t>PKIX.12, PKIX.12, DEADBEEF.1, PKIX.13, PKIX.14</t>
-  </si>
-  <si>
-    <t>PKIX.9, DEADBEEF.1, PKIX.7, PKIX.8, PKIX.9, DEADEBEEF.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PKIX.16, </t>
   </si>
   <si>
@@ -3697,15 +3672,9 @@
     <t>PKIX.7, PKIX.8, PKIX.9, PKIX.9, PKIX.10, PKIX.11</t>
   </si>
   <si>
-    <t>PKIX.9, DEADBEFF.1</t>
-  </si>
-  <si>
     <t>PKIX.12, PKIX.12, PKIX.12, PKIX.14</t>
   </si>
   <si>
-    <t>PKIX.3, PKIX.4, DEADBEEF.1, PKIX.14, PKIX.6, PKIX.20</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
@@ -3722,6 +3691,27 @@
   </si>
   <si>
     <t>Used to track missing atoms</t>
+  </si>
+  <si>
+    <t>DeadBeef.1</t>
+  </si>
+  <si>
+    <t>76.19, 76.20, 76.21, 76.22, DeadBeef.1, 76.23, 76.24, 76.25, 76.26, 76.27, 76.28</t>
+  </si>
+  <si>
+    <t>PKIX.12, PKIX.12, DeadBeef.1, PKIX.13, PKIX.14</t>
+  </si>
+  <si>
+    <t>PKIX.9, DeadBeef.1</t>
+  </si>
+  <si>
+    <t>PKIX.7, PKIX.8, PKIX.9, PKIX.9, DeadBeef.1</t>
+  </si>
+  <si>
+    <t>PKIX.3, PKIX.4, DeadBeef.1, PKIX.14, PKIX.6, PKIX.20</t>
+  </si>
+  <si>
+    <t>PKIX.9, DeadBeef.1, PKIX.7, PKIX.8, PKIX.9, DeadBeef.1</t>
   </si>
 </sst>
 </file>
@@ -6306,1327 +6296,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:IV134"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="49" customWidth="1"/>
-    <col min="2" max="2" width="122.375" style="49" customWidth="1"/>
-    <col min="3" max="5" width="10.5" style="49" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A54" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A55" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A58" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A59" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A64" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A67" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-    </row>
-    <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A68" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A70" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-    </row>
-    <row r="75" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A76" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-    </row>
-    <row r="77" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-    </row>
-    <row r="78" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-    </row>
-    <row r="79" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-    </row>
-    <row r="80" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-    </row>
-    <row r="81" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A81" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-    </row>
-    <row r="82" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A82" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-    </row>
-    <row r="83" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-    </row>
-    <row r="84" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-    </row>
-    <row r="85" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A85" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-    </row>
-    <row r="87" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A87" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-    </row>
-    <row r="88" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-    </row>
-    <row r="89" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A93" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A95" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-    </row>
-    <row r="96" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-    </row>
-    <row r="97" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A97" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-    </row>
-    <row r="98" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A99" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A101" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-    </row>
-    <row r="102" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A102" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-    </row>
-    <row r="103" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A103" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-    </row>
-    <row r="104" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-    </row>
-    <row r="105" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-    </row>
-    <row r="106" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-    </row>
-    <row r="107" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A107" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A108" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-    </row>
-    <row r="109" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A110" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-    </row>
-    <row r="111" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A111" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-    </row>
-    <row r="112" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-    </row>
-    <row r="113" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A113" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-    </row>
-    <row r="114" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-    </row>
-    <row r="115" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A115" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-    </row>
-    <row r="116" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A116" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-    </row>
-    <row r="117" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A117" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-    </row>
-    <row r="118" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A118" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-    </row>
-    <row r="119" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A119" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-    </row>
-    <row r="120" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A120" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-    </row>
-    <row r="121" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-    </row>
-    <row r="122" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A122" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-    </row>
-    <row r="123" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A123" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-    </row>
-    <row r="124" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A124" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-    </row>
-    <row r="125" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-    </row>
-    <row r="126" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A126" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-    </row>
-    <row r="127" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A127" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-    </row>
-    <row r="128" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-    </row>
-    <row r="129" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A129" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-    </row>
-    <row r="130" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A130" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-    </row>
-    <row r="131" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A131" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-    </row>
-    <row r="132" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A132" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-    </row>
-    <row r="133" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-    </row>
-    <row r="134" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A134" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C8DD9-7E09-4AC9-B53E-1B766442D166}">
   <dimension ref="A1:F449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D435" sqref="D435"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7640,22 +6315,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18">
       <c r="A1" s="57" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>902</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>903</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>904</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>905</v>
-      </c>
       <c r="D1" s="76" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7663,7 +6338,7 @@
         <v>125</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>3</v>
@@ -7677,7 +6352,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>5</v>
@@ -7691,13 +6366,13 @@
         <v>125</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E4" s="83" t="s">
         <v>127</v>
@@ -7709,7 +6384,7 @@
         <v>125</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>130</v>
@@ -7725,7 +6400,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C6" s="69" t="s">
         <v>133</v>
@@ -7741,7 +6416,7 @@
         <v>125</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C7" s="69" t="s">
         <v>135</v>
@@ -7760,7 +6435,7 @@
         <v>126</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="83" t="s">
@@ -7776,7 +6451,7 @@
         <v>129</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="83" t="s">
@@ -7869,7 +6544,7 @@
         <v>125</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>7</v>
@@ -7883,13 +6558,13 @@
         <v>125</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>127</v>
@@ -7901,7 +6576,7 @@
         <v>125</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C17" s="69" t="s">
         <v>130</v>
@@ -7917,7 +6592,7 @@
         <v>125</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C18" s="69" t="s">
         <v>133</v>
@@ -7933,7 +6608,7 @@
         <v>125</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>135</v>
@@ -7965,7 +6640,7 @@
         <v>125</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C21" s="69" t="s">
         <v>162</v>
@@ -7981,7 +6656,7 @@
         <v>125</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C22" s="69" t="s">
         <v>164</v>
@@ -7997,7 +6672,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C23" s="69" t="s">
         <v>166</v>
@@ -8013,7 +6688,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C24" s="69" t="s">
         <v>168</v>
@@ -8029,7 +6704,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>170</v>
@@ -8045,7 +6720,7 @@
         <v>125</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C26" s="69" t="s">
         <v>160</v>
@@ -8096,7 +6771,7 @@
         <v>156</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D29" s="82"/>
       <c r="E29" s="84" t="s">
@@ -8125,7 +6800,7 @@
         <v>125</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C31" s="69" t="s">
         <v>176</v>
@@ -8141,7 +6816,7 @@
         <v>125</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>9</v>
@@ -8155,13 +6830,13 @@
         <v>125</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E33" s="81" t="s">
         <v>127</v>
@@ -8173,7 +6848,7 @@
         <v>125</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C34" s="69" t="s">
         <v>130</v>
@@ -8189,7 +6864,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C35" s="69" t="s">
         <v>133</v>
@@ -8205,7 +6880,7 @@
         <v>125</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C36" s="69" t="s">
         <v>135</v>
@@ -8237,7 +6912,7 @@
         <v>125</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C38" s="69" t="s">
         <v>181</v>
@@ -8253,7 +6928,7 @@
         <v>125</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C39" s="69" t="s">
         <v>183</v>
@@ -8269,7 +6944,7 @@
         <v>125</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C40" s="69" t="s">
         <v>185</v>
@@ -8285,7 +6960,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C41" s="69" t="s">
         <v>187</v>
@@ -8301,7 +6976,7 @@
         <v>125</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C42" s="69" t="s">
         <v>176</v>
@@ -8317,7 +6992,7 @@
         <v>125</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>11</v>
@@ -8331,13 +7006,13 @@
         <v>125</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E44" s="81" t="s">
         <v>127</v>
@@ -8349,7 +7024,7 @@
         <v>125</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C45" s="69" t="s">
         <v>130</v>
@@ -8365,7 +7040,7 @@
         <v>125</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C46" s="69" t="s">
         <v>133</v>
@@ -8381,7 +7056,7 @@
         <v>125</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>135</v>
@@ -8477,7 +7152,7 @@
         <v>125</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C53" s="64" t="s">
         <v>13</v>
@@ -8491,13 +7166,13 @@
         <v>125</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E54" s="81" t="s">
         <v>127</v>
@@ -8509,7 +7184,7 @@
         <v>125</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>130</v>
@@ -8525,7 +7200,7 @@
         <v>125</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C56" s="69" t="s">
         <v>133</v>
@@ -8541,7 +7216,7 @@
         <v>125</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C57" s="69" t="s">
         <v>135</v>
@@ -8557,7 +7232,7 @@
         <v>125</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C58" s="69" t="s">
         <v>198</v>
@@ -8573,7 +7248,7 @@
         <v>125</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C59" s="69" t="s">
         <v>200</v>
@@ -8589,7 +7264,7 @@
         <v>125</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C60" s="69" t="s">
         <v>202</v>
@@ -8605,7 +7280,7 @@
         <v>125</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C61" s="69" t="s">
         <v>204</v>
@@ -8621,7 +7296,7 @@
         <v>125</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C62" s="69" t="s">
         <v>206</v>
@@ -8637,7 +7312,7 @@
         <v>125</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C63" s="69" t="s">
         <v>176</v>
@@ -8653,7 +7328,7 @@
         <v>125</v>
       </c>
       <c r="B64" s="61" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C64" s="64" t="s">
         <v>15</v>
@@ -8667,13 +7342,13 @@
         <v>125</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C65" s="69" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D65" s="82" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E65" s="81" t="s">
         <v>127</v>
@@ -8685,7 +7360,7 @@
         <v>125</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C66" s="69" t="s">
         <v>130</v>
@@ -8701,7 +7376,7 @@
         <v>125</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C67" s="69" t="s">
         <v>133</v>
@@ -8717,7 +7392,7 @@
         <v>125</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C68" s="69" t="s">
         <v>135</v>
@@ -8733,7 +7408,7 @@
         <v>125</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C69" s="69" t="s">
         <v>208</v>
@@ -8749,7 +7424,7 @@
         <v>125</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C70" s="69" t="s">
         <v>210</v>
@@ -8765,7 +7440,7 @@
         <v>125</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C71" s="69" t="s">
         <v>212</v>
@@ -8781,7 +7456,7 @@
         <v>125</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C72" s="69" t="s">
         <v>176</v>
@@ -8797,7 +7472,7 @@
         <v>125</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C73" s="64" t="s">
         <v>17</v>
@@ -8811,13 +7486,13 @@
         <v>125</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E74" s="81" t="s">
         <v>127</v>
@@ -8829,7 +7504,7 @@
         <v>125</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C75" s="69" t="s">
         <v>130</v>
@@ -8845,7 +7520,7 @@
         <v>125</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C76" s="69" t="s">
         <v>133</v>
@@ -8861,7 +7536,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C77" s="69" t="s">
         <v>135</v>
@@ -8877,7 +7552,7 @@
         <v>125</v>
       </c>
       <c r="B78" s="61" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C78" s="69" t="s">
         <v>179</v>
@@ -8893,7 +7568,7 @@
         <v>125</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C79" s="69" t="s">
         <v>181</v>
@@ -8909,7 +7584,7 @@
         <v>125</v>
       </c>
       <c r="B80" s="61" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C80" s="69" t="s">
         <v>183</v>
@@ -8925,7 +7600,7 @@
         <v>125</v>
       </c>
       <c r="B81" s="61" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C81" s="69" t="s">
         <v>187</v>
@@ -8941,7 +7616,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="61" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C82" s="69" t="s">
         <v>185</v>
@@ -8957,7 +7632,7 @@
         <v>125</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C83" s="69" t="s">
         <v>176</v>
@@ -8973,7 +7648,7 @@
         <v>125</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C84" s="64" t="s">
         <v>19</v>
@@ -8987,13 +7662,13 @@
         <v>125</v>
       </c>
       <c r="B85" s="61" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E85" s="81" t="s">
         <v>127</v>
@@ -9005,7 +7680,7 @@
         <v>125</v>
       </c>
       <c r="B86" s="61" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C86" s="69" t="s">
         <v>130</v>
@@ -9021,7 +7696,7 @@
         <v>125</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C87" s="69" t="s">
         <v>133</v>
@@ -9037,7 +7712,7 @@
         <v>125</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C88" s="69" t="s">
         <v>135</v>
@@ -9053,7 +7728,7 @@
         <v>125</v>
       </c>
       <c r="B89" s="61" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C89" s="69" t="s">
         <v>179</v>
@@ -9069,7 +7744,7 @@
         <v>125</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C90" s="69" t="s">
         <v>181</v>
@@ -9085,7 +7760,7 @@
         <v>125</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C91" s="69" t="s">
         <v>183</v>
@@ -9101,7 +7776,7 @@
         <v>125</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C92" s="69" t="s">
         <v>185</v>
@@ -9117,7 +7792,7 @@
         <v>125</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C93" s="69" t="s">
         <v>187</v>
@@ -9133,7 +7808,7 @@
         <v>125</v>
       </c>
       <c r="B94" s="61" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C94" s="69" t="s">
         <v>176</v>
@@ -9149,7 +7824,7 @@
         <v>125</v>
       </c>
       <c r="B95" s="61" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C95" s="64" t="s">
         <v>21</v>
@@ -9163,13 +7838,13 @@
         <v>125</v>
       </c>
       <c r="B96" s="61" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C96" s="69" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D96" s="82" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E96" s="81" t="s">
         <v>127</v>
@@ -9181,7 +7856,7 @@
         <v>125</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C97" s="69" t="s">
         <v>130</v>
@@ -9197,7 +7872,7 @@
         <v>125</v>
       </c>
       <c r="B98" s="61" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C98" s="69" t="s">
         <v>133</v>
@@ -9213,7 +7888,7 @@
         <v>125</v>
       </c>
       <c r="B99" s="61" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C99" s="69" t="s">
         <v>135</v>
@@ -9229,7 +7904,7 @@
         <v>125</v>
       </c>
       <c r="B100" s="61" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C100" s="69" t="s">
         <v>179</v>
@@ -9245,7 +7920,7 @@
         <v>125</v>
       </c>
       <c r="B101" s="61" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C101" s="69" t="s">
         <v>181</v>
@@ -9261,7 +7936,7 @@
         <v>125</v>
       </c>
       <c r="B102" s="61" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C102" s="69" t="s">
         <v>183</v>
@@ -9277,7 +7952,7 @@
         <v>125</v>
       </c>
       <c r="B103" s="61" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C103" s="69" t="s">
         <v>185</v>
@@ -9293,7 +7968,7 @@
         <v>125</v>
       </c>
       <c r="B104" s="61" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C104" s="69" t="s">
         <v>187</v>
@@ -9309,7 +7984,7 @@
         <v>125</v>
       </c>
       <c r="B105" s="61" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C105" s="69" t="s">
         <v>176</v>
@@ -9325,7 +8000,7 @@
         <v>125</v>
       </c>
       <c r="B106" s="61" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C106" s="64" t="s">
         <v>23</v>
@@ -9339,13 +8014,13 @@
         <v>125</v>
       </c>
       <c r="B107" s="61" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C107" s="69" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E107" s="81" t="s">
         <v>127</v>
@@ -9357,7 +8032,7 @@
         <v>125</v>
       </c>
       <c r="B108" s="61" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C108" s="69" t="s">
         <v>130</v>
@@ -9373,7 +8048,7 @@
         <v>125</v>
       </c>
       <c r="B109" s="61" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C109" s="69" t="s">
         <v>133</v>
@@ -9389,7 +8064,7 @@
         <v>125</v>
       </c>
       <c r="B110" s="61" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C110" s="69" t="s">
         <v>135</v>
@@ -9405,7 +8080,7 @@
         <v>125</v>
       </c>
       <c r="B111" s="61" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C111" s="69" t="s">
         <v>214</v>
@@ -9421,7 +8096,7 @@
         <v>125</v>
       </c>
       <c r="B112" s="61" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C112" s="69" t="s">
         <v>216</v>
@@ -9437,7 +8112,7 @@
         <v>125</v>
       </c>
       <c r="B113" s="61" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C113" s="69" t="s">
         <v>218</v>
@@ -9453,7 +8128,7 @@
         <v>125</v>
       </c>
       <c r="B114" s="61" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C114" s="69" t="s">
         <v>220</v>
@@ -9469,7 +8144,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="61" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C115" s="64" t="s">
         <v>25</v>
@@ -9483,16 +8158,16 @@
         <v>125</v>
       </c>
       <c r="B116" s="61" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C116" s="70" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D116" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="E116" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F116" s="79"/>
     </row>
@@ -9501,14 +8176,14 @@
         <v>125</v>
       </c>
       <c r="B117" s="61" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C117" s="70" t="s">
         <v>130</v>
       </c>
       <c r="D117" s="81"/>
       <c r="E117" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F117" s="79"/>
     </row>
@@ -9517,14 +8192,14 @@
         <v>125</v>
       </c>
       <c r="B118" s="61" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C118" s="70" t="s">
         <v>133</v>
       </c>
       <c r="D118" s="81"/>
       <c r="E118" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F118" s="79"/>
     </row>
@@ -9533,14 +8208,14 @@
         <v>125</v>
       </c>
       <c r="B119" s="61" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C119" s="70" t="s">
         <v>135</v>
       </c>
       <c r="D119" s="81"/>
       <c r="E119" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F119" s="79"/>
     </row>
@@ -9549,14 +8224,14 @@
         <v>125</v>
       </c>
       <c r="B120" s="61" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D120" s="81"/>
       <c r="E120" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F120" s="79"/>
     </row>
@@ -9565,14 +8240,14 @@
         <v>125</v>
       </c>
       <c r="B121" s="61" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C121" s="71" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D121" s="82"/>
       <c r="E121" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F121" s="79"/>
     </row>
@@ -9581,14 +8256,14 @@
         <v>125</v>
       </c>
       <c r="B122" s="61" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C122" s="71" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D122" s="82"/>
       <c r="E122" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F122" s="79"/>
     </row>
@@ -9597,14 +8272,14 @@
         <v>125</v>
       </c>
       <c r="B123" s="61" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C123" s="71" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D123" s="82"/>
       <c r="E123" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F123" s="79"/>
     </row>
@@ -9613,14 +8288,14 @@
         <v>125</v>
       </c>
       <c r="B124" s="61" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C124" s="71" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D124" s="82"/>
       <c r="E124" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F124" s="79"/>
     </row>
@@ -9629,7 +8304,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="61" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C125" s="64" t="s">
         <v>27</v>
@@ -9637,7 +8312,7 @@
       <c r="D125" s="80"/>
       <c r="E125" s="79"/>
       <c r="F125" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9645,7 +8320,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="61" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C126" s="64" t="s">
         <v>29</v>
@@ -9659,16 +8334,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="61" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C127" s="71" t="s">
         <v>31</v>
       </c>
       <c r="D127" s="82" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="E127" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F127" s="79"/>
     </row>
@@ -9677,16 +8352,16 @@
         <v>125</v>
       </c>
       <c r="B128" s="61" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C128" s="71" t="s">
         <v>33</v>
       </c>
       <c r="D128" s="85" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="E128" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F128" s="79"/>
     </row>
@@ -9695,16 +8370,16 @@
         <v>125</v>
       </c>
       <c r="B129" s="61" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C129" s="71" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D129" s="85" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="E129" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F129" s="79"/>
     </row>
@@ -9713,7 +8388,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="61" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C130" s="66" t="s">
         <v>37</v>
@@ -9721,7 +8396,7 @@
       <c r="D130" s="86"/>
       <c r="E130" s="79"/>
       <c r="F130" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9729,7 +8404,7 @@
         <v>125</v>
       </c>
       <c r="B131" s="61" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C131" s="66" t="s">
         <v>39</v>
@@ -9737,7 +8412,7 @@
       <c r="D131" s="86"/>
       <c r="E131" s="79"/>
       <c r="F131" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9745,7 +8420,7 @@
         <v>125</v>
       </c>
       <c r="B132" s="61" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C132" s="66" t="s">
         <v>41</v>
@@ -9753,7 +8428,7 @@
       <c r="D132" s="86"/>
       <c r="E132" s="79"/>
       <c r="F132" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9761,7 +8436,7 @@
         <v>125</v>
       </c>
       <c r="B133" s="59" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C133" s="65" t="s">
         <v>43</v>
@@ -9775,7 +8450,7 @@
         <v>125</v>
       </c>
       <c r="B134" s="61" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C134" s="64" t="s">
         <v>45</v>
@@ -9789,7 +8464,7 @@
         <v>125</v>
       </c>
       <c r="B135" s="61" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C135" s="66" t="s">
         <v>47</v>
@@ -9809,7 +8484,7 @@
         <v>223</v>
       </c>
       <c r="D136" s="82" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E136" s="81" t="s">
         <v>224</v>
@@ -9869,7 +8544,7 @@
         <v>125</v>
       </c>
       <c r="B140" s="61" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C140" s="66" t="s">
         <v>49</v>
@@ -9889,7 +8564,7 @@
         <v>236</v>
       </c>
       <c r="D141" s="82" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E141" s="81" t="s">
         <v>237</v>
@@ -9952,7 +8627,7 @@
         <v>247</v>
       </c>
       <c r="C145" s="69" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D145" s="82"/>
       <c r="E145" s="81" t="s">
@@ -10064,7 +8739,7 @@
         <v>267</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D152" s="82"/>
       <c r="E152" s="81" t="s">
@@ -10077,7 +8752,7 @@
         <v>125</v>
       </c>
       <c r="B153" s="61" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C153" s="63" t="s">
         <v>51</v>
@@ -10091,7 +8766,7 @@
         <v>125</v>
       </c>
       <c r="B154" s="61" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C154" s="66" t="s">
         <v>53</v>
@@ -10111,7 +8786,7 @@
         <v>223</v>
       </c>
       <c r="D155" s="82" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E155" s="81" t="s">
         <v>224</v>
@@ -10171,7 +8846,7 @@
         <v>125</v>
       </c>
       <c r="B159" s="61" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C159" s="66" t="s">
         <v>55</v>
@@ -10191,7 +8866,7 @@
         <v>236</v>
       </c>
       <c r="D160" s="82" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E160" s="81" t="s">
         <v>237</v>
@@ -10254,7 +8929,7 @@
         <v>278</v>
       </c>
       <c r="C164" s="69" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D164" s="82"/>
       <c r="E164" s="81" t="s">
@@ -10366,7 +9041,7 @@
         <v>288</v>
       </c>
       <c r="C171" s="69" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D171" s="82"/>
       <c r="E171" s="81" t="s">
@@ -10379,7 +9054,7 @@
         <v>125</v>
       </c>
       <c r="B172" s="61" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C172" s="64" t="s">
         <v>57</v>
@@ -10393,7 +9068,7 @@
         <v>125</v>
       </c>
       <c r="B173" s="61" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C173" s="66" t="s">
         <v>59</v>
@@ -10413,7 +9088,7 @@
         <v>223</v>
       </c>
       <c r="D174" s="82" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E174" s="81" t="s">
         <v>224</v>
@@ -10473,7 +9148,7 @@
         <v>125</v>
       </c>
       <c r="B178" s="61" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C178" s="66" t="s">
         <v>61</v>
@@ -10493,7 +9168,7 @@
         <v>294</v>
       </c>
       <c r="D179" s="82" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E179" s="81"/>
       <c r="F179" s="79"/>
@@ -10522,7 +9197,7 @@
         <v>296</v>
       </c>
       <c r="C181" s="69" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D181" s="82"/>
       <c r="E181" s="81" t="s">
@@ -10554,7 +9229,7 @@
         <v>278</v>
       </c>
       <c r="C183" s="69" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D183" s="82"/>
       <c r="E183" s="81" t="s">
@@ -10666,7 +9341,7 @@
         <v>307</v>
       </c>
       <c r="C190" s="69" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D190" s="82"/>
       <c r="E190" s="81" t="s">
@@ -10679,10 +9354,10 @@
         <v>125</v>
       </c>
       <c r="B191" s="61" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C191" s="63" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D191" s="89"/>
       <c r="E191" s="81"/>
@@ -10693,10 +9368,10 @@
         <v>125</v>
       </c>
       <c r="B192" s="61" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C192" s="66" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D192" s="86"/>
       <c r="E192" s="81"/>
@@ -10713,7 +9388,7 @@
         <v>312</v>
       </c>
       <c r="D193" s="82" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E193" s="81" t="s">
         <v>313</v>
@@ -10744,7 +9419,7 @@
         <v>316</v>
       </c>
       <c r="C195" s="69" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D195" s="82"/>
       <c r="E195" s="81" t="s">
@@ -10917,10 +9592,10 @@
         <v>125</v>
       </c>
       <c r="B206" s="61" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C206" s="66" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D206" s="90"/>
       <c r="E206" s="82"/>
@@ -10931,13 +9606,13 @@
         <v>125</v>
       </c>
       <c r="B207" s="61" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C207" s="69" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D207" s="82" t="s">
-        <v>1198</v>
+        <v>1217</v>
       </c>
       <c r="E207" s="81" t="s">
         <v>341</v>
@@ -10949,7 +9624,7 @@
         <v>125</v>
       </c>
       <c r="B208" s="61" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C208" s="69" t="s">
         <v>342</v>
@@ -11000,11 +9675,11 @@
         <v>350</v>
       </c>
       <c r="C211" s="71" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D211" s="82"/>
       <c r="E211" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F211" s="79"/>
     </row>
@@ -11109,10 +9784,10 @@
         <v>125</v>
       </c>
       <c r="B218" s="61" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C218" s="66" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D218" s="90"/>
       <c r="E218" s="81"/>
@@ -11123,13 +9798,13 @@
         <v>125</v>
       </c>
       <c r="B219" s="61" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C219" s="69" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D219" s="82" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="E219" s="81" t="s">
         <v>190</v>
@@ -11141,10 +9816,10 @@
         <v>125</v>
       </c>
       <c r="B220" s="61" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C220" s="69" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D220" s="82"/>
       <c r="E220" s="81" t="s">
@@ -11157,10 +9832,10 @@
         <v>125</v>
       </c>
       <c r="B221" s="61" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C221" s="64" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D221" s="88"/>
       <c r="E221" s="81"/>
@@ -11171,15 +9846,15 @@
         <v>125</v>
       </c>
       <c r="B222" s="61" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C222" s="62" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D222" s="91"/>
       <c r="E222" s="79"/>
       <c r="F222" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -11187,7 +9862,7 @@
         <v>125</v>
       </c>
       <c r="B223" s="61" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C223" s="63" t="s">
         <v>63</v>
@@ -11201,7 +9876,7 @@
         <v>125</v>
       </c>
       <c r="B224" s="61" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C224" s="62" t="s">
         <v>65</v>
@@ -11209,7 +9884,7 @@
       <c r="D224" s="91"/>
       <c r="E224" s="79"/>
       <c r="F224" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -11217,7 +9892,7 @@
         <v>125</v>
       </c>
       <c r="B225" s="61" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C225" s="62" t="s">
         <v>67</v>
@@ -11225,7 +9900,7 @@
       <c r="D225" s="91"/>
       <c r="E225" s="79"/>
       <c r="F225" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -11233,7 +9908,7 @@
         <v>125</v>
       </c>
       <c r="B226" s="61" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C226" s="64" t="s">
         <v>69</v>
@@ -11247,7 +9922,7 @@
         <v>125</v>
       </c>
       <c r="B227" s="61" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C227" s="62" t="s">
         <v>71</v>
@@ -11255,7 +9930,7 @@
       <c r="D227" s="91"/>
       <c r="E227" s="79"/>
       <c r="F227" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -11263,7 +9938,7 @@
         <v>125</v>
       </c>
       <c r="B228" s="61" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C228" s="62" t="s">
         <v>73</v>
@@ -11271,7 +9946,7 @@
       <c r="D228" s="91"/>
       <c r="E228" s="79"/>
       <c r="F228" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -11279,7 +9954,7 @@
         <v>125</v>
       </c>
       <c r="B229" s="59" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C229" s="65" t="s">
         <v>75</v>
@@ -11293,7 +9968,7 @@
         <v>125</v>
       </c>
       <c r="B230" s="61" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C230" s="64" t="s">
         <v>7</v>
@@ -11307,7 +9982,7 @@
         <v>125</v>
       </c>
       <c r="B231" s="61" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C231" s="66" t="s">
         <v>78</v>
@@ -11327,7 +10002,7 @@
         <v>366</v>
       </c>
       <c r="D232" s="94" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E232" s="81" t="s">
         <v>367</v>
@@ -11515,10 +10190,10 @@
         <v>125</v>
       </c>
       <c r="B244" s="61" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D244" s="88"/>
       <c r="E244" s="81"/>
@@ -11529,7 +10204,7 @@
         <v>125</v>
       </c>
       <c r="B245" s="61" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C245" s="66" t="s">
         <v>78</v>
@@ -11546,10 +10221,10 @@
         <v>403</v>
       </c>
       <c r="C246" s="62" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D246" s="94" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E246" s="81" t="s">
         <v>367</v>
@@ -11577,7 +10252,7 @@
         <v>125</v>
       </c>
       <c r="B248" s="61" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C248" s="62" t="s">
         <v>406</v>
@@ -11596,7 +10271,7 @@
         <v>407</v>
       </c>
       <c r="C249" s="62" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D249" s="94"/>
       <c r="E249" s="81" t="s">
@@ -11660,7 +10335,7 @@
         <v>412</v>
       </c>
       <c r="C253" s="62" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D253" s="94"/>
       <c r="E253" s="81" t="s">
@@ -11673,10 +10348,10 @@
         <v>125</v>
       </c>
       <c r="B254" s="61" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C254" s="62" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D254" s="94"/>
       <c r="E254" s="81" t="s">
@@ -11689,10 +10364,10 @@
         <v>125</v>
       </c>
       <c r="B255" s="61" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C255" s="62" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D255" s="94"/>
       <c r="E255" s="81" t="s">
@@ -11724,7 +10399,7 @@
         <v>418</v>
       </c>
       <c r="C257" s="69" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D257" s="82"/>
       <c r="E257" s="81" t="s">
@@ -11740,7 +10415,7 @@
         <v>419</v>
       </c>
       <c r="C258" s="62" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D258" s="94"/>
       <c r="E258" s="81" t="s">
@@ -11753,10 +10428,10 @@
         <v>125</v>
       </c>
       <c r="B259" s="61" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C259" s="72" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D259" s="95"/>
       <c r="E259" s="81" t="s">
@@ -11769,10 +10444,10 @@
         <v>125</v>
       </c>
       <c r="B260" s="61" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C260" s="62" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D260" s="94"/>
       <c r="E260" s="81" t="s">
@@ -11788,7 +10463,7 @@
         <v>421</v>
       </c>
       <c r="C261" s="62" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D261" s="94"/>
       <c r="E261" s="81" t="s">
@@ -11801,7 +10476,7 @@
         <v>125</v>
       </c>
       <c r="B262" s="61" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C262" s="64" t="s">
         <v>80</v>
@@ -11815,7 +10490,7 @@
         <v>125</v>
       </c>
       <c r="B263" s="61" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C263" s="66" t="s">
         <v>78</v>
@@ -11832,10 +10507,10 @@
         <v>425</v>
       </c>
       <c r="C264" s="62" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D264" s="94" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E264" s="81" t="s">
         <v>367</v>
@@ -11863,7 +10538,7 @@
         <v>125</v>
       </c>
       <c r="B266" s="61" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C266" s="62" t="s">
         <v>406</v>
@@ -11882,7 +10557,7 @@
         <v>427</v>
       </c>
       <c r="C267" s="62" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D267" s="94"/>
       <c r="E267" s="81" t="s">
@@ -11946,7 +10621,7 @@
         <v>431</v>
       </c>
       <c r="C271" s="62" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D271" s="94"/>
       <c r="E271" s="81" t="s">
@@ -11959,10 +10634,10 @@
         <v>125</v>
       </c>
       <c r="B272" s="61" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C272" s="62" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D272" s="94"/>
       <c r="E272" s="81" t="s">
@@ -11975,10 +10650,10 @@
         <v>125</v>
       </c>
       <c r="B273" s="61" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C273" s="62" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D273" s="94"/>
       <c r="E273" s="81" t="s">
@@ -12010,7 +10685,7 @@
         <v>433</v>
       </c>
       <c r="C275" s="69" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D275" s="82"/>
       <c r="E275" s="81" t="s">
@@ -12026,7 +10701,7 @@
         <v>434</v>
       </c>
       <c r="C276" s="62" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D276" s="94"/>
       <c r="E276" s="81" t="s">
@@ -12042,7 +10717,7 @@
         <v>435</v>
       </c>
       <c r="C277" s="72" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D277" s="95"/>
       <c r="E277" s="81" t="s">
@@ -12055,10 +10730,10 @@
         <v>125</v>
       </c>
       <c r="B278" s="61" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C278" s="62" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D278" s="94"/>
       <c r="E278" s="81" t="s">
@@ -12074,7 +10749,7 @@
         <v>436</v>
       </c>
       <c r="C279" s="62" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D279" s="94"/>
       <c r="E279" s="81" t="s">
@@ -12087,7 +10762,7 @@
         <v>125</v>
       </c>
       <c r="B280" s="61" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C280" s="64" t="s">
         <v>23</v>
@@ -12101,7 +10776,7 @@
         <v>125</v>
       </c>
       <c r="B281" s="61" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C281" s="66" t="s">
         <v>84</v>
@@ -12123,7 +10798,7 @@
       <c r="D282" s="94"/>
       <c r="E282" s="79"/>
       <c r="F282" s="97" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -12131,7 +10806,7 @@
         <v>125</v>
       </c>
       <c r="B283" s="61" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C283" s="66" t="s">
         <v>78</v>
@@ -12151,7 +10826,7 @@
         <v>440</v>
       </c>
       <c r="D284" s="82" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E284" s="97" t="s">
         <v>367</v>
@@ -12259,7 +10934,7 @@
         <v>125</v>
       </c>
       <c r="B291" s="61" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C291" s="73" t="s">
         <v>87</v>
@@ -12273,7 +10948,7 @@
         <v>125</v>
       </c>
       <c r="B292" s="61" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C292" s="74" t="s">
         <v>78</v>
@@ -12287,13 +10962,13 @@
         <v>125</v>
       </c>
       <c r="B293" s="61" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C293" s="72" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D293" s="95" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E293" s="81" t="s">
         <v>367</v>
@@ -12305,7 +10980,7 @@
         <v>125</v>
       </c>
       <c r="B294" s="61" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C294" s="72" t="s">
         <v>405</v>
@@ -12321,7 +10996,7 @@
         <v>125</v>
       </c>
       <c r="B295" s="61" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C295" s="72" t="s">
         <v>406</v>
@@ -12337,10 +11012,10 @@
         <v>125</v>
       </c>
       <c r="B296" s="61" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C296" s="72" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D296" s="95"/>
       <c r="E296" s="81" t="s">
@@ -12353,7 +11028,7 @@
         <v>125</v>
       </c>
       <c r="B297" s="61" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C297" s="72" t="s">
         <v>378</v>
@@ -12369,7 +11044,7 @@
         <v>125</v>
       </c>
       <c r="B298" s="61" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C298" s="72" t="s">
         <v>381</v>
@@ -12385,7 +11060,7 @@
         <v>125</v>
       </c>
       <c r="B299" s="61" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C299" s="72" t="s">
         <v>411</v>
@@ -12401,10 +11076,10 @@
         <v>125</v>
       </c>
       <c r="B300" s="61" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C300" s="72" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D300" s="95"/>
       <c r="E300" s="81" t="s">
@@ -12417,10 +11092,10 @@
         <v>125</v>
       </c>
       <c r="B301" s="61" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C301" s="72" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D301" s="95"/>
       <c r="E301" s="81" t="s">
@@ -12433,10 +11108,10 @@
         <v>125</v>
       </c>
       <c r="B302" s="61" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C302" s="72" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D302" s="95"/>
       <c r="E302" s="81" t="s">
@@ -12449,7 +11124,7 @@
         <v>125</v>
       </c>
       <c r="B303" s="61" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C303" s="72" t="s">
         <v>416</v>
@@ -12465,10 +11140,10 @@
         <v>125</v>
       </c>
       <c r="B304" s="61" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C304" s="72" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D304" s="95"/>
       <c r="E304" s="81" t="s">
@@ -12481,10 +11156,10 @@
         <v>125</v>
       </c>
       <c r="B305" s="61" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C305" s="72" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D305" s="95"/>
       <c r="E305" s="81" t="s">
@@ -12497,10 +11172,10 @@
         <v>125</v>
       </c>
       <c r="B306" s="61" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C306" s="72" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D306" s="95"/>
       <c r="E306" s="81" t="s">
@@ -12513,10 +11188,10 @@
         <v>125</v>
       </c>
       <c r="B307" s="61" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C307" s="72" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D307" s="95"/>
       <c r="E307" s="81" t="s">
@@ -12529,10 +11204,10 @@
         <v>125</v>
       </c>
       <c r="B308" s="61" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C308" s="72" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D308" s="95"/>
       <c r="E308" s="81" t="s">
@@ -12545,7 +11220,7 @@
         <v>125</v>
       </c>
       <c r="B309" s="59" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C309" s="75" t="s">
         <v>90</v>
@@ -12559,7 +11234,7 @@
         <v>125</v>
       </c>
       <c r="B310" s="61" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C310" s="73" t="s">
         <v>92</v>
@@ -12573,7 +11248,7 @@
         <v>125</v>
       </c>
       <c r="B311" s="61" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C311" s="74" t="s">
         <v>94</v>
@@ -12587,13 +11262,13 @@
         <v>125</v>
       </c>
       <c r="B312" s="61" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C312" s="62" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D312" s="94" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E312" s="81" t="s">
         <v>414</v>
@@ -12624,7 +11299,7 @@
         <v>463</v>
       </c>
       <c r="C314" s="62" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D314" s="94"/>
       <c r="E314" s="81" t="s">
@@ -12637,7 +11312,7 @@
         <v>125</v>
       </c>
       <c r="B315" s="61" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C315" s="66" t="s">
         <v>96</v>
@@ -12651,13 +11326,13 @@
         <v>125</v>
       </c>
       <c r="B316" s="61" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C316" s="62" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D316" s="94" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="E316" s="81" t="s">
         <v>465</v>
@@ -12669,10 +11344,10 @@
         <v>125</v>
       </c>
       <c r="B317" s="61" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C317" s="62" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D317" s="94"/>
       <c r="E317" s="81" t="s">
@@ -12685,10 +11360,10 @@
         <v>125</v>
       </c>
       <c r="B318" s="61" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C318" s="72" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D318" s="95"/>
       <c r="E318" s="81" t="s">
@@ -12701,10 +11376,10 @@
         <v>125</v>
       </c>
       <c r="B319" s="61" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C319" s="62" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D319" s="94"/>
       <c r="E319" s="81" t="s">
@@ -12717,10 +11392,10 @@
         <v>125</v>
       </c>
       <c r="B320" s="61" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C320" s="66" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D320" s="86"/>
       <c r="E320" s="81"/>
@@ -12737,7 +11412,7 @@
         <v>473</v>
       </c>
       <c r="D321" s="94" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="E321" s="81" t="s">
         <v>474</v>
@@ -12768,7 +11443,7 @@
         <v>478</v>
       </c>
       <c r="C323" s="62" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D323" s="94"/>
       <c r="E323" s="81" t="s">
@@ -12784,7 +11459,7 @@
         <v>480</v>
       </c>
       <c r="C324" s="62" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D324" s="94"/>
       <c r="E324" s="81" t="s">
@@ -12813,10 +11488,10 @@
         <v>125</v>
       </c>
       <c r="B326" s="61" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C326" s="66" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D326" s="86"/>
       <c r="E326" s="81" t="s">
@@ -12835,7 +11510,7 @@
         <v>487</v>
       </c>
       <c r="D327" s="101" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="E327" s="81" t="s">
         <v>488</v>
@@ -12870,7 +11545,7 @@
       </c>
       <c r="D329" s="82"/>
       <c r="E329" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F329" s="79"/>
     </row>
@@ -12882,7 +11557,7 @@
         <v>493</v>
       </c>
       <c r="C330" s="62" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D330" s="101"/>
       <c r="E330" s="81" t="s">
@@ -12898,7 +11573,7 @@
         <v>496</v>
       </c>
       <c r="C331" s="62" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D331" s="94"/>
       <c r="E331" s="81" t="s">
@@ -12911,10 +11586,10 @@
         <v>125</v>
       </c>
       <c r="B332" s="61" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C332" s="66" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D332" s="102"/>
       <c r="E332" s="81"/>
@@ -12925,13 +11600,13 @@
         <v>125</v>
       </c>
       <c r="B333" s="61" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C333" s="62" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D333" s="85" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="E333" s="81" t="s">
         <v>479</v>
@@ -12943,14 +11618,14 @@
         <v>125</v>
       </c>
       <c r="B334" s="61" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C334" s="71" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D334" s="82"/>
       <c r="E334" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F334" s="79"/>
     </row>
@@ -12959,10 +11634,10 @@
         <v>125</v>
       </c>
       <c r="B335" s="61" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C335" s="66" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D335" s="86"/>
       <c r="E335" s="81"/>
@@ -12973,7 +11648,7 @@
         <v>125</v>
       </c>
       <c r="B336" s="61" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C336" s="62" t="s">
         <v>473</v>
@@ -12989,10 +11664,10 @@
         <v>125</v>
       </c>
       <c r="B337" s="61" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C337" s="62" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D337" s="94"/>
       <c r="E337" s="97" t="s">
@@ -13005,10 +11680,10 @@
         <v>125</v>
       </c>
       <c r="B338" s="61" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C338" s="62" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D338" s="94"/>
       <c r="E338" s="81" t="s">
@@ -13021,10 +11696,10 @@
         <v>125</v>
       </c>
       <c r="B339" s="61" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C339" s="62" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D339" s="101"/>
       <c r="E339" s="81" t="s">
@@ -13037,14 +11712,14 @@
         <v>125</v>
       </c>
       <c r="B340" s="61" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C340" s="71" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D340" s="85"/>
       <c r="E340" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F340" s="79"/>
     </row>
@@ -13053,7 +11728,7 @@
         <v>125</v>
       </c>
       <c r="B341" s="61" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C341" s="64" t="s">
         <v>98</v>
@@ -13067,7 +11742,7 @@
         <v>125</v>
       </c>
       <c r="B342" s="61" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C342" s="66" t="s">
         <v>94</v>
@@ -13084,10 +11759,10 @@
         <v>499</v>
       </c>
       <c r="C343" s="62" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D343" s="101" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E343" s="81" t="s">
         <v>414</v>
@@ -13102,7 +11777,7 @@
         <v>500</v>
       </c>
       <c r="C344" s="62" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D344" s="94"/>
       <c r="E344" s="81" t="s">
@@ -13115,10 +11790,10 @@
         <v>125</v>
       </c>
       <c r="B345" s="61" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C345" s="62" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D345" s="94"/>
       <c r="E345" s="103" t="s">
@@ -13131,7 +11806,7 @@
         <v>125</v>
       </c>
       <c r="B346" s="61" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C346" s="66" t="s">
         <v>96</v>
@@ -13145,10 +11820,10 @@
         <v>125</v>
       </c>
       <c r="B347" s="61" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C347" s="66" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D347" s="86"/>
       <c r="E347" s="81"/>
@@ -13162,10 +11837,10 @@
         <v>502</v>
       </c>
       <c r="C348" s="72" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D348" s="94" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="E348" s="81" t="s">
         <v>501</v>
@@ -13196,7 +11871,7 @@
         <v>507</v>
       </c>
       <c r="C350" s="62" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D350" s="94"/>
       <c r="E350" s="81" t="s">
@@ -13212,7 +11887,7 @@
         <v>508</v>
       </c>
       <c r="C351" s="62" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D351" s="94"/>
       <c r="E351" s="81" t="s">
@@ -13228,7 +11903,7 @@
         <v>509</v>
       </c>
       <c r="C352" s="62" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D352" s="104"/>
       <c r="E352" s="81" t="s">
@@ -13241,10 +11916,10 @@
         <v>125</v>
       </c>
       <c r="B353" s="61" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C353" s="62" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D353" s="94"/>
       <c r="E353" s="81" t="s">
@@ -13257,10 +11932,10 @@
         <v>125</v>
       </c>
       <c r="B354" s="61" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C354" s="66" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D354" s="90"/>
       <c r="E354" s="81"/>
@@ -13271,13 +11946,13 @@
         <v>125</v>
       </c>
       <c r="B355" s="61" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C355" s="62" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D355" s="85" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
       <c r="E355" s="81" t="s">
         <v>479</v>
@@ -13289,14 +11964,14 @@
         <v>125</v>
       </c>
       <c r="B356" s="61" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C356" s="71" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D356" s="101"/>
       <c r="E356" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F356" s="79"/>
     </row>
@@ -13305,10 +11980,10 @@
         <v>125</v>
       </c>
       <c r="B357" s="61" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C357" s="66" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D357" s="90"/>
       <c r="E357" s="81"/>
@@ -13319,13 +11994,13 @@
         <v>125</v>
       </c>
       <c r="B358" s="61" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C358" s="62" t="s">
         <v>473</v>
       </c>
       <c r="D358" s="85" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
       <c r="E358" s="81" t="s">
         <v>474</v>
@@ -13337,10 +12012,10 @@
         <v>125</v>
       </c>
       <c r="B359" s="61" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C359" s="62" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D359" s="101"/>
       <c r="E359" s="97" t="s">
@@ -13353,10 +12028,10 @@
         <v>125</v>
       </c>
       <c r="B360" s="61" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C360" s="62" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D360" s="101"/>
       <c r="E360" s="81" t="s">
@@ -13369,10 +12044,10 @@
         <v>125</v>
       </c>
       <c r="B361" s="61" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C361" s="62" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D361" s="101"/>
       <c r="E361" s="81" t="s">
@@ -13385,14 +12060,14 @@
         <v>125</v>
       </c>
       <c r="B362" s="61" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C362" s="71" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D362" s="101"/>
       <c r="E362" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F362" s="79"/>
     </row>
@@ -13401,7 +12076,7 @@
         <v>125</v>
       </c>
       <c r="B363" s="61" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C363" s="64" t="s">
         <v>102</v>
@@ -13415,7 +12090,7 @@
         <v>125</v>
       </c>
       <c r="B364" s="61" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C364" s="66" t="s">
         <v>94</v>
@@ -13435,7 +12110,7 @@
         <v>459</v>
       </c>
       <c r="D365" s="101" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E365" s="81" t="s">
         <v>414</v>
@@ -13450,7 +12125,7 @@
         <v>511</v>
       </c>
       <c r="C366" s="72" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D366" s="105"/>
       <c r="E366" s="81" t="s">
@@ -13463,7 +12138,7 @@
         <v>125</v>
       </c>
       <c r="B367" s="61" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C367" s="62" t="s">
         <v>460</v>
@@ -13479,7 +12154,7 @@
         <v>125</v>
       </c>
       <c r="B368" s="61" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C368" s="66" t="s">
         <v>96</v>
@@ -13493,10 +12168,10 @@
         <v>125</v>
       </c>
       <c r="B369" s="61" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C369" s="66" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D369" s="90"/>
       <c r="E369" s="81"/>
@@ -13510,13 +12185,13 @@
         <v>512</v>
       </c>
       <c r="C370" s="62" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D370" s="94" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="E370" s="81" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="F370" s="79"/>
     </row>
@@ -13528,7 +12203,7 @@
         <v>514</v>
       </c>
       <c r="C371" s="62" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D371" s="101"/>
       <c r="E371" s="81" t="s">
@@ -13544,7 +12219,7 @@
         <v>515</v>
       </c>
       <c r="C372" s="62" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D372" s="101"/>
       <c r="E372" s="81" t="s">
@@ -13560,7 +12235,7 @@
         <v>516</v>
       </c>
       <c r="C373" s="62" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D373" s="101"/>
       <c r="E373" s="81" t="s">
@@ -13576,7 +12251,7 @@
         <v>517</v>
       </c>
       <c r="C374" s="62" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D374" s="101"/>
       <c r="E374" s="81" t="s">
@@ -13589,10 +12264,10 @@
         <v>125</v>
       </c>
       <c r="B375" s="61" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C375" s="62" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D375" s="101"/>
       <c r="E375" s="81" t="s">
@@ -13605,10 +12280,10 @@
         <v>125</v>
       </c>
       <c r="B376" s="61" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C376" s="66" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D376" s="86"/>
       <c r="E376" s="81"/>
@@ -13619,13 +12294,13 @@
         <v>125</v>
       </c>
       <c r="B377" s="61" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C377" s="62" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D377" s="94" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
       <c r="E377" s="81" t="s">
         <v>479</v>
@@ -13637,14 +12312,14 @@
         <v>125</v>
       </c>
       <c r="B378" s="61" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C378" s="71" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D378" s="82"/>
       <c r="E378" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F378" s="79"/>
     </row>
@@ -13653,10 +12328,10 @@
         <v>125</v>
       </c>
       <c r="B379" s="61" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C379" s="66" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D379" s="86"/>
       <c r="E379" s="81"/>
@@ -13667,13 +12342,13 @@
         <v>125</v>
       </c>
       <c r="B380" s="61" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C380" s="62" t="s">
         <v>473</v>
       </c>
       <c r="D380" s="101" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
       <c r="E380" s="81" t="s">
         <v>474</v>
@@ -13685,10 +12360,10 @@
         <v>125</v>
       </c>
       <c r="B381" s="61" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C381" s="62" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D381" s="101"/>
       <c r="E381" s="97" t="s">
@@ -13701,10 +12376,10 @@
         <v>125</v>
       </c>
       <c r="B382" s="61" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C382" s="62" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D382" s="101"/>
       <c r="E382" s="81" t="s">
@@ -13717,10 +12392,10 @@
         <v>125</v>
       </c>
       <c r="B383" s="61" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C383" s="69" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D383" s="85"/>
       <c r="E383" s="81" t="s">
@@ -13733,14 +12408,14 @@
         <v>125</v>
       </c>
       <c r="B384" s="61" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C384" s="71" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D384" s="85"/>
       <c r="E384" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F384" s="79"/>
     </row>
@@ -13749,7 +12424,7 @@
         <v>125</v>
       </c>
       <c r="B385" s="61" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C385" s="64" t="s">
         <v>106</v>
@@ -13763,7 +12438,7 @@
         <v>125</v>
       </c>
       <c r="B386" s="61" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C386" s="66" t="s">
         <v>94</v>
@@ -13783,7 +12458,7 @@
         <v>459</v>
       </c>
       <c r="D387" s="101" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E387" s="81" t="s">
         <v>414</v>
@@ -13798,7 +12473,7 @@
         <v>519</v>
       </c>
       <c r="C388" s="62" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D388" s="101"/>
       <c r="E388" s="81" t="s">
@@ -13811,7 +12486,7 @@
         <v>125</v>
       </c>
       <c r="B389" s="61" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C389" s="62" t="s">
         <v>460</v>
@@ -13827,7 +12502,7 @@
         <v>125</v>
       </c>
       <c r="B390" s="61" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C390" s="66" t="s">
         <v>96</v>
@@ -13841,10 +12516,10 @@
         <v>125</v>
       </c>
       <c r="B391" s="61" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C391" s="66" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D391" s="90"/>
       <c r="E391" s="81"/>
@@ -13858,10 +12533,10 @@
         <v>520</v>
       </c>
       <c r="C392" s="69" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D392" s="85" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="E392" s="81" t="s">
         <v>501</v>
@@ -13876,7 +12551,7 @@
         <v>521</v>
       </c>
       <c r="C393" s="62" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D393" s="101"/>
       <c r="E393" s="81" t="s">
@@ -13892,7 +12567,7 @@
         <v>522</v>
       </c>
       <c r="C394" s="62" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D394" s="101"/>
       <c r="E394" s="81" t="s">
@@ -13908,7 +12583,7 @@
         <v>523</v>
       </c>
       <c r="C395" s="72" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D395" s="105"/>
       <c r="E395" s="81" t="s">
@@ -13921,10 +12596,10 @@
         <v>125</v>
       </c>
       <c r="B396" s="61" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C396" s="66" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D396" s="90"/>
       <c r="E396" s="81"/>
@@ -13938,10 +12613,10 @@
         <v>525</v>
       </c>
       <c r="C397" s="72" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D397" s="105" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="E397" s="81" t="s">
         <v>526</v>
@@ -13956,7 +12631,7 @@
         <v>527</v>
       </c>
       <c r="C398" s="72" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D398" s="105"/>
       <c r="E398" s="81" t="s">
@@ -13969,10 +12644,10 @@
         <v>125</v>
       </c>
       <c r="B399" s="61" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C399" s="72" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D399" s="105"/>
       <c r="E399" s="97" t="s">
@@ -13985,10 +12660,10 @@
         <v>125</v>
       </c>
       <c r="B400" s="61" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C400" s="66" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D400" s="86"/>
       <c r="E400" s="81"/>
@@ -14005,7 +12680,7 @@
         <v>473</v>
       </c>
       <c r="D401" s="101" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="E401" s="81" t="s">
         <v>474</v>
@@ -14020,7 +12695,7 @@
         <v>530</v>
       </c>
       <c r="C402" s="62" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D402" s="94"/>
       <c r="E402" s="81" t="s">
@@ -14036,7 +12711,7 @@
         <v>531</v>
       </c>
       <c r="C403" s="62" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D403" s="94"/>
       <c r="E403" s="81" t="s">
@@ -14049,10 +12724,10 @@
         <v>125</v>
       </c>
       <c r="B404" s="61" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C404" s="69" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D404" s="82"/>
       <c r="E404" s="82" t="s">
@@ -14068,7 +12743,7 @@
         <v>532</v>
       </c>
       <c r="C405" s="62" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D405" s="94"/>
       <c r="E405" s="81" t="s">
@@ -14084,7 +12759,7 @@
         <v>533</v>
       </c>
       <c r="C406" s="62" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D406" s="101"/>
       <c r="E406" s="81" t="s">
@@ -14097,10 +12772,10 @@
         <v>125</v>
       </c>
       <c r="B407" s="61" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C407" s="66" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D407" s="90"/>
       <c r="E407" s="81"/>
@@ -14111,13 +12786,13 @@
         <v>125</v>
       </c>
       <c r="B408" s="61" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C408" s="62" t="s">
         <v>487</v>
       </c>
       <c r="D408" s="101" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="E408" s="81" t="s">
         <v>488</v>
@@ -14129,7 +12804,7 @@
         <v>125</v>
       </c>
       <c r="B409" s="61" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C409" s="62" t="s">
         <v>490</v>
@@ -14145,10 +12820,10 @@
         <v>125</v>
       </c>
       <c r="B410" s="61" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C410" s="62" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D410" s="101"/>
       <c r="E410" s="81" t="s">
@@ -14161,10 +12836,10 @@
         <v>125</v>
       </c>
       <c r="B411" s="61" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C411" s="62" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D411" s="101"/>
       <c r="E411" s="81" t="s">
@@ -14177,10 +12852,10 @@
         <v>125</v>
       </c>
       <c r="B412" s="61" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C412" s="66" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D412" s="90"/>
       <c r="E412" s="81"/>
@@ -14191,13 +12866,13 @@
         <v>125</v>
       </c>
       <c r="B413" s="61" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C413" s="62" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D413" s="101" t="s">
-        <v>1217</v>
+        <v>1059</v>
+      </c>
+      <c r="D413" s="94" t="s">
+        <v>1219</v>
       </c>
       <c r="E413" s="81" t="s">
         <v>479</v>
@@ -14209,14 +12884,14 @@
         <v>125</v>
       </c>
       <c r="B414" s="61" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C414" s="71" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D414" s="85"/>
       <c r="E414" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F414" s="79"/>
     </row>
@@ -14225,10 +12900,10 @@
         <v>125</v>
       </c>
       <c r="B415" s="61" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C415" s="66" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D415" s="90"/>
       <c r="E415" s="81"/>
@@ -14239,13 +12914,13 @@
         <v>125</v>
       </c>
       <c r="B416" s="61" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C416" s="62" t="s">
         <v>473</v>
       </c>
       <c r="D416" s="101" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
       <c r="E416" s="81" t="s">
         <v>474</v>
@@ -14257,10 +12932,10 @@
         <v>125</v>
       </c>
       <c r="B417" s="61" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C417" s="62" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D417" s="94"/>
       <c r="E417" s="97" t="s">
@@ -14273,10 +12948,10 @@
         <v>125</v>
       </c>
       <c r="B418" s="61" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C418" s="62" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D418" s="94"/>
       <c r="E418" s="81" t="s">
@@ -14289,10 +12964,10 @@
         <v>125</v>
       </c>
       <c r="B419" s="61" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C419" s="69" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D419" s="82"/>
       <c r="E419" s="81" t="s">
@@ -14305,14 +12980,14 @@
         <v>125</v>
       </c>
       <c r="B420" s="61" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C420" s="71" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D420" s="85"/>
       <c r="E420" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F420" s="79"/>
     </row>
@@ -14335,7 +13010,7 @@
         <v>125</v>
       </c>
       <c r="B422" s="61" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C422" s="62" t="s">
         <v>112</v>
@@ -14343,7 +13018,7 @@
       <c r="D422" s="101"/>
       <c r="E422" s="94"/>
       <c r="F422" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -14351,7 +13026,7 @@
         <v>125</v>
       </c>
       <c r="B423" s="61" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C423" s="62" t="s">
         <v>94</v>
@@ -14359,7 +13034,7 @@
       <c r="D423" s="101"/>
       <c r="E423" s="94"/>
       <c r="F423" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -14367,7 +13042,7 @@
         <v>125</v>
       </c>
       <c r="B424" s="61" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C424" s="62" t="s">
         <v>96</v>
@@ -14375,7 +13050,7 @@
       <c r="D424" s="101"/>
       <c r="E424" s="94"/>
       <c r="F424" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -14397,7 +13072,7 @@
         <v>125</v>
       </c>
       <c r="B426" s="61" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C426" s="62" t="s">
         <v>118</v>
@@ -14405,7 +13080,7 @@
       <c r="D426" s="101"/>
       <c r="E426" s="94"/>
       <c r="F426" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -14413,7 +13088,7 @@
         <v>125</v>
       </c>
       <c r="B427" s="61" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C427" s="62" t="s">
         <v>94</v>
@@ -14421,7 +13096,7 @@
       <c r="D427" s="101"/>
       <c r="E427" s="94"/>
       <c r="F427" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -14443,7 +13118,7 @@
         <v>125</v>
       </c>
       <c r="B429" s="61" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C429" s="66" t="s">
         <v>94</v>
@@ -14457,13 +13132,13 @@
         <v>125</v>
       </c>
       <c r="B430" s="61" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C430" s="62" t="s">
         <v>459</v>
       </c>
       <c r="D430" s="101" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E430" s="81" t="s">
         <v>414</v>
@@ -14475,10 +13150,10 @@
         <v>125</v>
       </c>
       <c r="B431" s="61" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C431" s="62" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D431" s="101"/>
       <c r="E431" s="81" t="s">
@@ -14491,7 +13166,7 @@
         <v>125</v>
       </c>
       <c r="B432" s="61" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C432" s="62" t="s">
         <v>460</v>
@@ -14507,7 +13182,7 @@
         <v>125</v>
       </c>
       <c r="B433" s="61" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C433" s="66" t="s">
         <v>96</v>
@@ -14521,10 +13196,10 @@
         <v>125</v>
       </c>
       <c r="B434" s="61" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C434" s="66" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D434" s="90"/>
       <c r="E434" s="81"/>
@@ -14535,13 +13210,13 @@
         <v>125</v>
       </c>
       <c r="B435" s="61" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C435" s="62" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D435" s="101" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E435" s="81" t="s">
         <v>465</v>
@@ -14553,10 +13228,10 @@
         <v>125</v>
       </c>
       <c r="B436" s="61" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C436" s="62" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D436" s="101"/>
       <c r="E436" s="81" t="s">
@@ -14569,14 +13244,14 @@
         <v>125</v>
       </c>
       <c r="B437" s="61" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C437" s="71" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D437" s="85"/>
       <c r="E437" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F437" s="79"/>
     </row>
@@ -14585,10 +13260,10 @@
         <v>125</v>
       </c>
       <c r="B438" s="61" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C438" s="72" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D438" s="105"/>
       <c r="E438" s="81" t="s">
@@ -14601,10 +13276,10 @@
         <v>125</v>
       </c>
       <c r="B439" s="61" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C439" s="72" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D439" s="105"/>
       <c r="E439" s="81" t="s">
@@ -14617,10 +13292,10 @@
         <v>125</v>
       </c>
       <c r="B440" s="61" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C440" s="72" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D440" s="105"/>
       <c r="E440" s="81" t="s">
@@ -14633,10 +13308,10 @@
         <v>125</v>
       </c>
       <c r="B441" s="61" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C441" s="66" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D441" s="90"/>
       <c r="E441" s="81"/>
@@ -14647,13 +13322,13 @@
         <v>125</v>
       </c>
       <c r="B442" s="61" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C442" s="62" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D442" s="101" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="E442" s="81" t="s">
         <v>479</v>
@@ -14665,14 +13340,14 @@
         <v>125</v>
       </c>
       <c r="B443" s="61" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C443" s="71" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D443" s="85"/>
       <c r="E443" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F443" s="79"/>
     </row>
@@ -14681,10 +13356,10 @@
         <v>125</v>
       </c>
       <c r="B444" s="61" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C444" s="66" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D444" s="90"/>
       <c r="E444" s="81"/>
@@ -14695,13 +13370,13 @@
         <v>125</v>
       </c>
       <c r="B445" s="61" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C445" s="62" t="s">
         <v>473</v>
       </c>
       <c r="D445" s="94" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
       <c r="E445" s="81" t="s">
         <v>474</v>
@@ -14713,10 +13388,10 @@
         <v>125</v>
       </c>
       <c r="B446" s="61" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C446" s="62" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D446" s="94"/>
       <c r="E446" s="81" t="s">
@@ -14729,10 +13404,10 @@
         <v>125</v>
       </c>
       <c r="B447" s="61" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C447" s="62" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D447" s="94"/>
       <c r="E447" s="81" t="s">
@@ -14745,10 +13420,10 @@
         <v>125</v>
       </c>
       <c r="B448" s="61" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C448" s="69" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D448" s="82"/>
       <c r="E448" s="81" t="s">
@@ -14761,14 +13436,14 @@
         <v>125</v>
       </c>
       <c r="B449" s="61" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C449" s="71" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D449" s="82"/>
       <c r="E449" s="81" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="F449" s="79"/>
     </row>
@@ -15033,7 +13708,7 @@
         <v>554</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16" t="s">
@@ -15090,7 +13765,7 @@
         <v>557</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
@@ -15688,12 +14363,12 @@
         <v>128</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.5">
       <c r="C38" s="16" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>438</v>
@@ -16105,7 +14780,7 @@
         <v>630</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="2" t="s">
@@ -16485,7 +15160,7 @@
         <v>672</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="3"/>
@@ -16627,7 +15302,7 @@
         <v>691</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
@@ -16901,7 +15576,7 @@
         <v>718</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
@@ -17822,8 +16497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A015C4C0-F12E-4B79-AB05-4930D7875CD3}">
   <dimension ref="A1:IV2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -18110,22 +16785,22 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="67" t="s">
-        <v>931</v>
+        <v>1216</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="F2" t="s">
         <v>225</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
   </sheetData>

--- a/docs/coverage-testing/collapsed.xlsx
+++ b/docs/coverage-testing/collapsed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE6109F-C558-485B-A047-2B745FDE7EAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FBC3BA-57CB-46F3-922D-94A97BDE361D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="240" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="240" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="1223">
   <si>
     <t>Test Case</t>
   </si>
@@ -4075,7 +4075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4267,7 +4267,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4276,12 +4275,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4316,7 +4309,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4332,7 +4324,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4340,6 +4331,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6300,17 +6303,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C8DD9-7E09-4AC9-B53E-1B766442D166}">
   <dimension ref="A1:F449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="D416" sqref="D416"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="C282" sqref="C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="85.375" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="104" customWidth="1"/>
+    <col min="2" max="2" width="12" style="104" customWidth="1"/>
+    <col min="3" max="3" width="85.375" style="104" customWidth="1"/>
+    <col min="4" max="4" width="85.375" style="104" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="104" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="104" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
@@ -6345,7 +6349,7 @@
       </c>
       <c r="D2" s="77"/>
       <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="60" t="s">
@@ -6357,9 +6361,9 @@
       <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="60" t="s">
@@ -6371,13 +6375,13 @@
       <c r="C4" s="69" t="s">
         <v>906</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="81" t="s">
         <v>1183</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="79"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="60" t="s">
@@ -6389,11 +6393,11 @@
       <c r="C5" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="79"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="60" t="s">
@@ -6405,11 +6409,11 @@
       <c r="C6" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="79"/>
+      <c r="F6" s="101"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="60" t="s">
@@ -6421,11 +6425,11 @@
       <c r="C7" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="60" t="s">
@@ -6437,11 +6441,11 @@
       <c r="C8" s="69" t="s">
         <v>895</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="79"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="60" t="s">
@@ -6453,11 +6457,11 @@
       <c r="C9" s="69" t="s">
         <v>886</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83" t="s">
+      <c r="D9" s="81"/>
+      <c r="E9" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="79"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="60" t="s">
@@ -6469,11 +6473,11 @@
       <c r="C10" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="79"/>
+      <c r="F10" s="101"/>
     </row>
     <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="60" t="s">
@@ -6485,11 +6489,11 @@
       <c r="C11" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83" t="s">
+      <c r="D11" s="81"/>
+      <c r="E11" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="79"/>
+      <c r="F11" s="101"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="60" t="s">
@@ -6501,11 +6505,11 @@
       <c r="C12" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83" t="s">
+      <c r="D12" s="81"/>
+      <c r="E12" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="79"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60" t="s">
@@ -6517,11 +6521,11 @@
       <c r="C13" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="79"/>
+      <c r="F13" s="101"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="60" t="s">
@@ -6533,11 +6537,11 @@
       <c r="C14" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83" t="s">
+      <c r="D14" s="81"/>
+      <c r="E14" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="79"/>
+      <c r="F14" s="101"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="60" t="s">
@@ -6549,9 +6553,9 @@
       <c r="C15" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="101"/>
     </row>
     <row r="16" spans="1:6" ht="31.5">
       <c r="A16" s="60" t="s">
@@ -6563,13 +6567,13 @@
       <c r="C16" s="69" t="s">
         <v>908</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="81" t="s">
         <v>1186</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="79"/>
+      <c r="F16" s="101"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="60" t="s">
@@ -6581,11 +6585,11 @@
       <c r="C17" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83" t="s">
+      <c r="D17" s="81"/>
+      <c r="E17" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="79"/>
+      <c r="F17" s="101"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="60" t="s">
@@ -6597,11 +6601,11 @@
       <c r="C18" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83" t="s">
+      <c r="D18" s="81"/>
+      <c r="E18" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="79"/>
+      <c r="F18" s="101"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="60" t="s">
@@ -6613,11 +6617,11 @@
       <c r="C19" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83" t="s">
+      <c r="D19" s="81"/>
+      <c r="E19" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="79"/>
+      <c r="F19" s="101"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="60" t="s">
@@ -6629,11 +6633,11 @@
       <c r="C20" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="79"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="60" t="s">
@@ -6645,11 +6649,11 @@
       <c r="C21" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="79"/>
+      <c r="F21" s="101"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="60" t="s">
@@ -6661,11 +6665,11 @@
       <c r="C22" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="79"/>
+      <c r="F22" s="101"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="60" t="s">
@@ -6677,11 +6681,11 @@
       <c r="C23" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="79"/>
+      <c r="F23" s="101"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="60" t="s">
@@ -6693,11 +6697,11 @@
       <c r="C24" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83" t="s">
+      <c r="D24" s="81"/>
+      <c r="E24" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="79"/>
+      <c r="F24" s="101"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="60" t="s">
@@ -6709,11 +6713,11 @@
       <c r="C25" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83" t="s">
+      <c r="D25" s="81"/>
+      <c r="E25" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="79"/>
+      <c r="F25" s="101"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="60" t="s">
@@ -6725,11 +6729,11 @@
       <c r="C26" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83" t="s">
+      <c r="D26" s="81"/>
+      <c r="E26" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="79"/>
+      <c r="F26" s="101"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="60" t="s">
@@ -6741,11 +6745,11 @@
       <c r="C27" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83" t="s">
+      <c r="D27" s="81"/>
+      <c r="E27" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="79"/>
+      <c r="F27" s="101"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="60" t="s">
@@ -6757,11 +6761,11 @@
       <c r="C28" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83" t="s">
+      <c r="D28" s="81"/>
+      <c r="E28" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="F28" s="101"/>
     </row>
     <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="60" t="s">
@@ -6773,11 +6777,11 @@
       <c r="C29" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="84" t="s">
+      <c r="D29" s="81"/>
+      <c r="E29" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="101"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="60" t="s">
@@ -6789,11 +6793,11 @@
       <c r="C30" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83" t="s">
+      <c r="D30" s="81"/>
+      <c r="E30" s="80" t="s">
         <v>584</v>
       </c>
-      <c r="F30" s="79"/>
+      <c r="F30" s="101"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="60" t="s">
@@ -6805,11 +6809,11 @@
       <c r="C31" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83" t="s">
+      <c r="D31" s="81"/>
+      <c r="E31" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="79"/>
+      <c r="F31" s="101"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="60" t="s">
@@ -6821,9 +6825,9 @@
       <c r="C32" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="101"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="60" t="s">
@@ -6835,13 +6839,13 @@
       <c r="C33" s="69" t="s">
         <v>911</v>
       </c>
-      <c r="D33" s="82" t="s">
+      <c r="D33" s="81" t="s">
         <v>1184</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="79"/>
+      <c r="F33" s="101"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="60" t="s">
@@ -6853,11 +6857,11 @@
       <c r="C34" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="81" t="s">
+      <c r="D34" s="81"/>
+      <c r="E34" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="79"/>
+      <c r="F34" s="101"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="60" t="s">
@@ -6869,11 +6873,11 @@
       <c r="C35" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="81" t="s">
+      <c r="D35" s="81"/>
+      <c r="E35" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="79"/>
+      <c r="F35" s="101"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="60" t="s">
@@ -6885,11 +6889,11 @@
       <c r="C36" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="81" t="s">
+      <c r="D36" s="81"/>
+      <c r="E36" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="79"/>
+      <c r="F36" s="101"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="60" t="s">
@@ -6901,11 +6905,11 @@
       <c r="C37" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="81" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="79"/>
+      <c r="F37" s="101"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="60" t="s">
@@ -6917,11 +6921,11 @@
       <c r="C38" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="81" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="79"/>
+      <c r="F38" s="101"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="60" t="s">
@@ -6933,11 +6937,11 @@
       <c r="C39" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="81" t="s">
+      <c r="D39" s="81"/>
+      <c r="E39" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="79"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="60" t="s">
@@ -6949,11 +6953,11 @@
       <c r="C40" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="D40" s="82"/>
-      <c r="E40" s="81" t="s">
+      <c r="D40" s="81"/>
+      <c r="E40" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="79"/>
+      <c r="F40" s="101"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="60" t="s">
@@ -6965,11 +6969,11 @@
       <c r="C41" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="81" t="s">
+      <c r="D41" s="81"/>
+      <c r="E41" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="F41" s="79"/>
+      <c r="F41" s="101"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="60" t="s">
@@ -6981,11 +6985,11 @@
       <c r="C42" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="81" t="s">
+      <c r="D42" s="81"/>
+      <c r="E42" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="79"/>
+      <c r="F42" s="101"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="60" t="s">
@@ -6997,9 +7001,9 @@
       <c r="C43" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="101"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="60" t="s">
@@ -7011,13 +7015,13 @@
       <c r="C44" s="69" t="s">
         <v>913</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="81" t="s">
         <v>1185</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="79"/>
+      <c r="F44" s="101"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="60" t="s">
@@ -7029,11 +7033,11 @@
       <c r="C45" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="81" t="s">
+      <c r="D45" s="81"/>
+      <c r="E45" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="79"/>
+      <c r="F45" s="101"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="60" t="s">
@@ -7045,11 +7049,11 @@
       <c r="C46" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="82"/>
-      <c r="E46" s="81" t="s">
+      <c r="D46" s="81"/>
+      <c r="E46" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="79"/>
+      <c r="F46" s="101"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="60" t="s">
@@ -7061,11 +7065,11 @@
       <c r="C47" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="81" t="s">
+      <c r="D47" s="81"/>
+      <c r="E47" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="79"/>
+      <c r="F47" s="101"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="60" t="s">
@@ -7077,11 +7081,11 @@
       <c r="C48" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="81" t="s">
+      <c r="D48" s="81"/>
+      <c r="E48" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="79"/>
+      <c r="F48" s="101"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="60" t="s">
@@ -7093,11 +7097,11 @@
       <c r="C49" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="82"/>
-      <c r="E49" s="81" t="s">
+      <c r="D49" s="81"/>
+      <c r="E49" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="79"/>
+      <c r="F49" s="101"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="60" t="s">
@@ -7109,11 +7113,11 @@
       <c r="C50" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="81" t="s">
+      <c r="D50" s="81"/>
+      <c r="E50" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="79"/>
+      <c r="F50" s="101"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="60" t="s">
@@ -7125,11 +7129,11 @@
       <c r="C51" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="81" t="s">
+      <c r="D51" s="81"/>
+      <c r="E51" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="79"/>
+      <c r="F51" s="101"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="60" t="s">
@@ -7141,11 +7145,11 @@
       <c r="C52" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="81" t="s">
+      <c r="D52" s="81"/>
+      <c r="E52" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="79"/>
+      <c r="F52" s="101"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="60" t="s">
@@ -7157,9 +7161,9 @@
       <c r="C53" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="101"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="60" t="s">
@@ -7171,13 +7175,13 @@
       <c r="C54" s="69" t="s">
         <v>915</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="81" t="s">
         <v>1187</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="79"/>
+      <c r="F54" s="101"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="60" t="s">
@@ -7189,11 +7193,11 @@
       <c r="C55" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="81" t="s">
+      <c r="D55" s="81"/>
+      <c r="E55" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="79"/>
+      <c r="F55" s="101"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="60" t="s">
@@ -7205,11 +7209,11 @@
       <c r="C56" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="81" t="s">
+      <c r="D56" s="81"/>
+      <c r="E56" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="79"/>
+      <c r="F56" s="101"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="60" t="s">
@@ -7221,11 +7225,11 @@
       <c r="C57" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="81" t="s">
+      <c r="D57" s="81"/>
+      <c r="E57" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="79"/>
+      <c r="F57" s="101"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="60" t="s">
@@ -7237,11 +7241,11 @@
       <c r="C58" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="82"/>
-      <c r="E58" s="81" t="s">
+      <c r="D58" s="81"/>
+      <c r="E58" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="F58" s="79"/>
+      <c r="F58" s="101"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="60" t="s">
@@ -7253,11 +7257,11 @@
       <c r="C59" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D59" s="82"/>
-      <c r="E59" s="81" t="s">
+      <c r="D59" s="81"/>
+      <c r="E59" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="79"/>
+      <c r="F59" s="101"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="60" t="s">
@@ -7269,11 +7273,11 @@
       <c r="C60" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="82"/>
-      <c r="E60" s="81" t="s">
+      <c r="D60" s="81"/>
+      <c r="E60" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="F60" s="79"/>
+      <c r="F60" s="101"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="60" t="s">
@@ -7285,11 +7289,11 @@
       <c r="C61" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="D61" s="82"/>
-      <c r="E61" s="81" t="s">
+      <c r="D61" s="81"/>
+      <c r="E61" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="F61" s="79"/>
+      <c r="F61" s="101"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="60" t="s">
@@ -7301,11 +7305,11 @@
       <c r="C62" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D62" s="82"/>
-      <c r="E62" s="81" t="s">
+      <c r="D62" s="81"/>
+      <c r="E62" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="F62" s="79"/>
+      <c r="F62" s="101"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="60" t="s">
@@ -7317,11 +7321,11 @@
       <c r="C63" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="82"/>
-      <c r="E63" s="81" t="s">
+      <c r="D63" s="81"/>
+      <c r="E63" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="79"/>
+      <c r="F63" s="101"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="60" t="s">
@@ -7333,9 +7337,9 @@
       <c r="C64" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="80"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="101"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="60" t="s">
@@ -7347,13 +7351,13 @@
       <c r="C65" s="69" t="s">
         <v>917</v>
       </c>
-      <c r="D65" s="82" t="s">
+      <c r="D65" s="81" t="s">
         <v>1188</v>
       </c>
-      <c r="E65" s="81" t="s">
+      <c r="E65" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F65" s="79"/>
+      <c r="F65" s="101"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="60" t="s">
@@ -7365,11 +7369,11 @@
       <c r="C66" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="82"/>
-      <c r="E66" s="81" t="s">
+      <c r="D66" s="81"/>
+      <c r="E66" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="79"/>
+      <c r="F66" s="101"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="60" t="s">
@@ -7381,11 +7385,11 @@
       <c r="C67" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="82"/>
-      <c r="E67" s="81" t="s">
+      <c r="D67" s="81"/>
+      <c r="E67" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="79"/>
+      <c r="F67" s="101"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="60" t="s">
@@ -7397,11 +7401,11 @@
       <c r="C68" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="82"/>
-      <c r="E68" s="81" t="s">
+      <c r="D68" s="81"/>
+      <c r="E68" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="79"/>
+      <c r="F68" s="101"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="60" t="s">
@@ -7413,11 +7417,11 @@
       <c r="C69" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="82"/>
-      <c r="E69" s="81" t="s">
+      <c r="D69" s="81"/>
+      <c r="E69" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="79"/>
+      <c r="F69" s="101"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="60" t="s">
@@ -7429,11 +7433,11 @@
       <c r="C70" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="82"/>
-      <c r="E70" s="81" t="s">
+      <c r="D70" s="81"/>
+      <c r="E70" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="79"/>
+      <c r="F70" s="101"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="60" t="s">
@@ -7445,11 +7449,11 @@
       <c r="C71" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="82"/>
-      <c r="E71" s="81" t="s">
+      <c r="D71" s="81"/>
+      <c r="E71" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="F71" s="79"/>
+      <c r="F71" s="101"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="60" t="s">
@@ -7461,11 +7465,11 @@
       <c r="C72" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D72" s="82"/>
-      <c r="E72" s="81" t="s">
+      <c r="D72" s="81"/>
+      <c r="E72" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="79"/>
+      <c r="F72" s="101"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="60" t="s">
@@ -7477,9 +7481,9 @@
       <c r="C73" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="80"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="101"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="60" t="s">
@@ -7491,13 +7495,13 @@
       <c r="C74" s="69" t="s">
         <v>919</v>
       </c>
-      <c r="D74" s="82" t="s">
+      <c r="D74" s="81" t="s">
         <v>1189</v>
       </c>
-      <c r="E74" s="81" t="s">
+      <c r="E74" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="79"/>
+      <c r="F74" s="101"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="60" t="s">
@@ -7509,11 +7513,11 @@
       <c r="C75" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D75" s="82"/>
-      <c r="E75" s="81" t="s">
+      <c r="D75" s="81"/>
+      <c r="E75" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F75" s="79"/>
+      <c r="F75" s="101"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="60" t="s">
@@ -7525,11 +7529,11 @@
       <c r="C76" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="82"/>
-      <c r="E76" s="81" t="s">
+      <c r="D76" s="81"/>
+      <c r="E76" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F76" s="79"/>
+      <c r="F76" s="101"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="60" t="s">
@@ -7541,11 +7545,11 @@
       <c r="C77" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="82"/>
-      <c r="E77" s="81" t="s">
+      <c r="D77" s="81"/>
+      <c r="E77" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F77" s="79"/>
+      <c r="F77" s="101"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="60" t="s">
@@ -7557,11 +7561,11 @@
       <c r="C78" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D78" s="82"/>
-      <c r="E78" s="81" t="s">
+      <c r="D78" s="81"/>
+      <c r="E78" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="F78" s="79"/>
+      <c r="F78" s="101"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="60" t="s">
@@ -7573,11 +7577,11 @@
       <c r="C79" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="82"/>
-      <c r="E79" s="81" t="s">
+      <c r="D79" s="81"/>
+      <c r="E79" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="F79" s="79"/>
+      <c r="F79" s="101"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="60" t="s">
@@ -7589,11 +7593,11 @@
       <c r="C80" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="D80" s="82"/>
-      <c r="E80" s="81" t="s">
+      <c r="D80" s="81"/>
+      <c r="E80" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="F80" s="79"/>
+      <c r="F80" s="101"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="60" t="s">
@@ -7605,11 +7609,11 @@
       <c r="C81" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="D81" s="82"/>
-      <c r="E81" s="81" t="s">
+      <c r="D81" s="81"/>
+      <c r="E81" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="F81" s="79"/>
+      <c r="F81" s="101"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="60" t="s">
@@ -7621,11 +7625,11 @@
       <c r="C82" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="D82" s="82"/>
-      <c r="E82" s="81" t="s">
+      <c r="D82" s="81"/>
+      <c r="E82" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="F82" s="79"/>
+      <c r="F82" s="101"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="60" t="s">
@@ -7637,11 +7641,11 @@
       <c r="C83" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D83" s="82"/>
-      <c r="E83" s="81" t="s">
+      <c r="D83" s="81"/>
+      <c r="E83" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F83" s="79"/>
+      <c r="F83" s="101"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="60" t="s">
@@ -7653,9 +7657,9 @@
       <c r="C84" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="80"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="101"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="60" t="s">
@@ -7667,13 +7671,13 @@
       <c r="C85" s="69" t="s">
         <v>921</v>
       </c>
-      <c r="D85" s="82" t="s">
+      <c r="D85" s="81" t="s">
         <v>1190</v>
       </c>
-      <c r="E85" s="81" t="s">
+      <c r="E85" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="79"/>
+      <c r="F85" s="101"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="60" t="s">
@@ -7685,11 +7689,11 @@
       <c r="C86" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D86" s="82"/>
-      <c r="E86" s="81" t="s">
+      <c r="D86" s="81"/>
+      <c r="E86" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F86" s="79"/>
+      <c r="F86" s="101"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="60" t="s">
@@ -7701,11 +7705,11 @@
       <c r="C87" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="82"/>
-      <c r="E87" s="81" t="s">
+      <c r="D87" s="81"/>
+      <c r="E87" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F87" s="79"/>
+      <c r="F87" s="101"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="60" t="s">
@@ -7717,11 +7721,11 @@
       <c r="C88" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="82"/>
-      <c r="E88" s="81" t="s">
+      <c r="D88" s="81"/>
+      <c r="E88" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F88" s="79"/>
+      <c r="F88" s="101"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60" t="s">
@@ -7733,11 +7737,11 @@
       <c r="C89" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="82"/>
-      <c r="E89" s="81" t="s">
+      <c r="D89" s="81"/>
+      <c r="E89" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="79"/>
+      <c r="F89" s="101"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="60" t="s">
@@ -7749,11 +7753,11 @@
       <c r="C90" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="D90" s="82"/>
-      <c r="E90" s="81" t="s">
+      <c r="D90" s="81"/>
+      <c r="E90" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="F90" s="79"/>
+      <c r="F90" s="101"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60" t="s">
@@ -7765,11 +7769,11 @@
       <c r="C91" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="D91" s="82"/>
-      <c r="E91" s="81" t="s">
+      <c r="D91" s="81"/>
+      <c r="E91" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="F91" s="79"/>
+      <c r="F91" s="101"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="60" t="s">
@@ -7781,11 +7785,11 @@
       <c r="C92" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="D92" s="82"/>
-      <c r="E92" s="81" t="s">
+      <c r="D92" s="81"/>
+      <c r="E92" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="F92" s="79"/>
+      <c r="F92" s="101"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="60" t="s">
@@ -7797,11 +7801,11 @@
       <c r="C93" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="82"/>
-      <c r="E93" s="81" t="s">
+      <c r="D93" s="81"/>
+      <c r="E93" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="F93" s="79"/>
+      <c r="F93" s="101"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="60" t="s">
@@ -7813,11 +7817,11 @@
       <c r="C94" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="82"/>
-      <c r="E94" s="81" t="s">
+      <c r="D94" s="81"/>
+      <c r="E94" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F94" s="79"/>
+      <c r="F94" s="101"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="60" t="s">
@@ -7829,9 +7833,9 @@
       <c r="C95" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="80"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="101"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="60" t="s">
@@ -7843,13 +7847,13 @@
       <c r="C96" s="69" t="s">
         <v>923</v>
       </c>
-      <c r="D96" s="82" t="s">
+      <c r="D96" s="81" t="s">
         <v>1184</v>
       </c>
-      <c r="E96" s="81" t="s">
+      <c r="E96" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F96" s="79"/>
+      <c r="F96" s="101"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="60" t="s">
@@ -7861,11 +7865,11 @@
       <c r="C97" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D97" s="82"/>
-      <c r="E97" s="81" t="s">
+      <c r="D97" s="81"/>
+      <c r="E97" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F97" s="79"/>
+      <c r="F97" s="101"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="60" t="s">
@@ -7877,11 +7881,11 @@
       <c r="C98" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D98" s="82"/>
-      <c r="E98" s="81" t="s">
+      <c r="D98" s="81"/>
+      <c r="E98" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F98" s="79"/>
+      <c r="F98" s="101"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="60" t="s">
@@ -7893,11 +7897,11 @@
       <c r="C99" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D99" s="82"/>
-      <c r="E99" s="81" t="s">
+      <c r="D99" s="81"/>
+      <c r="E99" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F99" s="79"/>
+      <c r="F99" s="101"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="60" t="s">
@@ -7909,11 +7913,11 @@
       <c r="C100" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="82"/>
-      <c r="E100" s="81" t="s">
+      <c r="D100" s="81"/>
+      <c r="E100" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="F100" s="79"/>
+      <c r="F100" s="101"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="60" t="s">
@@ -7925,11 +7929,11 @@
       <c r="C101" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="D101" s="82"/>
-      <c r="E101" s="81" t="s">
+      <c r="D101" s="81"/>
+      <c r="E101" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="F101" s="79"/>
+      <c r="F101" s="101"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="60" t="s">
@@ -7941,11 +7945,11 @@
       <c r="C102" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="D102" s="82"/>
-      <c r="E102" s="81" t="s">
+      <c r="D102" s="81"/>
+      <c r="E102" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="F102" s="79"/>
+      <c r="F102" s="101"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="60" t="s">
@@ -7957,11 +7961,11 @@
       <c r="C103" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="D103" s="82"/>
-      <c r="E103" s="81" t="s">
+      <c r="D103" s="81"/>
+      <c r="E103" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="F103" s="79"/>
+      <c r="F103" s="101"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="60" t="s">
@@ -7973,11 +7977,11 @@
       <c r="C104" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="D104" s="82"/>
-      <c r="E104" s="81" t="s">
+      <c r="D104" s="81"/>
+      <c r="E104" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="F104" s="79"/>
+      <c r="F104" s="101"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="60" t="s">
@@ -7989,11 +7993,11 @@
       <c r="C105" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D105" s="82"/>
-      <c r="E105" s="81" t="s">
+      <c r="D105" s="81"/>
+      <c r="E105" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F105" s="79"/>
+      <c r="F105" s="101"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="60" t="s">
@@ -8005,9 +8009,9 @@
       <c r="C106" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D106" s="80"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="79"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="101"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="60" t="s">
@@ -8019,13 +8023,13 @@
       <c r="C107" s="69" t="s">
         <v>925</v>
       </c>
-      <c r="D107" s="82" t="s">
+      <c r="D107" s="81" t="s">
         <v>1191</v>
       </c>
-      <c r="E107" s="81" t="s">
+      <c r="E107" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F107" s="79"/>
+      <c r="F107" s="101"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="60" t="s">
@@ -8037,11 +8041,11 @@
       <c r="C108" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D108" s="82"/>
-      <c r="E108" s="81" t="s">
+      <c r="D108" s="81"/>
+      <c r="E108" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="F108" s="79"/>
+      <c r="F108" s="101"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="60" t="s">
@@ -8053,11 +8057,11 @@
       <c r="C109" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D109" s="82"/>
-      <c r="E109" s="81" t="s">
+      <c r="D109" s="81"/>
+      <c r="E109" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F109" s="79"/>
+      <c r="F109" s="101"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="60" t="s">
@@ -8069,11 +8073,11 @@
       <c r="C110" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D110" s="82"/>
-      <c r="E110" s="81" t="s">
+      <c r="D110" s="81"/>
+      <c r="E110" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F110" s="79"/>
+      <c r="F110" s="101"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="60" t="s">
@@ -8085,11 +8089,11 @@
       <c r="C111" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="D111" s="82"/>
-      <c r="E111" s="81" t="s">
+      <c r="D111" s="81"/>
+      <c r="E111" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="F111" s="79"/>
+      <c r="F111" s="101"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="60" t="s">
@@ -8101,11 +8105,11 @@
       <c r="C112" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="D112" s="82"/>
-      <c r="E112" s="81" t="s">
+      <c r="D112" s="81"/>
+      <c r="E112" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="F112" s="79"/>
+      <c r="F112" s="101"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60" t="s">
@@ -8117,11 +8121,11 @@
       <c r="C113" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="D113" s="82"/>
-      <c r="E113" s="81" t="s">
+      <c r="D113" s="81"/>
+      <c r="E113" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="F113" s="79"/>
+      <c r="F113" s="101"/>
     </row>
     <row r="114" spans="1:6" ht="31.5">
       <c r="A114" s="60" t="s">
@@ -8133,11 +8137,11 @@
       <c r="C114" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="D114" s="82"/>
-      <c r="E114" s="81" t="s">
+      <c r="D114" s="81"/>
+      <c r="E114" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="F114" s="79"/>
+      <c r="F114" s="101"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60" t="s">
@@ -8149,9 +8153,9 @@
       <c r="C115" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="80"/>
-      <c r="E115" s="81"/>
-      <c r="F115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="101"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="60" t="s">
@@ -8163,13 +8167,13 @@
       <c r="C116" s="70" t="s">
         <v>928</v>
       </c>
-      <c r="D116" s="81" t="s">
+      <c r="D116" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="E116" s="81" t="s">
+      <c r="E116" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F116" s="79"/>
+      <c r="F116" s="101"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="60" t="s">
@@ -8181,11 +8185,11 @@
       <c r="C117" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D117" s="81"/>
-      <c r="E117" s="81" t="s">
+      <c r="D117" s="80"/>
+      <c r="E117" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F117" s="79"/>
+      <c r="F117" s="101"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="60" t="s">
@@ -8197,11 +8201,11 @@
       <c r="C118" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="81"/>
-      <c r="E118" s="81" t="s">
+      <c r="D118" s="80"/>
+      <c r="E118" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F118" s="79"/>
+      <c r="F118" s="101"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="60" t="s">
@@ -8213,11 +8217,11 @@
       <c r="C119" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="D119" s="81"/>
-      <c r="E119" s="81" t="s">
+      <c r="D119" s="80"/>
+      <c r="E119" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F119" s="79"/>
+      <c r="F119" s="101"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="60" t="s">
@@ -8229,11 +8233,11 @@
       <c r="C120" s="70" t="s">
         <v>933</v>
       </c>
-      <c r="D120" s="81"/>
-      <c r="E120" s="81" t="s">
+      <c r="D120" s="80"/>
+      <c r="E120" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F120" s="79"/>
+      <c r="F120" s="101"/>
     </row>
     <row r="121" spans="1:6" ht="31.5">
       <c r="A121" s="60" t="s">
@@ -8245,11 +8249,11 @@
       <c r="C121" s="71" t="s">
         <v>935</v>
       </c>
-      <c r="D121" s="82"/>
-      <c r="E121" s="81" t="s">
+      <c r="D121" s="81"/>
+      <c r="E121" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F121" s="79"/>
+      <c r="F121" s="101"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="60" t="s">
@@ -8261,11 +8265,11 @@
       <c r="C122" s="71" t="s">
         <v>937</v>
       </c>
-      <c r="D122" s="82"/>
-      <c r="E122" s="81" t="s">
+      <c r="D122" s="81"/>
+      <c r="E122" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F122" s="79"/>
+      <c r="F122" s="101"/>
     </row>
     <row r="123" spans="1:6" ht="47.25">
       <c r="A123" s="60" t="s">
@@ -8277,11 +8281,11 @@
       <c r="C123" s="71" t="s">
         <v>939</v>
       </c>
-      <c r="D123" s="82"/>
-      <c r="E123" s="81" t="s">
+      <c r="D123" s="81"/>
+      <c r="E123" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F123" s="79"/>
+      <c r="F123" s="101"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="60" t="s">
@@ -8293,11 +8297,11 @@
       <c r="C124" s="71" t="s">
         <v>941</v>
       </c>
-      <c r="D124" s="82"/>
-      <c r="E124" s="81" t="s">
+      <c r="D124" s="81"/>
+      <c r="E124" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F124" s="79"/>
+      <c r="F124" s="101"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="60" t="s">
@@ -8309,9 +8313,9 @@
       <c r="C125" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="80"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="81" t="s">
+      <c r="D125" s="79"/>
+      <c r="E125" s="101"/>
+      <c r="F125" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -8325,9 +8329,9 @@
       <c r="C126" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D126" s="80"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="79"/>
+      <c r="D126" s="79"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="101"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="60" t="s">
@@ -8339,13 +8343,13 @@
       <c r="C127" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D127" s="82" t="s">
+      <c r="D127" s="81" t="s">
         <v>1216</v>
       </c>
-      <c r="E127" s="81" t="s">
+      <c r="E127" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F127" s="79"/>
+      <c r="F127" s="101"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="60" t="s">
@@ -8357,13 +8361,13 @@
       <c r="C128" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="85" t="s">
+      <c r="D128" s="82" t="s">
         <v>1216</v>
       </c>
-      <c r="E128" s="81" t="s">
+      <c r="E128" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F128" s="79"/>
+      <c r="F128" s="101"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="60" t="s">
@@ -8375,13 +8379,13 @@
       <c r="C129" s="71" t="s">
         <v>948</v>
       </c>
-      <c r="D129" s="85" t="s">
+      <c r="D129" s="82" t="s">
         <v>1216</v>
       </c>
-      <c r="E129" s="81" t="s">
+      <c r="E129" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F129" s="79"/>
+      <c r="F129" s="101"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="60" t="s">
@@ -8393,9 +8397,9 @@
       <c r="C130" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D130" s="86"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="81" t="s">
+      <c r="D130" s="83"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -8409,9 +8413,9 @@
       <c r="C131" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="86"/>
-      <c r="E131" s="79"/>
-      <c r="F131" s="81" t="s">
+      <c r="D131" s="83"/>
+      <c r="E131" s="101"/>
+      <c r="F131" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -8425,9 +8429,9 @@
       <c r="C132" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D132" s="86"/>
-      <c r="E132" s="79"/>
-      <c r="F132" s="81" t="s">
+      <c r="D132" s="83"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -8443,7 +8447,7 @@
       </c>
       <c r="D133" s="77"/>
       <c r="E133" s="78"/>
-      <c r="F133" s="79"/>
+      <c r="F133" s="101"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="60" t="s">
@@ -8455,9 +8459,9 @@
       <c r="C134" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D134" s="80"/>
-      <c r="E134" s="81"/>
-      <c r="F134" s="79"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="101"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="60" t="s">
@@ -8469,9 +8473,9 @@
       <c r="C135" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D135" s="86"/>
-      <c r="E135" s="81"/>
-      <c r="F135" s="79"/>
+      <c r="D135" s="83"/>
+      <c r="E135" s="80"/>
+      <c r="F135" s="101"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="60" t="s">
@@ -8483,13 +8487,13 @@
       <c r="C136" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="D136" s="82" t="s">
+      <c r="D136" s="81" t="s">
         <v>1192</v>
       </c>
-      <c r="E136" s="81" t="s">
+      <c r="E136" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="F136" s="79"/>
+      <c r="F136" s="101"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="60" t="s">
@@ -8501,11 +8505,11 @@
       <c r="C137" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="D137" s="82"/>
-      <c r="E137" s="81" t="s">
+      <c r="D137" s="81"/>
+      <c r="E137" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="F137" s="79"/>
+      <c r="F137" s="101"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="60" t="s">
@@ -8517,11 +8521,11 @@
       <c r="C138" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="D138" s="82"/>
-      <c r="E138" s="81" t="s">
+      <c r="D138" s="81"/>
+      <c r="E138" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="F138" s="79"/>
+      <c r="F138" s="101"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="60" t="s">
@@ -8533,11 +8537,11 @@
       <c r="C139" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="D139" s="82"/>
-      <c r="E139" s="81" t="s">
+      <c r="D139" s="81"/>
+      <c r="E139" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="F139" s="79"/>
+      <c r="F139" s="101"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="60" t="s">
@@ -8549,9 +8553,9 @@
       <c r="C140" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D140" s="86"/>
-      <c r="E140" s="81"/>
-      <c r="F140" s="79"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="80"/>
+      <c r="F140" s="101"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="60" t="s">
@@ -8563,13 +8567,13 @@
       <c r="C141" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="D141" s="82" t="s">
+      <c r="D141" s="81" t="s">
         <v>1193</v>
       </c>
-      <c r="E141" s="81" t="s">
+      <c r="E141" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="F141" s="79"/>
+      <c r="F141" s="101"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="60" t="s">
@@ -8581,11 +8585,11 @@
       <c r="C142" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="D142" s="82"/>
-      <c r="E142" s="81" t="s">
+      <c r="D142" s="81"/>
+      <c r="E142" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="F142" s="79"/>
+      <c r="F142" s="101"/>
     </row>
     <row r="143" spans="1:6" ht="31.5">
       <c r="A143" s="60" t="s">
@@ -8597,11 +8601,11 @@
       <c r="C143" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="D143" s="82"/>
-      <c r="E143" s="81" t="s">
+      <c r="D143" s="81"/>
+      <c r="E143" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F143" s="79"/>
+      <c r="F143" s="101"/>
     </row>
     <row r="144" spans="1:6" ht="31.5">
       <c r="A144" s="60" t="s">
@@ -8613,11 +8617,11 @@
       <c r="C144" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="D144" s="82"/>
-      <c r="E144" s="81" t="s">
+      <c r="D144" s="81"/>
+      <c r="E144" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="F144" s="79"/>
+      <c r="F144" s="101"/>
     </row>
     <row r="145" spans="1:6" ht="31.5">
       <c r="A145" s="60" t="s">
@@ -8629,11 +8633,11 @@
       <c r="C145" s="69" t="s">
         <v>898</v>
       </c>
-      <c r="D145" s="82"/>
-      <c r="E145" s="81" t="s">
+      <c r="D145" s="81"/>
+      <c r="E145" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="F145" s="79"/>
+      <c r="F145" s="101"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="60" t="s">
@@ -8645,11 +8649,11 @@
       <c r="C146" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="D146" s="82"/>
-      <c r="E146" s="81" t="s">
+      <c r="D146" s="81"/>
+      <c r="E146" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="F146" s="79"/>
+      <c r="F146" s="101"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="60" t="s">
@@ -8661,11 +8665,11 @@
       <c r="C147" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="D147" s="82"/>
-      <c r="E147" s="81" t="s">
+      <c r="D147" s="81"/>
+      <c r="E147" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="F147" s="79"/>
+      <c r="F147" s="101"/>
     </row>
     <row r="148" spans="1:6" ht="31.5">
       <c r="A148" s="60" t="s">
@@ -8677,11 +8681,11 @@
       <c r="C148" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="D148" s="82"/>
-      <c r="E148" s="81" t="s">
+      <c r="D148" s="81"/>
+      <c r="E148" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="F148" s="79"/>
+      <c r="F148" s="101"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="60" t="s">
@@ -8693,11 +8697,11 @@
       <c r="C149" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="D149" s="82"/>
-      <c r="E149" s="81" t="s">
+      <c r="D149" s="81"/>
+      <c r="E149" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F149" s="79"/>
+      <c r="F149" s="101"/>
     </row>
     <row r="150" spans="1:6" ht="31.5">
       <c r="A150" s="60" t="s">
@@ -8709,11 +8713,11 @@
       <c r="C150" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="D150" s="82"/>
-      <c r="E150" s="81" t="s">
+      <c r="D150" s="81"/>
+      <c r="E150" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="F150" s="79"/>
+      <c r="F150" s="101"/>
     </row>
     <row r="151" spans="1:6" ht="31.5">
       <c r="A151" s="60" t="s">
@@ -8725,11 +8729,11 @@
       <c r="C151" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="D151" s="82"/>
-      <c r="E151" s="81" t="s">
+      <c r="D151" s="81"/>
+      <c r="E151" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="F151" s="79"/>
+      <c r="F151" s="101"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="60" t="s">
@@ -8741,11 +8745,11 @@
       <c r="C152" s="69" t="s">
         <v>899</v>
       </c>
-      <c r="D152" s="82"/>
-      <c r="E152" s="81" t="s">
+      <c r="D152" s="81"/>
+      <c r="E152" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="F152" s="79"/>
+      <c r="F152" s="101"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="60" t="s">
@@ -8757,9 +8761,9 @@
       <c r="C153" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D153" s="87"/>
-      <c r="E153" s="81"/>
-      <c r="F153" s="79"/>
+      <c r="D153" s="84"/>
+      <c r="E153" s="80"/>
+      <c r="F153" s="101"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="60" t="s">
@@ -8771,9 +8775,9 @@
       <c r="C154" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D154" s="86"/>
-      <c r="E154" s="81"/>
-      <c r="F154" s="79"/>
+      <c r="D154" s="83"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="101"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="60" t="s">
@@ -8785,13 +8789,13 @@
       <c r="C155" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="D155" s="82" t="s">
+      <c r="D155" s="81" t="s">
         <v>1192</v>
       </c>
-      <c r="E155" s="81" t="s">
+      <c r="E155" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="F155" s="79"/>
+      <c r="F155" s="101"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="60" t="s">
@@ -8803,11 +8807,11 @@
       <c r="C156" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="D156" s="82"/>
-      <c r="E156" s="81" t="s">
+      <c r="D156" s="81"/>
+      <c r="E156" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="F156" s="79"/>
+      <c r="F156" s="101"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="60" t="s">
@@ -8819,11 +8823,11 @@
       <c r="C157" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="D157" s="82"/>
-      <c r="E157" s="81" t="s">
+      <c r="D157" s="81"/>
+      <c r="E157" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="F157" s="79"/>
+      <c r="F157" s="101"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="60" t="s">
@@ -8835,11 +8839,11 @@
       <c r="C158" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="D158" s="82"/>
-      <c r="E158" s="81" t="s">
+      <c r="D158" s="81"/>
+      <c r="E158" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="F158" s="79"/>
+      <c r="F158" s="101"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="60" t="s">
@@ -8851,9 +8855,9 @@
       <c r="C159" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D159" s="86"/>
-      <c r="E159" s="81"/>
-      <c r="F159" s="79"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="80"/>
+      <c r="F159" s="101"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="60" t="s">
@@ -8865,13 +8869,13 @@
       <c r="C160" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="D160" s="82" t="s">
+      <c r="D160" s="81" t="s">
         <v>1193</v>
       </c>
-      <c r="E160" s="81" t="s">
+      <c r="E160" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="F160" s="79"/>
+      <c r="F160" s="101"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="60" t="s">
@@ -8883,11 +8887,11 @@
       <c r="C161" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="D161" s="82"/>
-      <c r="E161" s="81" t="s">
+      <c r="D161" s="81"/>
+      <c r="E161" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="F161" s="79"/>
+      <c r="F161" s="101"/>
     </row>
     <row r="162" spans="1:6" ht="31.5">
       <c r="A162" s="60" t="s">
@@ -8899,11 +8903,11 @@
       <c r="C162" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="D162" s="82"/>
-      <c r="E162" s="81" t="s">
+      <c r="D162" s="81"/>
+      <c r="E162" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F162" s="79"/>
+      <c r="F162" s="101"/>
     </row>
     <row r="163" spans="1:6" ht="31.5">
       <c r="A163" s="60" t="s">
@@ -8915,11 +8919,11 @@
       <c r="C163" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="D163" s="82"/>
-      <c r="E163" s="81" t="s">
+      <c r="D163" s="81"/>
+      <c r="E163" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="F163" s="79"/>
+      <c r="F163" s="101"/>
     </row>
     <row r="164" spans="1:6" ht="31.5">
       <c r="A164" s="60" t="s">
@@ -8931,11 +8935,11 @@
       <c r="C164" s="69" t="s">
         <v>898</v>
       </c>
-      <c r="D164" s="82"/>
-      <c r="E164" s="81" t="s">
+      <c r="D164" s="81"/>
+      <c r="E164" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="F164" s="79"/>
+      <c r="F164" s="101"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="60" t="s">
@@ -8947,11 +8951,11 @@
       <c r="C165" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="D165" s="82"/>
-      <c r="E165" s="81" t="s">
+      <c r="D165" s="81"/>
+      <c r="E165" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="F165" s="79"/>
+      <c r="F165" s="101"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="60" t="s">
@@ -8963,11 +8967,11 @@
       <c r="C166" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="D166" s="82"/>
-      <c r="E166" s="81" t="s">
+      <c r="D166" s="81"/>
+      <c r="E166" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="F166" s="79"/>
+      <c r="F166" s="101"/>
     </row>
     <row r="167" spans="1:6" ht="31.5">
       <c r="A167" s="60" t="s">
@@ -8979,11 +8983,11 @@
       <c r="C167" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="D167" s="82"/>
-      <c r="E167" s="81" t="s">
+      <c r="D167" s="81"/>
+      <c r="E167" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="F167" s="79"/>
+      <c r="F167" s="101"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="60" t="s">
@@ -8995,11 +8999,11 @@
       <c r="C168" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D168" s="82"/>
-      <c r="E168" s="81" t="s">
+      <c r="D168" s="81"/>
+      <c r="E168" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F168" s="79"/>
+      <c r="F168" s="101"/>
     </row>
     <row r="169" spans="1:6" ht="31.5">
       <c r="A169" s="60" t="s">
@@ -9011,11 +9015,11 @@
       <c r="C169" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="D169" s="82"/>
-      <c r="E169" s="81" t="s">
+      <c r="D169" s="81"/>
+      <c r="E169" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="F169" s="79"/>
+      <c r="F169" s="101"/>
     </row>
     <row r="170" spans="1:6" ht="31.5">
       <c r="A170" s="60" t="s">
@@ -9027,11 +9031,11 @@
       <c r="C170" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="D170" s="82"/>
-      <c r="E170" s="81" t="s">
+      <c r="D170" s="81"/>
+      <c r="E170" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="F170" s="79"/>
+      <c r="F170" s="101"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="60" t="s">
@@ -9043,11 +9047,11 @@
       <c r="C171" s="69" t="s">
         <v>899</v>
       </c>
-      <c r="D171" s="82"/>
-      <c r="E171" s="81" t="s">
+      <c r="D171" s="81"/>
+      <c r="E171" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="F171" s="79"/>
+      <c r="F171" s="101"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="60" t="s">
@@ -9059,9 +9063,9 @@
       <c r="C172" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D172" s="88"/>
-      <c r="E172" s="81"/>
-      <c r="F172" s="79"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="80"/>
+      <c r="F172" s="101"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="60" t="s">
@@ -9073,9 +9077,9 @@
       <c r="C173" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D173" s="86"/>
-      <c r="E173" s="82"/>
-      <c r="F173" s="79"/>
+      <c r="D173" s="83"/>
+      <c r="E173" s="81"/>
+      <c r="F173" s="101"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="60" t="s">
@@ -9087,13 +9091,13 @@
       <c r="C174" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="D174" s="82" t="s">
+      <c r="D174" s="81" t="s">
         <v>1192</v>
       </c>
-      <c r="E174" s="81" t="s">
+      <c r="E174" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="F174" s="79"/>
+      <c r="F174" s="101"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="60" t="s">
@@ -9105,11 +9109,11 @@
       <c r="C175" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="D175" s="82"/>
-      <c r="E175" s="81" t="s">
+      <c r="D175" s="81"/>
+      <c r="E175" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="F175" s="79"/>
+      <c r="F175" s="101"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="60" t="s">
@@ -9121,11 +9125,11 @@
       <c r="C176" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="D176" s="82"/>
-      <c r="E176" s="81" t="s">
+      <c r="D176" s="81"/>
+      <c r="E176" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="F176" s="79"/>
+      <c r="F176" s="101"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="60" t="s">
@@ -9137,11 +9141,11 @@
       <c r="C177" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="D177" s="82"/>
-      <c r="E177" s="81" t="s">
+      <c r="D177" s="81"/>
+      <c r="E177" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="F177" s="79"/>
+      <c r="F177" s="101"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="60" t="s">
@@ -9153,9 +9157,9 @@
       <c r="C178" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D178" s="86"/>
-      <c r="E178" s="81"/>
-      <c r="F178" s="79"/>
+      <c r="D178" s="83"/>
+      <c r="E178" s="80"/>
+      <c r="F178" s="101"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="60" t="s">
@@ -9167,11 +9171,11 @@
       <c r="C179" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="D179" s="82" t="s">
+      <c r="D179" s="81" t="s">
         <v>1196</v>
       </c>
-      <c r="E179" s="81"/>
-      <c r="F179" s="79"/>
+      <c r="E179" s="80"/>
+      <c r="F179" s="101"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="60" t="s">
@@ -9183,11 +9187,11 @@
       <c r="C180" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="D180" s="82"/>
-      <c r="E180" s="81" t="s">
+      <c r="D180" s="81"/>
+      <c r="E180" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="F180" s="79"/>
+      <c r="F180" s="101"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="60" t="s">
@@ -9199,11 +9203,11 @@
       <c r="C181" s="69" t="s">
         <v>896</v>
       </c>
-      <c r="D181" s="82"/>
-      <c r="E181" s="81" t="s">
+      <c r="D181" s="81"/>
+      <c r="E181" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="F181" s="79"/>
+      <c r="F181" s="101"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="60" t="s">
@@ -9215,11 +9219,11 @@
       <c r="C182" s="69" t="s">
         <v>298</v>
       </c>
-      <c r="D182" s="82"/>
-      <c r="E182" s="81" t="s">
+      <c r="D182" s="81"/>
+      <c r="E182" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="F182" s="79"/>
+      <c r="F182" s="101"/>
     </row>
     <row r="183" spans="1:6" ht="31.5">
       <c r="A183" s="60" t="s">
@@ -9231,11 +9235,11 @@
       <c r="C183" s="69" t="s">
         <v>898</v>
       </c>
-      <c r="D183" s="82"/>
-      <c r="E183" s="81" t="s">
+      <c r="D183" s="81"/>
+      <c r="E183" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="F183" s="79"/>
+      <c r="F183" s="101"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="60" t="s">
@@ -9247,11 +9251,11 @@
       <c r="C184" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="D184" s="82"/>
-      <c r="E184" s="81" t="s">
+      <c r="D184" s="81"/>
+      <c r="E184" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="F184" s="79"/>
+      <c r="F184" s="101"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="60" t="s">
@@ -9263,11 +9267,11 @@
       <c r="C185" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="D185" s="82"/>
-      <c r="E185" s="81" t="s">
+      <c r="D185" s="81"/>
+      <c r="E185" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="F185" s="79"/>
+      <c r="F185" s="101"/>
     </row>
     <row r="186" spans="1:6" ht="31.5">
       <c r="A186" s="60" t="s">
@@ -9279,11 +9283,11 @@
       <c r="C186" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="D186" s="82"/>
-      <c r="E186" s="81" t="s">
+      <c r="D186" s="81"/>
+      <c r="E186" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="F186" s="79"/>
+      <c r="F186" s="101"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="60" t="s">
@@ -9295,11 +9299,11 @@
       <c r="C187" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D187" s="82"/>
-      <c r="E187" s="81" t="s">
+      <c r="D187" s="81"/>
+      <c r="E187" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="F187" s="79"/>
+      <c r="F187" s="101"/>
     </row>
     <row r="188" spans="1:6" ht="31.5">
       <c r="A188" s="60" t="s">
@@ -9311,11 +9315,11 @@
       <c r="C188" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="D188" s="82"/>
-      <c r="E188" s="81" t="s">
+      <c r="D188" s="81"/>
+      <c r="E188" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="F188" s="79"/>
+      <c r="F188" s="101"/>
     </row>
     <row r="189" spans="1:6" ht="31.5">
       <c r="A189" s="60" t="s">
@@ -9327,11 +9331,11 @@
       <c r="C189" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="D189" s="82"/>
-      <c r="E189" s="81" t="s">
+      <c r="D189" s="81"/>
+      <c r="E189" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="F189" s="79"/>
+      <c r="F189" s="101"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="60" t="s">
@@ -9343,11 +9347,11 @@
       <c r="C190" s="69" t="s">
         <v>899</v>
       </c>
-      <c r="D190" s="82"/>
-      <c r="E190" s="81" t="s">
+      <c r="D190" s="81"/>
+      <c r="E190" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="F190" s="79"/>
+      <c r="F190" s="101"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="60" t="s">
@@ -9359,9 +9363,9 @@
       <c r="C191" s="63" t="s">
         <v>963</v>
       </c>
-      <c r="D191" s="89"/>
-      <c r="E191" s="81"/>
-      <c r="F191" s="79"/>
+      <c r="D191" s="86"/>
+      <c r="E191" s="80"/>
+      <c r="F191" s="101"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="60" t="s">
@@ -9373,9 +9377,9 @@
       <c r="C192" s="66" t="s">
         <v>965</v>
       </c>
-      <c r="D192" s="86"/>
-      <c r="E192" s="81"/>
-      <c r="F192" s="79"/>
+      <c r="D192" s="83"/>
+      <c r="E192" s="80"/>
+      <c r="F192" s="101"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="60" t="s">
@@ -9387,13 +9391,13 @@
       <c r="C193" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="D193" s="82" t="s">
+      <c r="D193" s="81" t="s">
         <v>1194</v>
       </c>
-      <c r="E193" s="81" t="s">
+      <c r="E193" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="F193" s="79"/>
+      <c r="F193" s="101"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="60" t="s">
@@ -9405,11 +9409,11 @@
       <c r="C194" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D194" s="82"/>
-      <c r="E194" s="81" t="s">
+      <c r="D194" s="81"/>
+      <c r="E194" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="F194" s="79"/>
+      <c r="F194" s="101"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="60" t="s">
@@ -9421,11 +9425,11 @@
       <c r="C195" s="69" t="s">
         <v>897</v>
       </c>
-      <c r="D195" s="82"/>
-      <c r="E195" s="81" t="s">
+      <c r="D195" s="81"/>
+      <c r="E195" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="F195" s="79"/>
+      <c r="F195" s="101"/>
     </row>
     <row r="196" spans="1:6" ht="31.5">
       <c r="A196" s="60" t="s">
@@ -9437,11 +9441,11 @@
       <c r="C196" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="D196" s="82"/>
-      <c r="E196" s="81" t="s">
+      <c r="D196" s="81"/>
+      <c r="E196" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F196" s="79"/>
+      <c r="F196" s="101"/>
     </row>
     <row r="197" spans="1:6" ht="31.5">
       <c r="A197" s="60" t="s">
@@ -9453,11 +9457,11 @@
       <c r="C197" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="D197" s="82"/>
-      <c r="E197" s="81" t="s">
+      <c r="D197" s="81"/>
+      <c r="E197" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="F197" s="79"/>
+      <c r="F197" s="101"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="60" t="s">
@@ -9469,11 +9473,11 @@
       <c r="C198" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="D198" s="82"/>
-      <c r="E198" s="81" t="s">
+      <c r="D198" s="81"/>
+      <c r="E198" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="F198" s="79"/>
+      <c r="F198" s="101"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="60" t="s">
@@ -9485,11 +9489,11 @@
       <c r="C199" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="D199" s="82"/>
-      <c r="E199" s="81" t="s">
+      <c r="D199" s="81"/>
+      <c r="E199" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="F199" s="79"/>
+      <c r="F199" s="101"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="60" t="s">
@@ -9501,11 +9505,11 @@
       <c r="C200" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="D200" s="82"/>
-      <c r="E200" s="81" t="s">
+      <c r="D200" s="81"/>
+      <c r="E200" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="F200" s="79"/>
+      <c r="F200" s="101"/>
     </row>
     <row r="201" spans="1:6" ht="31.5">
       <c r="A201" s="60" t="s">
@@ -9517,11 +9521,11 @@
       <c r="C201" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="D201" s="82"/>
-      <c r="E201" s="81" t="s">
+      <c r="D201" s="81"/>
+      <c r="E201" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="F201" s="79"/>
+      <c r="F201" s="101"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="60" t="s">
@@ -9533,11 +9537,11 @@
       <c r="C202" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="D202" s="82"/>
-      <c r="E202" s="81" t="s">
+      <c r="D202" s="81"/>
+      <c r="E202" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="F202" s="79"/>
+      <c r="F202" s="101"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="60" t="s">
@@ -9549,11 +9553,11 @@
       <c r="C203" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="D203" s="82"/>
-      <c r="E203" s="81" t="s">
+      <c r="D203" s="81"/>
+      <c r="E203" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="F203" s="79"/>
+      <c r="F203" s="101"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="60" t="s">
@@ -9565,11 +9569,11 @@
       <c r="C204" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="D204" s="82"/>
-      <c r="E204" s="81" t="s">
+      <c r="D204" s="81"/>
+      <c r="E204" s="80" t="s">
         <v>337</v>
       </c>
-      <c r="F204" s="79"/>
+      <c r="F204" s="101"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="60" t="s">
@@ -9581,11 +9585,11 @@
       <c r="C205" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="D205" s="82"/>
-      <c r="E205" s="81" t="s">
+      <c r="D205" s="81"/>
+      <c r="E205" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="F205" s="79"/>
+      <c r="F205" s="101"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="60" t="s">
@@ -9597,9 +9601,9 @@
       <c r="C206" s="66" t="s">
         <v>967</v>
       </c>
-      <c r="D206" s="90"/>
-      <c r="E206" s="82"/>
-      <c r="F206" s="79"/>
+      <c r="D206" s="87"/>
+      <c r="E206" s="81"/>
+      <c r="F206" s="101"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="60" t="s">
@@ -9611,13 +9615,13 @@
       <c r="C207" s="69" t="s">
         <v>889</v>
       </c>
-      <c r="D207" s="82" t="s">
+      <c r="D207" s="81" t="s">
         <v>1217</v>
       </c>
-      <c r="E207" s="81" t="s">
+      <c r="E207" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="F207" s="79"/>
+      <c r="F207" s="101"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="60" t="s">
@@ -9629,11 +9633,11 @@
       <c r="C208" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="D208" s="82"/>
-      <c r="E208" s="81" t="s">
+      <c r="D208" s="81"/>
+      <c r="E208" s="80" t="s">
         <v>343</v>
       </c>
-      <c r="F208" s="79"/>
+      <c r="F208" s="101"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="60" t="s">
@@ -9645,11 +9649,11 @@
       <c r="C209" s="69" t="s">
         <v>345</v>
       </c>
-      <c r="D209" s="82"/>
-      <c r="E209" s="81" t="s">
+      <c r="D209" s="81"/>
+      <c r="E209" s="80" t="s">
         <v>346</v>
       </c>
-      <c r="F209" s="79"/>
+      <c r="F209" s="101"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="60" t="s">
@@ -9661,11 +9665,11 @@
       <c r="C210" s="69" t="s">
         <v>348</v>
       </c>
-      <c r="D210" s="82"/>
-      <c r="E210" s="81" t="s">
+      <c r="D210" s="81"/>
+      <c r="E210" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="F210" s="79"/>
+      <c r="F210" s="101"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="60" t="s">
@@ -9677,11 +9681,11 @@
       <c r="C211" s="71" t="s">
         <v>970</v>
       </c>
-      <c r="D211" s="82"/>
-      <c r="E211" s="81" t="s">
+      <c r="D211" s="81"/>
+      <c r="E211" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F211" s="79"/>
+      <c r="F211" s="101"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="60" t="s">
@@ -9693,11 +9697,11 @@
       <c r="C212" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D212" s="82"/>
-      <c r="E212" s="81" t="s">
+      <c r="D212" s="81"/>
+      <c r="E212" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="F212" s="79"/>
+      <c r="F212" s="101"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="60" t="s">
@@ -9709,11 +9713,11 @@
       <c r="C213" s="69" t="s">
         <v>354</v>
       </c>
-      <c r="D213" s="82"/>
-      <c r="E213" s="81" t="s">
+      <c r="D213" s="81"/>
+      <c r="E213" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F213" s="79"/>
+      <c r="F213" s="101"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="60" t="s">
@@ -9725,11 +9729,11 @@
       <c r="C214" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="D214" s="82"/>
-      <c r="E214" s="81" t="s">
+      <c r="D214" s="81"/>
+      <c r="E214" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="F214" s="79"/>
+      <c r="F214" s="101"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="60" t="s">
@@ -9741,11 +9745,11 @@
       <c r="C215" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="D215" s="82"/>
-      <c r="E215" s="81" t="s">
+      <c r="D215" s="81"/>
+      <c r="E215" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="F215" s="79"/>
+      <c r="F215" s="101"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="60" t="s">
@@ -9757,11 +9761,11 @@
       <c r="C216" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="D216" s="82"/>
-      <c r="E216" s="81" t="s">
+      <c r="D216" s="81"/>
+      <c r="E216" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="F216" s="79"/>
+      <c r="F216" s="101"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="60" t="s">
@@ -9773,11 +9777,11 @@
       <c r="C217" s="69" t="s">
         <v>363</v>
       </c>
-      <c r="D217" s="82"/>
-      <c r="E217" s="81" t="s">
+      <c r="D217" s="81"/>
+      <c r="E217" s="80" t="s">
         <v>364</v>
       </c>
-      <c r="F217" s="79"/>
+      <c r="F217" s="101"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="60" t="s">
@@ -9789,9 +9793,9 @@
       <c r="C218" s="66" t="s">
         <v>972</v>
       </c>
-      <c r="D218" s="90"/>
-      <c r="E218" s="81"/>
-      <c r="F218" s="79"/>
+      <c r="D218" s="87"/>
+      <c r="E218" s="80"/>
+      <c r="F218" s="101"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="60" t="s">
@@ -9803,13 +9807,13 @@
       <c r="C219" s="69" t="s">
         <v>974</v>
       </c>
-      <c r="D219" s="82" t="s">
+      <c r="D219" s="81" t="s">
         <v>1195</v>
       </c>
-      <c r="E219" s="81" t="s">
+      <c r="E219" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F219" s="79"/>
+      <c r="F219" s="101"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="60" t="s">
@@ -9821,11 +9825,11 @@
       <c r="C220" s="69" t="s">
         <v>976</v>
       </c>
-      <c r="D220" s="82"/>
-      <c r="E220" s="81" t="s">
+      <c r="D220" s="81"/>
+      <c r="E220" s="80" t="s">
         <v>364</v>
       </c>
-      <c r="F220" s="79"/>
+      <c r="F220" s="101"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="60" t="s">
@@ -9837,9 +9841,9 @@
       <c r="C221" s="64" t="s">
         <v>978</v>
       </c>
-      <c r="D221" s="88"/>
-      <c r="E221" s="81"/>
-      <c r="F221" s="79"/>
+      <c r="D221" s="85"/>
+      <c r="E221" s="80"/>
+      <c r="F221" s="101"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="60" t="s">
@@ -9851,9 +9855,9 @@
       <c r="C222" s="62" t="s">
         <v>980</v>
       </c>
-      <c r="D222" s="91"/>
-      <c r="E222" s="79"/>
-      <c r="F222" s="81" t="s">
+      <c r="D222" s="88"/>
+      <c r="E222" s="101"/>
+      <c r="F222" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -9867,9 +9871,9 @@
       <c r="C223" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D223" s="89"/>
-      <c r="E223" s="79"/>
-      <c r="F223" s="81"/>
+      <c r="D223" s="86"/>
+      <c r="E223" s="101"/>
+      <c r="F223" s="80"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="60" t="s">
@@ -9881,9 +9885,9 @@
       <c r="C224" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D224" s="91"/>
-      <c r="E224" s="79"/>
-      <c r="F224" s="81" t="s">
+      <c r="D224" s="88"/>
+      <c r="E224" s="101"/>
+      <c r="F224" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -9897,9 +9901,9 @@
       <c r="C225" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D225" s="91"/>
-      <c r="E225" s="79"/>
-      <c r="F225" s="81" t="s">
+      <c r="D225" s="88"/>
+      <c r="E225" s="101"/>
+      <c r="F225" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -9913,9 +9917,9 @@
       <c r="C226" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D226" s="88"/>
-      <c r="E226" s="79"/>
-      <c r="F226" s="81"/>
+      <c r="D226" s="85"/>
+      <c r="E226" s="101"/>
+      <c r="F226" s="80"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="60" t="s">
@@ -9927,9 +9931,9 @@
       <c r="C227" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D227" s="91"/>
-      <c r="E227" s="79"/>
-      <c r="F227" s="81" t="s">
+      <c r="D227" s="88"/>
+      <c r="E227" s="101"/>
+      <c r="F227" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -9943,9 +9947,9 @@
       <c r="C228" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D228" s="91"/>
-      <c r="E228" s="79"/>
-      <c r="F228" s="81" t="s">
+      <c r="D228" s="88"/>
+      <c r="E228" s="101"/>
+      <c r="F228" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -9959,9 +9963,9 @@
       <c r="C229" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="D229" s="92"/>
+      <c r="D229" s="89"/>
       <c r="E229" s="78"/>
-      <c r="F229" s="79"/>
+      <c r="F229" s="101"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="60" t="s">
@@ -9973,9 +9977,9 @@
       <c r="C230" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="88"/>
-      <c r="E230" s="81"/>
-      <c r="F230" s="79"/>
+      <c r="D230" s="85"/>
+      <c r="E230" s="80"/>
+      <c r="F230" s="101"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="60" t="s">
@@ -9987,9 +9991,9 @@
       <c r="C231" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D231" s="93"/>
-      <c r="E231" s="81"/>
-      <c r="F231" s="79"/>
+      <c r="D231" s="90"/>
+      <c r="E231" s="80"/>
+      <c r="F231" s="101"/>
     </row>
     <row r="232" spans="1:6" ht="31.5">
       <c r="A232" s="60" t="s">
@@ -10001,13 +10005,13 @@
       <c r="C232" s="62" t="s">
         <v>366</v>
       </c>
-      <c r="D232" s="94" t="s">
+      <c r="D232" s="91" t="s">
         <v>1197</v>
       </c>
-      <c r="E232" s="81" t="s">
+      <c r="E232" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="F232" s="79"/>
+      <c r="F232" s="101"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="60" t="s">
@@ -10019,11 +10023,11 @@
       <c r="C233" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="D233" s="94"/>
-      <c r="E233" s="81" t="s">
+      <c r="D233" s="91"/>
+      <c r="E233" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="F233" s="79"/>
+      <c r="F233" s="101"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="60" t="s">
@@ -10035,11 +10039,11 @@
       <c r="C234" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="D234" s="94"/>
-      <c r="E234" s="81" t="s">
+      <c r="D234" s="91"/>
+      <c r="E234" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="F234" s="79"/>
+      <c r="F234" s="101"/>
     </row>
     <row r="235" spans="1:6" ht="31.5">
       <c r="A235" s="60" t="s">
@@ -10051,11 +10055,11 @@
       <c r="C235" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="D235" s="94"/>
-      <c r="E235" s="81" t="s">
+      <c r="D235" s="91"/>
+      <c r="E235" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="F235" s="79"/>
+      <c r="F235" s="101"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="60" t="s">
@@ -10067,11 +10071,11 @@
       <c r="C236" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="D236" s="94"/>
-      <c r="E236" s="81" t="s">
+      <c r="D236" s="91"/>
+      <c r="E236" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="F236" s="79"/>
+      <c r="F236" s="101"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="60" t="s">
@@ -10083,11 +10087,11 @@
       <c r="C237" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="D237" s="94"/>
-      <c r="E237" s="81" t="s">
+      <c r="D237" s="91"/>
+      <c r="E237" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="F237" s="79"/>
+      <c r="F237" s="101"/>
     </row>
     <row r="238" spans="1:6" ht="31.5">
       <c r="A238" s="60" t="s">
@@ -10099,11 +10103,11 @@
       <c r="C238" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="D238" s="94"/>
-      <c r="E238" s="81" t="s">
+      <c r="D238" s="91"/>
+      <c r="E238" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="F238" s="79"/>
+      <c r="F238" s="101"/>
     </row>
     <row r="239" spans="1:6" ht="31.5">
       <c r="A239" s="60" t="s">
@@ -10115,11 +10119,11 @@
       <c r="C239" s="62" t="s">
         <v>387</v>
       </c>
-      <c r="D239" s="94"/>
-      <c r="E239" s="81" t="s">
+      <c r="D239" s="91"/>
+      <c r="E239" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="F239" s="79"/>
+      <c r="F239" s="101"/>
     </row>
     <row r="240" spans="1:6" ht="47.25">
       <c r="A240" s="60" t="s">
@@ -10131,11 +10135,11 @@
       <c r="C240" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="D240" s="94"/>
-      <c r="E240" s="81" t="s">
+      <c r="D240" s="91"/>
+      <c r="E240" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="F240" s="79"/>
+      <c r="F240" s="101"/>
     </row>
     <row r="241" spans="1:6" ht="31.5">
       <c r="A241" s="60" t="s">
@@ -10147,11 +10151,11 @@
       <c r="C241" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="D241" s="94"/>
-      <c r="E241" s="81" t="s">
+      <c r="D241" s="91"/>
+      <c r="E241" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="F241" s="79"/>
+      <c r="F241" s="101"/>
     </row>
     <row r="242" spans="1:6" ht="47.25">
       <c r="A242" s="60" t="s">
@@ -10163,11 +10167,11 @@
       <c r="C242" s="62" t="s">
         <v>396</v>
       </c>
-      <c r="D242" s="94"/>
-      <c r="E242" s="81" t="s">
+      <c r="D242" s="91"/>
+      <c r="E242" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="F242" s="79"/>
+      <c r="F242" s="101"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="60" t="s">
@@ -10179,11 +10183,11 @@
       <c r="C243" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="D243" s="94"/>
-      <c r="E243" s="81" t="s">
+      <c r="D243" s="91"/>
+      <c r="E243" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="F243" s="79"/>
+      <c r="F243" s="101"/>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="60" t="s">
@@ -10195,9 +10199,9 @@
       <c r="C244" s="64" t="s">
         <v>991</v>
       </c>
-      <c r="D244" s="88"/>
-      <c r="E244" s="81"/>
-      <c r="F244" s="79"/>
+      <c r="D244" s="85"/>
+      <c r="E244" s="80"/>
+      <c r="F244" s="101"/>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="60" t="s">
@@ -10209,9 +10213,9 @@
       <c r="C245" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D245" s="90"/>
-      <c r="E245" s="81"/>
-      <c r="F245" s="79"/>
+      <c r="D245" s="87"/>
+      <c r="E245" s="80"/>
+      <c r="F245" s="101"/>
     </row>
     <row r="246" spans="1:6" ht="31.5">
       <c r="A246" s="60" t="s">
@@ -10223,13 +10227,13 @@
       <c r="C246" s="62" t="s">
         <v>993</v>
       </c>
-      <c r="D246" s="94" t="s">
+      <c r="D246" s="91" t="s">
         <v>1198</v>
       </c>
-      <c r="E246" s="81" t="s">
+      <c r="E246" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="F246" s="79"/>
+      <c r="F246" s="101"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="60" t="s">
@@ -10241,11 +10245,11 @@
       <c r="C247" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="D247" s="94"/>
-      <c r="E247" s="81" t="s">
+      <c r="D247" s="91"/>
+      <c r="E247" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="F247" s="79"/>
+      <c r="F247" s="101"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="60" t="s">
@@ -10257,11 +10261,11 @@
       <c r="C248" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="D248" s="94"/>
-      <c r="E248" s="81" t="s">
+      <c r="D248" s="91"/>
+      <c r="E248" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="F248" s="79"/>
+      <c r="F248" s="101"/>
     </row>
     <row r="249" spans="1:6" ht="31.5">
       <c r="A249" s="60" t="s">
@@ -10273,11 +10277,11 @@
       <c r="C249" s="62" t="s">
         <v>995</v>
       </c>
-      <c r="D249" s="94"/>
-      <c r="E249" s="81" t="s">
+      <c r="D249" s="91"/>
+      <c r="E249" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="F249" s="79"/>
+      <c r="F249" s="101"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="60" t="s">
@@ -10289,11 +10293,11 @@
       <c r="C250" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="D250" s="94"/>
-      <c r="E250" s="81" t="s">
+      <c r="D250" s="91"/>
+      <c r="E250" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="F250" s="79"/>
+      <c r="F250" s="101"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="60" t="s">
@@ -10305,11 +10309,11 @@
       <c r="C251" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="D251" s="94"/>
-      <c r="E251" s="81" t="s">
+      <c r="D251" s="91"/>
+      <c r="E251" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="F251" s="79"/>
+      <c r="F251" s="101"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="60" t="s">
@@ -10321,11 +10325,11 @@
       <c r="C252" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="D252" s="94"/>
-      <c r="E252" s="81" t="s">
+      <c r="D252" s="91"/>
+      <c r="E252" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="F252" s="79"/>
+      <c r="F252" s="101"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="60" t="s">
@@ -10337,11 +10341,11 @@
       <c r="C253" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="D253" s="94"/>
-      <c r="E253" s="81" t="s">
+      <c r="D253" s="91"/>
+      <c r="E253" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="F253" s="79"/>
+      <c r="F253" s="101"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="60" t="s">
@@ -10353,11 +10357,11 @@
       <c r="C254" s="62" t="s">
         <v>997</v>
       </c>
-      <c r="D254" s="94"/>
-      <c r="E254" s="81" t="s">
+      <c r="D254" s="91"/>
+      <c r="E254" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="F254" s="79"/>
+      <c r="F254" s="101"/>
     </row>
     <row r="255" spans="1:6" ht="31.5">
       <c r="A255" s="60" t="s">
@@ -10369,11 +10373,11 @@
       <c r="C255" s="62" t="s">
         <v>999</v>
       </c>
-      <c r="D255" s="94"/>
-      <c r="E255" s="81" t="s">
+      <c r="D255" s="91"/>
+      <c r="E255" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="F255" s="79"/>
+      <c r="F255" s="101"/>
     </row>
     <row r="256" spans="1:6" ht="31.5">
       <c r="A256" s="60" t="s">
@@ -10385,11 +10389,11 @@
       <c r="C256" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="D256" s="94"/>
-      <c r="E256" s="81" t="s">
+      <c r="D256" s="91"/>
+      <c r="E256" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="F256" s="79"/>
+      <c r="F256" s="101"/>
     </row>
     <row r="257" spans="1:6" ht="31.5">
       <c r="A257" s="60" t="s">
@@ -10401,11 +10405,11 @@
       <c r="C257" s="69" t="s">
         <v>1000</v>
       </c>
-      <c r="D257" s="82"/>
-      <c r="E257" s="81" t="s">
+      <c r="D257" s="81"/>
+      <c r="E257" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="F257" s="79"/>
+      <c r="F257" s="101"/>
     </row>
     <row r="258" spans="1:6" ht="47.25">
       <c r="A258" s="60" t="s">
@@ -10417,11 +10421,11 @@
       <c r="C258" s="62" t="s">
         <v>1001</v>
       </c>
-      <c r="D258" s="94"/>
-      <c r="E258" s="81" t="s">
+      <c r="D258" s="91"/>
+      <c r="E258" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="F258" s="79"/>
+      <c r="F258" s="101"/>
     </row>
     <row r="259" spans="1:6" ht="47.25">
       <c r="A259" s="60" t="s">
@@ -10433,11 +10437,11 @@
       <c r="C259" s="72" t="s">
         <v>1003</v>
       </c>
-      <c r="D259" s="95"/>
-      <c r="E259" s="81" t="s">
+      <c r="D259" s="92"/>
+      <c r="E259" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="F259" s="79"/>
+      <c r="F259" s="101"/>
     </row>
     <row r="260" spans="1:6" ht="47.25">
       <c r="A260" s="60" t="s">
@@ -10449,11 +10453,11 @@
       <c r="C260" s="62" t="s">
         <v>1005</v>
       </c>
-      <c r="D260" s="94"/>
-      <c r="E260" s="81" t="s">
+      <c r="D260" s="91"/>
+      <c r="E260" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="F260" s="79"/>
+      <c r="F260" s="101"/>
     </row>
     <row r="261" spans="1:6" ht="31.5">
       <c r="A261" s="60" t="s">
@@ -10465,11 +10469,11 @@
       <c r="C261" s="62" t="s">
         <v>1181</v>
       </c>
-      <c r="D261" s="94"/>
-      <c r="E261" s="81" t="s">
+      <c r="D261" s="91"/>
+      <c r="E261" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="F261" s="79"/>
+      <c r="F261" s="101"/>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="60" t="s">
@@ -10481,9 +10485,9 @@
       <c r="C262" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D262" s="88"/>
-      <c r="E262" s="81"/>
-      <c r="F262" s="79"/>
+      <c r="D262" s="85"/>
+      <c r="E262" s="80"/>
+      <c r="F262" s="101"/>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="60" t="s">
@@ -10495,9 +10499,9 @@
       <c r="C263" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D263" s="96"/>
-      <c r="E263" s="81"/>
-      <c r="F263" s="79"/>
+      <c r="D263" s="102"/>
+      <c r="E263" s="80"/>
+      <c r="F263" s="101"/>
     </row>
     <row r="264" spans="1:6" ht="31.5">
       <c r="A264" s="60" t="s">
@@ -10509,13 +10513,13 @@
       <c r="C264" s="62" t="s">
         <v>993</v>
       </c>
-      <c r="D264" s="94" t="s">
+      <c r="D264" s="91" t="s">
         <v>1198</v>
       </c>
-      <c r="E264" s="81" t="s">
+      <c r="E264" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="F264" s="79"/>
+      <c r="F264" s="101"/>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="60" t="s">
@@ -10527,11 +10531,11 @@
       <c r="C265" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="D265" s="94"/>
-      <c r="E265" s="81" t="s">
+      <c r="D265" s="91"/>
+      <c r="E265" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="F265" s="79"/>
+      <c r="F265" s="101"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="60" t="s">
@@ -10543,11 +10547,11 @@
       <c r="C266" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="D266" s="94"/>
-      <c r="E266" s="81" t="s">
+      <c r="D266" s="91"/>
+      <c r="E266" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="F266" s="79"/>
+      <c r="F266" s="101"/>
     </row>
     <row r="267" spans="1:6" ht="31.5">
       <c r="A267" s="60" t="s">
@@ -10559,11 +10563,11 @@
       <c r="C267" s="62" t="s">
         <v>995</v>
       </c>
-      <c r="D267" s="94"/>
-      <c r="E267" s="81" t="s">
+      <c r="D267" s="91"/>
+      <c r="E267" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="F267" s="79"/>
+      <c r="F267" s="101"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="60" t="s">
@@ -10575,11 +10579,11 @@
       <c r="C268" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="D268" s="94"/>
-      <c r="E268" s="81" t="s">
+      <c r="D268" s="91"/>
+      <c r="E268" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="F268" s="79"/>
+      <c r="F268" s="101"/>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="60" t="s">
@@ -10591,11 +10595,11 @@
       <c r="C269" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="D269" s="94"/>
-      <c r="E269" s="81" t="s">
+      <c r="D269" s="91"/>
+      <c r="E269" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="F269" s="79"/>
+      <c r="F269" s="101"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="60" t="s">
@@ -10607,11 +10611,11 @@
       <c r="C270" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="D270" s="94"/>
-      <c r="E270" s="81" t="s">
+      <c r="D270" s="91"/>
+      <c r="E270" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="F270" s="79"/>
+      <c r="F270" s="101"/>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="60" t="s">
@@ -10623,11 +10627,11 @@
       <c r="C271" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="D271" s="94"/>
-      <c r="E271" s="81" t="s">
+      <c r="D271" s="91"/>
+      <c r="E271" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="F271" s="79"/>
+      <c r="F271" s="101"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="60" t="s">
@@ -10639,11 +10643,11 @@
       <c r="C272" s="62" t="s">
         <v>997</v>
       </c>
-      <c r="D272" s="94"/>
-      <c r="E272" s="81" t="s">
+      <c r="D272" s="91"/>
+      <c r="E272" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="F272" s="79"/>
+      <c r="F272" s="101"/>
     </row>
     <row r="273" spans="1:6" ht="31.5">
       <c r="A273" s="60" t="s">
@@ -10655,11 +10659,11 @@
       <c r="C273" s="62" t="s">
         <v>999</v>
       </c>
-      <c r="D273" s="94"/>
-      <c r="E273" s="81" t="s">
+      <c r="D273" s="91"/>
+      <c r="E273" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="F273" s="79"/>
+      <c r="F273" s="101"/>
     </row>
     <row r="274" spans="1:6" ht="31.5">
       <c r="A274" s="60" t="s">
@@ -10671,11 +10675,11 @@
       <c r="C274" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="D274" s="94"/>
-      <c r="E274" s="81" t="s">
+      <c r="D274" s="91"/>
+      <c r="E274" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="F274" s="79"/>
+      <c r="F274" s="101"/>
     </row>
     <row r="275" spans="1:6" ht="31.5">
       <c r="A275" s="60" t="s">
@@ -10687,11 +10691,11 @@
       <c r="C275" s="69" t="s">
         <v>1000</v>
       </c>
-      <c r="D275" s="82"/>
-      <c r="E275" s="81" t="s">
+      <c r="D275" s="81"/>
+      <c r="E275" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="F275" s="79"/>
+      <c r="F275" s="101"/>
     </row>
     <row r="276" spans="1:6" ht="47.25">
       <c r="A276" s="60" t="s">
@@ -10703,11 +10707,11 @@
       <c r="C276" s="62" t="s">
         <v>1001</v>
       </c>
-      <c r="D276" s="94"/>
-      <c r="E276" s="81" t="s">
+      <c r="D276" s="91"/>
+      <c r="E276" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="F276" s="79"/>
+      <c r="F276" s="101"/>
     </row>
     <row r="277" spans="1:6" ht="47.25">
       <c r="A277" s="60" t="s">
@@ -10719,11 +10723,11 @@
       <c r="C277" s="72" t="s">
         <v>1003</v>
       </c>
-      <c r="D277" s="95"/>
-      <c r="E277" s="81" t="s">
+      <c r="D277" s="92"/>
+      <c r="E277" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="F277" s="79"/>
+      <c r="F277" s="101"/>
     </row>
     <row r="278" spans="1:6" ht="47.25">
       <c r="A278" s="60" t="s">
@@ -10735,11 +10739,11 @@
       <c r="C278" s="62" t="s">
         <v>1005</v>
       </c>
-      <c r="D278" s="94"/>
-      <c r="E278" s="81" t="s">
+      <c r="D278" s="91"/>
+      <c r="E278" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="F278" s="79"/>
+      <c r="F278" s="101"/>
     </row>
     <row r="279" spans="1:6" ht="31.5">
       <c r="A279" s="60" t="s">
@@ -10751,11 +10755,11 @@
       <c r="C279" s="62" t="s">
         <v>1181</v>
       </c>
-      <c r="D279" s="94"/>
-      <c r="E279" s="81" t="s">
+      <c r="D279" s="91"/>
+      <c r="E279" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="F279" s="79"/>
+      <c r="F279" s="101"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="60" t="s">
@@ -10767,9 +10771,9 @@
       <c r="C280" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D280" s="88"/>
-      <c r="E280" s="81"/>
-      <c r="F280" s="79"/>
+      <c r="D280" s="85"/>
+      <c r="E280" s="80"/>
+      <c r="F280" s="101"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="60" t="s">
@@ -10781,9 +10785,9 @@
       <c r="C281" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D281" s="86"/>
-      <c r="E281" s="81"/>
-      <c r="F281" s="79"/>
+      <c r="D281" s="83"/>
+      <c r="E281" s="80"/>
+      <c r="F281" s="101"/>
     </row>
     <row r="282" spans="1:6" ht="31.5">
       <c r="A282" s="60" t="s">
@@ -10795,9 +10799,11 @@
       <c r="C282" s="62" t="s">
         <v>438</v>
       </c>
-      <c r="D282" s="94"/>
-      <c r="E282" s="79"/>
-      <c r="F282" s="97" t="s">
+      <c r="D282" s="91"/>
+      <c r="E282" s="101" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F282" s="93" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -10811,9 +10817,9 @@
       <c r="C283" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D283" s="86"/>
-      <c r="E283" s="81"/>
-      <c r="F283" s="79"/>
+      <c r="D283" s="83"/>
+      <c r="E283" s="80"/>
+      <c r="F283" s="101"/>
     </row>
     <row r="284" spans="1:6" ht="31.5">
       <c r="A284" s="60" t="s">
@@ -10825,13 +10831,13 @@
       <c r="C284" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="D284" s="82" t="s">
+      <c r="D284" s="81" t="s">
         <v>1199</v>
       </c>
-      <c r="E284" s="97" t="s">
+      <c r="E284" s="93" t="s">
         <v>367</v>
       </c>
-      <c r="F284" s="79"/>
+      <c r="F284" s="101"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="60" t="s">
@@ -10843,11 +10849,11 @@
       <c r="C285" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="D285" s="94"/>
-      <c r="E285" s="81" t="s">
+      <c r="D285" s="91"/>
+      <c r="E285" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="F285" s="79"/>
+      <c r="F285" s="101"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="60" t="s">
@@ -10859,11 +10865,11 @@
       <c r="C286" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="D286" s="94"/>
-      <c r="E286" s="81" t="s">
+      <c r="D286" s="91"/>
+      <c r="E286" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="F286" s="79"/>
+      <c r="F286" s="101"/>
     </row>
     <row r="287" spans="1:6" ht="31.5">
       <c r="A287" s="60" t="s">
@@ -10875,11 +10881,11 @@
       <c r="C287" s="62" t="s">
         <v>448</v>
       </c>
-      <c r="D287" s="94"/>
-      <c r="E287" s="81" t="s">
+      <c r="D287" s="91"/>
+      <c r="E287" s="80" t="s">
         <v>449</v>
       </c>
-      <c r="F287" s="79"/>
+      <c r="F287" s="101"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="60" t="s">
@@ -10891,11 +10897,11 @@
       <c r="C288" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="D288" s="94"/>
-      <c r="E288" s="81" t="s">
+      <c r="D288" s="91"/>
+      <c r="E288" s="80" t="s">
         <v>452</v>
       </c>
-      <c r="F288" s="79"/>
+      <c r="F288" s="101"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="60" t="s">
@@ -10907,11 +10913,11 @@
       <c r="C289" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="D289" s="94"/>
-      <c r="E289" s="81" t="s">
+      <c r="D289" s="91"/>
+      <c r="E289" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="F289" s="79"/>
+      <c r="F289" s="101"/>
     </row>
     <row r="290" spans="1:6" ht="47.25">
       <c r="A290" s="60" t="s">
@@ -10923,11 +10929,11 @@
       <c r="C290" s="62" t="s">
         <v>456</v>
       </c>
-      <c r="D290" s="94"/>
-      <c r="E290" s="81" t="s">
+      <c r="D290" s="91"/>
+      <c r="E290" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="F290" s="79"/>
+      <c r="F290" s="101"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="60" t="s">
@@ -10939,9 +10945,9 @@
       <c r="C291" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D291" s="98"/>
-      <c r="E291" s="81"/>
-      <c r="F291" s="79"/>
+      <c r="D291" s="94"/>
+      <c r="E291" s="80"/>
+      <c r="F291" s="101"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="60" t="s">
@@ -10953,9 +10959,9 @@
       <c r="C292" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D292" s="99"/>
-      <c r="E292" s="81"/>
-      <c r="F292" s="79"/>
+      <c r="D292" s="95"/>
+      <c r="E292" s="80"/>
+      <c r="F292" s="101"/>
     </row>
     <row r="293" spans="1:6" ht="31.5">
       <c r="A293" s="60" t="s">
@@ -10967,13 +10973,13 @@
       <c r="C293" s="72" t="s">
         <v>993</v>
       </c>
-      <c r="D293" s="95" t="s">
+      <c r="D293" s="92" t="s">
         <v>1198</v>
       </c>
-      <c r="E293" s="81" t="s">
+      <c r="E293" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="F293" s="79"/>
+      <c r="F293" s="101"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="60" t="s">
@@ -10985,11 +10991,11 @@
       <c r="C294" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="D294" s="95"/>
-      <c r="E294" s="81" t="s">
+      <c r="D294" s="92"/>
+      <c r="E294" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="F294" s="79"/>
+      <c r="F294" s="101"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="60" t="s">
@@ -11001,11 +11007,11 @@
       <c r="C295" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="D295" s="95"/>
-      <c r="E295" s="81" t="s">
+      <c r="D295" s="92"/>
+      <c r="E295" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="F295" s="79"/>
+      <c r="F295" s="101"/>
     </row>
     <row r="296" spans="1:6" ht="31.5">
       <c r="A296" s="60" t="s">
@@ -11017,11 +11023,11 @@
       <c r="C296" s="72" t="s">
         <v>995</v>
       </c>
-      <c r="D296" s="95"/>
-      <c r="E296" s="81" t="s">
+      <c r="D296" s="92"/>
+      <c r="E296" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="F296" s="79"/>
+      <c r="F296" s="101"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="60" t="s">
@@ -11033,11 +11039,11 @@
       <c r="C297" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="D297" s="95"/>
-      <c r="E297" s="81" t="s">
+      <c r="D297" s="92"/>
+      <c r="E297" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="F297" s="79"/>
+      <c r="F297" s="101"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="60" t="s">
@@ -11049,11 +11055,11 @@
       <c r="C298" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="D298" s="95"/>
-      <c r="E298" s="81" t="s">
+      <c r="D298" s="92"/>
+      <c r="E298" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="F298" s="79"/>
+      <c r="F298" s="101"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="60" t="s">
@@ -11065,11 +11071,11 @@
       <c r="C299" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="D299" s="95"/>
-      <c r="E299" s="81" t="s">
+      <c r="D299" s="92"/>
+      <c r="E299" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="F299" s="79"/>
+      <c r="F299" s="101"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="60" t="s">
@@ -11081,11 +11087,11 @@
       <c r="C300" s="72" t="s">
         <v>890</v>
       </c>
-      <c r="D300" s="95"/>
-      <c r="E300" s="81" t="s">
+      <c r="D300" s="92"/>
+      <c r="E300" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="F300" s="79"/>
+      <c r="F300" s="101"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="60" t="s">
@@ -11097,11 +11103,11 @@
       <c r="C301" s="72" t="s">
         <v>997</v>
       </c>
-      <c r="D301" s="95"/>
-      <c r="E301" s="81" t="s">
+      <c r="D301" s="92"/>
+      <c r="E301" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="F301" s="79"/>
+      <c r="F301" s="101"/>
     </row>
     <row r="302" spans="1:6" ht="31.5">
       <c r="A302" s="60" t="s">
@@ -11113,11 +11119,11 @@
       <c r="C302" s="72" t="s">
         <v>999</v>
       </c>
-      <c r="D302" s="95"/>
-      <c r="E302" s="81" t="s">
+      <c r="D302" s="92"/>
+      <c r="E302" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="F302" s="79"/>
+      <c r="F302" s="101"/>
     </row>
     <row r="303" spans="1:6" ht="31.5">
       <c r="A303" s="60" t="s">
@@ -11129,11 +11135,11 @@
       <c r="C303" s="72" t="s">
         <v>416</v>
       </c>
-      <c r="D303" s="95"/>
-      <c r="E303" s="81" t="s">
+      <c r="D303" s="92"/>
+      <c r="E303" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="F303" s="79"/>
+      <c r="F303" s="101"/>
     </row>
     <row r="304" spans="1:6" ht="31.5">
       <c r="A304" s="60" t="s">
@@ -11145,11 +11151,11 @@
       <c r="C304" s="72" t="s">
         <v>1000</v>
       </c>
-      <c r="D304" s="95"/>
-      <c r="E304" s="81" t="s">
+      <c r="D304" s="92"/>
+      <c r="E304" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="F304" s="79"/>
+      <c r="F304" s="101"/>
     </row>
     <row r="305" spans="1:6" ht="47.25">
       <c r="A305" s="60" t="s">
@@ -11161,11 +11167,11 @@
       <c r="C305" s="72" t="s">
         <v>1001</v>
       </c>
-      <c r="D305" s="95"/>
-      <c r="E305" s="81" t="s">
+      <c r="D305" s="92"/>
+      <c r="E305" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="F305" s="79"/>
+      <c r="F305" s="101"/>
     </row>
     <row r="306" spans="1:6" ht="47.25">
       <c r="A306" s="60" t="s">
@@ -11177,11 +11183,11 @@
       <c r="C306" s="72" t="s">
         <v>1003</v>
       </c>
-      <c r="D306" s="95"/>
-      <c r="E306" s="81" t="s">
+      <c r="D306" s="92"/>
+      <c r="E306" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="F306" s="79"/>
+      <c r="F306" s="101"/>
     </row>
     <row r="307" spans="1:6" ht="47.25">
       <c r="A307" s="60" t="s">
@@ -11193,11 +11199,11 @@
       <c r="C307" s="72" t="s">
         <v>1005</v>
       </c>
-      <c r="D307" s="95"/>
-      <c r="E307" s="81" t="s">
+      <c r="D307" s="92"/>
+      <c r="E307" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="F307" s="79"/>
+      <c r="F307" s="101"/>
     </row>
     <row r="308" spans="1:6" ht="31.5">
       <c r="A308" s="60" t="s">
@@ -11209,11 +11215,11 @@
       <c r="C308" s="72" t="s">
         <v>1181</v>
       </c>
-      <c r="D308" s="95"/>
-      <c r="E308" s="81" t="s">
+      <c r="D308" s="92"/>
+      <c r="E308" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="F308" s="79"/>
+      <c r="F308" s="101"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="60" t="s">
@@ -11225,9 +11231,9 @@
       <c r="C309" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D309" s="100"/>
+      <c r="D309" s="96"/>
       <c r="E309" s="78"/>
-      <c r="F309" s="79"/>
+      <c r="F309" s="101"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="60" t="s">
@@ -11239,9 +11245,9 @@
       <c r="C310" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D310" s="98"/>
-      <c r="E310" s="81"/>
-      <c r="F310" s="79"/>
+      <c r="D310" s="94"/>
+      <c r="E310" s="80"/>
+      <c r="F310" s="101"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="60" t="s">
@@ -11253,9 +11259,9 @@
       <c r="C311" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D311" s="99"/>
-      <c r="E311" s="81"/>
-      <c r="F311" s="79"/>
+      <c r="D311" s="95"/>
+      <c r="E311" s="80"/>
+      <c r="F311" s="101"/>
     </row>
     <row r="312" spans="1:6" ht="63">
       <c r="A312" s="60" t="s">
@@ -11267,13 +11273,13 @@
       <c r="C312" s="62" t="s">
         <v>1038</v>
       </c>
-      <c r="D312" s="94" t="s">
+      <c r="D312" s="91" t="s">
         <v>1200</v>
       </c>
-      <c r="E312" s="81" t="s">
+      <c r="E312" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="F312" s="79"/>
+      <c r="F312" s="101"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="60" t="s">
@@ -11285,11 +11291,11 @@
       <c r="C313" s="62" t="s">
         <v>462</v>
       </c>
-      <c r="D313" s="94"/>
-      <c r="E313" s="81" t="s">
+      <c r="D313" s="91"/>
+      <c r="E313" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F313" s="79"/>
+      <c r="F313" s="101"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="60" t="s">
@@ -11301,11 +11307,11 @@
       <c r="C314" s="62" t="s">
         <v>1039</v>
       </c>
-      <c r="D314" s="94"/>
-      <c r="E314" s="81" t="s">
+      <c r="D314" s="91"/>
+      <c r="E314" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F314" s="79"/>
+      <c r="F314" s="101"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="60" t="s">
@@ -11317,9 +11323,9 @@
       <c r="C315" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D315" s="86"/>
-      <c r="E315" s="81"/>
-      <c r="F315" s="79"/>
+      <c r="D315" s="83"/>
+      <c r="E315" s="80"/>
+      <c r="F315" s="101"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="60" t="s">
@@ -11331,13 +11337,13 @@
       <c r="C316" s="62" t="s">
         <v>1042</v>
       </c>
-      <c r="D316" s="94" t="s">
+      <c r="D316" s="91" t="s">
         <v>1201</v>
       </c>
-      <c r="E316" s="81" t="s">
+      <c r="E316" s="80" t="s">
         <v>465</v>
       </c>
-      <c r="F316" s="79"/>
+      <c r="F316" s="101"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="60" t="s">
@@ -11349,11 +11355,11 @@
       <c r="C317" s="62" t="s">
         <v>1044</v>
       </c>
-      <c r="D317" s="94"/>
-      <c r="E317" s="81" t="s">
+      <c r="D317" s="91"/>
+      <c r="E317" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="F317" s="79"/>
+      <c r="F317" s="101"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="60" t="s">
@@ -11365,11 +11371,11 @@
       <c r="C318" s="72" t="s">
         <v>1046</v>
       </c>
-      <c r="D318" s="95"/>
-      <c r="E318" s="81" t="s">
+      <c r="D318" s="92"/>
+      <c r="E318" s="80" t="s">
         <v>469</v>
       </c>
-      <c r="F318" s="79"/>
+      <c r="F318" s="101"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="60" t="s">
@@ -11381,11 +11387,11 @@
       <c r="C319" s="62" t="s">
         <v>1048</v>
       </c>
-      <c r="D319" s="94"/>
-      <c r="E319" s="81" t="s">
+      <c r="D319" s="91"/>
+      <c r="E319" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="F319" s="79"/>
+      <c r="F319" s="101"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="60" t="s">
@@ -11397,9 +11403,9 @@
       <c r="C320" s="66" t="s">
         <v>1050</v>
       </c>
-      <c r="D320" s="86"/>
-      <c r="E320" s="81"/>
-      <c r="F320" s="79"/>
+      <c r="D320" s="83"/>
+      <c r="E320" s="80"/>
+      <c r="F320" s="101"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="60" t="s">
@@ -11411,13 +11417,13 @@
       <c r="C321" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="D321" s="94" t="s">
+      <c r="D321" s="91" t="s">
         <v>1203</v>
       </c>
-      <c r="E321" s="81" t="s">
+      <c r="E321" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="F321" s="79"/>
+      <c r="F321" s="101"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="60" t="s">
@@ -11429,11 +11435,11 @@
       <c r="C322" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="D322" s="94"/>
-      <c r="E322" s="81" t="s">
+      <c r="D322" s="91"/>
+      <c r="E322" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="F322" s="79"/>
+      <c r="F322" s="101"/>
     </row>
     <row r="323" spans="1:6" ht="31.5">
       <c r="A323" s="60" t="s">
@@ -11445,11 +11451,11 @@
       <c r="C323" s="62" t="s">
         <v>900</v>
       </c>
-      <c r="D323" s="94"/>
-      <c r="E323" s="81" t="s">
+      <c r="D323" s="91"/>
+      <c r="E323" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F323" s="79"/>
+      <c r="F323" s="101"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="60" t="s">
@@ -11461,11 +11467,11 @@
       <c r="C324" s="62" t="s">
         <v>1051</v>
       </c>
-      <c r="D324" s="94"/>
-      <c r="E324" s="81" t="s">
+      <c r="D324" s="91"/>
+      <c r="E324" s="80" t="s">
         <v>482</v>
       </c>
-      <c r="F324" s="79"/>
+      <c r="F324" s="101"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="60" t="s">
@@ -11477,11 +11483,11 @@
       <c r="C325" s="62" t="s">
         <v>484</v>
       </c>
-      <c r="D325" s="94"/>
-      <c r="E325" s="81" t="s">
+      <c r="D325" s="91"/>
+      <c r="E325" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="F325" s="79"/>
+      <c r="F325" s="101"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="60" t="s">
@@ -11493,11 +11499,11 @@
       <c r="C326" s="66" t="s">
         <v>1053</v>
       </c>
-      <c r="D326" s="86"/>
-      <c r="E326" s="81" t="s">
+      <c r="D326" s="83"/>
+      <c r="E326" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="F326" s="79"/>
+      <c r="F326" s="101"/>
     </row>
     <row r="327" spans="1:6" ht="47.25">
       <c r="A327" s="60" t="s">
@@ -11509,13 +11515,13 @@
       <c r="C327" s="62" t="s">
         <v>487</v>
       </c>
-      <c r="D327" s="101" t="s">
+      <c r="D327" s="97" t="s">
         <v>1218</v>
       </c>
-      <c r="E327" s="81" t="s">
+      <c r="E327" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="F327" s="79"/>
+      <c r="F327" s="101"/>
     </row>
     <row r="328" spans="1:6" ht="31.5">
       <c r="A328" s="60" t="s">
@@ -11527,11 +11533,11 @@
       <c r="C328" s="62" t="s">
         <v>490</v>
       </c>
-      <c r="D328" s="94"/>
-      <c r="E328" s="81" t="s">
+      <c r="D328" s="91"/>
+      <c r="E328" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="F328" s="79"/>
+      <c r="F328" s="101"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="60" t="s">
@@ -11543,11 +11549,11 @@
       <c r="C329" s="71" t="s">
         <v>492</v>
       </c>
-      <c r="D329" s="82"/>
-      <c r="E329" s="81" t="s">
+      <c r="D329" s="81"/>
+      <c r="E329" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F329" s="79"/>
+      <c r="F329" s="101"/>
     </row>
     <row r="330" spans="1:6" ht="31.5">
       <c r="A330" s="60" t="s">
@@ -11559,11 +11565,11 @@
       <c r="C330" s="62" t="s">
         <v>1054</v>
       </c>
-      <c r="D330" s="101"/>
-      <c r="E330" s="81" t="s">
+      <c r="D330" s="97"/>
+      <c r="E330" s="80" t="s">
         <v>495</v>
       </c>
-      <c r="F330" s="79"/>
+      <c r="F330" s="101"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="60" t="s">
@@ -11575,11 +11581,11 @@
       <c r="C331" s="62" t="s">
         <v>1055</v>
       </c>
-      <c r="D331" s="94"/>
-      <c r="E331" s="81" t="s">
+      <c r="D331" s="91"/>
+      <c r="E331" s="80" t="s">
         <v>498</v>
       </c>
-      <c r="F331" s="79"/>
+      <c r="F331" s="101"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="60" t="s">
@@ -11591,9 +11597,9 @@
       <c r="C332" s="66" t="s">
         <v>1057</v>
       </c>
-      <c r="D332" s="102"/>
-      <c r="E332" s="81"/>
-      <c r="F332" s="79"/>
+      <c r="D332" s="103"/>
+      <c r="E332" s="80"/>
+      <c r="F332" s="101"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="60" t="s">
@@ -11605,13 +11611,13 @@
       <c r="C333" s="62" t="s">
         <v>1059</v>
       </c>
-      <c r="D333" s="85" t="s">
+      <c r="D333" s="82" t="s">
         <v>1222</v>
       </c>
-      <c r="E333" s="81" t="s">
+      <c r="E333" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F333" s="79"/>
+      <c r="F333" s="101"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="60" t="s">
@@ -11623,11 +11629,11 @@
       <c r="C334" s="71" t="s">
         <v>1061</v>
       </c>
-      <c r="D334" s="82"/>
-      <c r="E334" s="81" t="s">
+      <c r="D334" s="81"/>
+      <c r="E334" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F334" s="79"/>
+      <c r="F334" s="101"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="60" t="s">
@@ -11639,9 +11645,9 @@
       <c r="C335" s="66" t="s">
         <v>1063</v>
       </c>
-      <c r="D335" s="86"/>
-      <c r="E335" s="81"/>
-      <c r="F335" s="79"/>
+      <c r="D335" s="83"/>
+      <c r="E335" s="80"/>
+      <c r="F335" s="101"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="60" t="s">
@@ -11653,11 +11659,11 @@
       <c r="C336" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="D336" s="94"/>
-      <c r="E336" s="81" t="s">
+      <c r="D336" s="91"/>
+      <c r="E336" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="F336" s="79"/>
+      <c r="F336" s="101"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="60" t="s">
@@ -11669,11 +11675,11 @@
       <c r="C337" s="62" t="s">
         <v>1066</v>
       </c>
-      <c r="D337" s="94"/>
-      <c r="E337" s="97" t="s">
+      <c r="D337" s="91"/>
+      <c r="E337" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="F337" s="79"/>
+      <c r="F337" s="101"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="60" t="s">
@@ -11685,11 +11691,11 @@
       <c r="C338" s="62" t="s">
         <v>1068</v>
       </c>
-      <c r="D338" s="94"/>
-      <c r="E338" s="81" t="s">
+      <c r="D338" s="91"/>
+      <c r="E338" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F338" s="79"/>
+      <c r="F338" s="101"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="60" t="s">
@@ -11701,11 +11707,11 @@
       <c r="C339" s="62" t="s">
         <v>1070</v>
       </c>
-      <c r="D339" s="101"/>
-      <c r="E339" s="81" t="s">
+      <c r="D339" s="97"/>
+      <c r="E339" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F339" s="79"/>
+      <c r="F339" s="101"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="60" t="s">
@@ -11717,11 +11723,11 @@
       <c r="C340" s="71" t="s">
         <v>1072</v>
       </c>
-      <c r="D340" s="85"/>
-      <c r="E340" s="81" t="s">
+      <c r="D340" s="82"/>
+      <c r="E340" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F340" s="79"/>
+      <c r="F340" s="101"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="60" t="s">
@@ -11733,9 +11739,9 @@
       <c r="C341" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D341" s="88"/>
-      <c r="E341" s="81"/>
-      <c r="F341" s="79"/>
+      <c r="D341" s="85"/>
+      <c r="E341" s="80"/>
+      <c r="F341" s="101"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="60" t="s">
@@ -11747,9 +11753,9 @@
       <c r="C342" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D342" s="86"/>
-      <c r="E342" s="81"/>
-      <c r="F342" s="79"/>
+      <c r="D342" s="83"/>
+      <c r="E342" s="80"/>
+      <c r="F342" s="101"/>
     </row>
     <row r="343" spans="1:6" ht="63">
       <c r="A343" s="60" t="s">
@@ -11761,13 +11767,13 @@
       <c r="C343" s="62" t="s">
         <v>1038</v>
       </c>
-      <c r="D343" s="101" t="s">
+      <c r="D343" s="97" t="s">
         <v>1200</v>
       </c>
-      <c r="E343" s="81" t="s">
+      <c r="E343" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="F343" s="79"/>
+      <c r="F343" s="101"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="60" t="s">
@@ -11779,11 +11785,11 @@
       <c r="C344" s="62" t="s">
         <v>1075</v>
       </c>
-      <c r="D344" s="94"/>
-      <c r="E344" s="81" t="s">
+      <c r="D344" s="91"/>
+      <c r="E344" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F344" s="79"/>
+      <c r="F344" s="101"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="60" t="s">
@@ -11795,11 +11801,11 @@
       <c r="C345" s="62" t="s">
         <v>1039</v>
       </c>
-      <c r="D345" s="94"/>
-      <c r="E345" s="103" t="s">
+      <c r="D345" s="91"/>
+      <c r="E345" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="F345" s="79"/>
+      <c r="F345" s="101"/>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="60" t="s">
@@ -11811,9 +11817,9 @@
       <c r="C346" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D346" s="86"/>
-      <c r="E346" s="81"/>
-      <c r="F346" s="79"/>
+      <c r="D346" s="83"/>
+      <c r="E346" s="80"/>
+      <c r="F346" s="101"/>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="60" t="s">
@@ -11825,9 +11831,9 @@
       <c r="C347" s="66" t="s">
         <v>1079</v>
       </c>
-      <c r="D347" s="86"/>
-      <c r="E347" s="81"/>
-      <c r="F347" s="79"/>
+      <c r="D347" s="83"/>
+      <c r="E347" s="80"/>
+      <c r="F347" s="101"/>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="60" t="s">
@@ -11839,13 +11845,13 @@
       <c r="C348" s="72" t="s">
         <v>1080</v>
       </c>
-      <c r="D348" s="94" t="s">
+      <c r="D348" s="91" t="s">
         <v>1202</v>
       </c>
-      <c r="E348" s="81" t="s">
+      <c r="E348" s="80" t="s">
         <v>501</v>
       </c>
-      <c r="F348" s="79"/>
+      <c r="F348" s="101"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="60" t="s">
@@ -11857,11 +11863,11 @@
       <c r="C349" s="62" t="s">
         <v>503</v>
       </c>
-      <c r="D349" s="94"/>
-      <c r="E349" s="81" t="s">
+      <c r="D349" s="91"/>
+      <c r="E349" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="F349" s="79"/>
+      <c r="F349" s="101"/>
     </row>
     <row r="350" spans="1:6" ht="31.5">
       <c r="A350" s="60" t="s">
@@ -11873,11 +11879,11 @@
       <c r="C350" s="62" t="s">
         <v>1081</v>
       </c>
-      <c r="D350" s="94"/>
-      <c r="E350" s="81" t="s">
+      <c r="D350" s="91"/>
+      <c r="E350" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="F350" s="79"/>
+      <c r="F350" s="101"/>
     </row>
     <row r="351" spans="1:6" ht="31.5">
       <c r="A351" s="60" t="s">
@@ -11889,11 +11895,11 @@
       <c r="C351" s="62" t="s">
         <v>1082</v>
       </c>
-      <c r="D351" s="94"/>
-      <c r="E351" s="81" t="s">
+      <c r="D351" s="91"/>
+      <c r="E351" s="80" t="s">
         <v>495</v>
       </c>
-      <c r="F351" s="79"/>
+      <c r="F351" s="101"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="60" t="s">
@@ -11905,11 +11911,11 @@
       <c r="C352" s="62" t="s">
         <v>1083</v>
       </c>
-      <c r="D352" s="104"/>
-      <c r="E352" s="81" t="s">
+      <c r="D352" s="99"/>
+      <c r="E352" s="80" t="s">
         <v>498</v>
       </c>
-      <c r="F352" s="79"/>
+      <c r="F352" s="101"/>
     </row>
     <row r="353" spans="1:6" ht="31.5">
       <c r="A353" s="60" t="s">
@@ -11921,11 +11927,11 @@
       <c r="C353" s="62" t="s">
         <v>1085</v>
       </c>
-      <c r="D353" s="94"/>
-      <c r="E353" s="81" t="s">
+      <c r="D353" s="91"/>
+      <c r="E353" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="F353" s="79"/>
+      <c r="F353" s="101"/>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="60" t="s">
@@ -11937,9 +11943,9 @@
       <c r="C354" s="66" t="s">
         <v>1057</v>
       </c>
-      <c r="D354" s="90"/>
-      <c r="E354" s="81"/>
-      <c r="F354" s="79"/>
+      <c r="D354" s="87"/>
+      <c r="E354" s="80"/>
+      <c r="F354" s="101"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="60" t="s">
@@ -11951,13 +11957,13 @@
       <c r="C355" s="62" t="s">
         <v>1059</v>
       </c>
-      <c r="D355" s="85" t="s">
+      <c r="D355" s="82" t="s">
         <v>1219</v>
       </c>
-      <c r="E355" s="81" t="s">
+      <c r="E355" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F355" s="79"/>
+      <c r="F355" s="101"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="60" t="s">
@@ -11969,11 +11975,11 @@
       <c r="C356" s="71" t="s">
         <v>1061</v>
       </c>
-      <c r="D356" s="101"/>
-      <c r="E356" s="81" t="s">
+      <c r="D356" s="97"/>
+      <c r="E356" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F356" s="79"/>
+      <c r="F356" s="101"/>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="60" t="s">
@@ -11985,9 +11991,9 @@
       <c r="C357" s="66" t="s">
         <v>1063</v>
       </c>
-      <c r="D357" s="90"/>
-      <c r="E357" s="81"/>
-      <c r="F357" s="79"/>
+      <c r="D357" s="87"/>
+      <c r="E357" s="80"/>
+      <c r="F357" s="101"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="60" t="s">
@@ -11999,13 +12005,13 @@
       <c r="C358" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="D358" s="85" t="s">
+      <c r="D358" s="82" t="s">
         <v>1220</v>
       </c>
-      <c r="E358" s="81" t="s">
+      <c r="E358" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="F358" s="79"/>
+      <c r="F358" s="101"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="60" t="s">
@@ -12017,11 +12023,11 @@
       <c r="C359" s="62" t="s">
         <v>1092</v>
       </c>
-      <c r="D359" s="101"/>
-      <c r="E359" s="97" t="s">
+      <c r="D359" s="97"/>
+      <c r="E359" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="F359" s="79"/>
+      <c r="F359" s="101"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="60" t="s">
@@ -12033,11 +12039,11 @@
       <c r="C360" s="62" t="s">
         <v>1068</v>
       </c>
-      <c r="D360" s="101"/>
-      <c r="E360" s="81" t="s">
+      <c r="D360" s="97"/>
+      <c r="E360" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F360" s="79"/>
+      <c r="F360" s="101"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="60" t="s">
@@ -12049,11 +12055,11 @@
       <c r="C361" s="62" t="s">
         <v>1070</v>
       </c>
-      <c r="D361" s="101"/>
-      <c r="E361" s="81" t="s">
+      <c r="D361" s="97"/>
+      <c r="E361" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F361" s="79"/>
+      <c r="F361" s="101"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="60" t="s">
@@ -12065,11 +12071,11 @@
       <c r="C362" s="71" t="s">
         <v>1072</v>
       </c>
-      <c r="D362" s="101"/>
-      <c r="E362" s="81" t="s">
+      <c r="D362" s="97"/>
+      <c r="E362" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F362" s="79"/>
+      <c r="F362" s="101"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="60" t="s">
@@ -12081,9 +12087,9 @@
       <c r="C363" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D363" s="88"/>
-      <c r="E363" s="81"/>
-      <c r="F363" s="79"/>
+      <c r="D363" s="85"/>
+      <c r="E363" s="80"/>
+      <c r="F363" s="101"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="60" t="s">
@@ -12095,9 +12101,9 @@
       <c r="C364" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D364" s="90"/>
-      <c r="E364" s="81"/>
-      <c r="F364" s="79"/>
+      <c r="D364" s="87"/>
+      <c r="E364" s="80"/>
+      <c r="F364" s="101"/>
     </row>
     <row r="365" spans="1:6" ht="47.25">
       <c r="A365" s="60" t="s">
@@ -12109,13 +12115,13 @@
       <c r="C365" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="D365" s="101" t="s">
+      <c r="D365" s="97" t="s">
         <v>1200</v>
       </c>
-      <c r="E365" s="81" t="s">
+      <c r="E365" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="F365" s="79"/>
+      <c r="F365" s="101"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="60" t="s">
@@ -12127,11 +12133,11 @@
       <c r="C366" s="72" t="s">
         <v>1098</v>
       </c>
-      <c r="D366" s="105"/>
-      <c r="E366" s="81" t="s">
+      <c r="D366" s="100"/>
+      <c r="E366" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F366" s="79"/>
+      <c r="F366" s="101"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="60" t="s">
@@ -12143,11 +12149,11 @@
       <c r="C367" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="D367" s="101"/>
-      <c r="E367" s="81" t="s">
+      <c r="D367" s="97"/>
+      <c r="E367" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F367" s="79"/>
+      <c r="F367" s="101"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="60" t="s">
@@ -12159,9 +12165,9 @@
       <c r="C368" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D368" s="90"/>
-      <c r="E368" s="81"/>
-      <c r="F368" s="79"/>
+      <c r="D368" s="87"/>
+      <c r="E368" s="80"/>
+      <c r="F368" s="101"/>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="60" t="s">
@@ -12173,9 +12179,9 @@
       <c r="C369" s="66" t="s">
         <v>1079</v>
       </c>
-      <c r="D369" s="90"/>
-      <c r="E369" s="81"/>
-      <c r="F369" s="79"/>
+      <c r="D369" s="87"/>
+      <c r="E369" s="80"/>
+      <c r="F369" s="101"/>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="60" t="s">
@@ -12187,13 +12193,13 @@
       <c r="C370" s="62" t="s">
         <v>1102</v>
       </c>
-      <c r="D370" s="94" t="s">
+      <c r="D370" s="91" t="s">
         <v>1205</v>
       </c>
-      <c r="E370" s="81" t="s">
+      <c r="E370" s="80" t="s">
         <v>1204</v>
       </c>
-      <c r="F370" s="79"/>
+      <c r="F370" s="101"/>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="60" t="s">
@@ -12205,11 +12211,11 @@
       <c r="C371" s="62" t="s">
         <v>1103</v>
       </c>
-      <c r="D371" s="101"/>
-      <c r="E371" s="81" t="s">
+      <c r="D371" s="97"/>
+      <c r="E371" s="80" t="s">
         <v>506</v>
       </c>
-      <c r="F371" s="79"/>
+      <c r="F371" s="101"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="60" t="s">
@@ -12221,11 +12227,11 @@
       <c r="C372" s="62" t="s">
         <v>1104</v>
       </c>
-      <c r="D372" s="101"/>
-      <c r="E372" s="81" t="s">
+      <c r="D372" s="97"/>
+      <c r="E372" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="F372" s="79"/>
+      <c r="F372" s="101"/>
     </row>
     <row r="373" spans="1:6" ht="31.5">
       <c r="A373" s="60" t="s">
@@ -12237,11 +12243,11 @@
       <c r="C373" s="62" t="s">
         <v>1105</v>
       </c>
-      <c r="D373" s="101"/>
-      <c r="E373" s="81" t="s">
+      <c r="D373" s="97"/>
+      <c r="E373" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="F373" s="79"/>
+      <c r="F373" s="101"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="60" t="s">
@@ -12253,11 +12259,11 @@
       <c r="C374" s="62" t="s">
         <v>1106</v>
       </c>
-      <c r="D374" s="101"/>
-      <c r="E374" s="81" t="s">
+      <c r="D374" s="97"/>
+      <c r="E374" s="80" t="s">
         <v>498</v>
       </c>
-      <c r="F374" s="79"/>
+      <c r="F374" s="101"/>
     </row>
     <row r="375" spans="1:6" ht="31.5">
       <c r="A375" s="60" t="s">
@@ -12269,11 +12275,11 @@
       <c r="C375" s="62" t="s">
         <v>1085</v>
       </c>
-      <c r="D375" s="101"/>
-      <c r="E375" s="81" t="s">
+      <c r="D375" s="97"/>
+      <c r="E375" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="F375" s="79"/>
+      <c r="F375" s="101"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="60" t="s">
@@ -12285,9 +12291,9 @@
       <c r="C376" s="66" t="s">
         <v>1057</v>
       </c>
-      <c r="D376" s="86"/>
-      <c r="E376" s="81"/>
-      <c r="F376" s="79"/>
+      <c r="D376" s="83"/>
+      <c r="E376" s="80"/>
+      <c r="F376" s="101"/>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="60" t="s">
@@ -12299,13 +12305,13 @@
       <c r="C377" s="62" t="s">
         <v>1059</v>
       </c>
-      <c r="D377" s="94" t="s">
+      <c r="D377" s="91" t="s">
         <v>1219</v>
       </c>
-      <c r="E377" s="81" t="s">
+      <c r="E377" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F377" s="79"/>
+      <c r="F377" s="101"/>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="60" t="s">
@@ -12317,11 +12323,11 @@
       <c r="C378" s="71" t="s">
         <v>1061</v>
       </c>
-      <c r="D378" s="82"/>
-      <c r="E378" s="81" t="s">
+      <c r="D378" s="81"/>
+      <c r="E378" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F378" s="79"/>
+      <c r="F378" s="101"/>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="60" t="s">
@@ -12333,9 +12339,9 @@
       <c r="C379" s="66" t="s">
         <v>1063</v>
       </c>
-      <c r="D379" s="86"/>
-      <c r="E379" s="81"/>
-      <c r="F379" s="79"/>
+      <c r="D379" s="83"/>
+      <c r="E379" s="80"/>
+      <c r="F379" s="101"/>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="60" t="s">
@@ -12347,13 +12353,13 @@
       <c r="C380" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="D380" s="101" t="s">
+      <c r="D380" s="97" t="s">
         <v>1220</v>
       </c>
-      <c r="E380" s="81" t="s">
+      <c r="E380" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="F380" s="79"/>
+      <c r="F380" s="101"/>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="60" t="s">
@@ -12365,11 +12371,11 @@
       <c r="C381" s="62" t="s">
         <v>1092</v>
       </c>
-      <c r="D381" s="101"/>
-      <c r="E381" s="97" t="s">
+      <c r="D381" s="97"/>
+      <c r="E381" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="F381" s="79"/>
+      <c r="F381" s="101"/>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="60" t="s">
@@ -12381,11 +12387,11 @@
       <c r="C382" s="62" t="s">
         <v>1068</v>
       </c>
-      <c r="D382" s="101"/>
-      <c r="E382" s="81" t="s">
+      <c r="D382" s="97"/>
+      <c r="E382" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F382" s="79"/>
+      <c r="F382" s="101"/>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="60" t="s">
@@ -12397,11 +12403,11 @@
       <c r="C383" s="69" t="s">
         <v>1070</v>
       </c>
-      <c r="D383" s="85"/>
-      <c r="E383" s="81" t="s">
+      <c r="D383" s="82"/>
+      <c r="E383" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F383" s="79"/>
+      <c r="F383" s="101"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="60" t="s">
@@ -12413,11 +12419,11 @@
       <c r="C384" s="71" t="s">
         <v>1072</v>
       </c>
-      <c r="D384" s="85"/>
-      <c r="E384" s="81" t="s">
+      <c r="D384" s="82"/>
+      <c r="E384" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F384" s="79"/>
+      <c r="F384" s="101"/>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="60" t="s">
@@ -12429,9 +12435,9 @@
       <c r="C385" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D385" s="88"/>
-      <c r="E385" s="81"/>
-      <c r="F385" s="79"/>
+      <c r="D385" s="85"/>
+      <c r="E385" s="80"/>
+      <c r="F385" s="101"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="60" t="s">
@@ -12443,9 +12449,9 @@
       <c r="C386" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D386" s="90"/>
-      <c r="E386" s="81"/>
-      <c r="F386" s="79"/>
+      <c r="D386" s="87"/>
+      <c r="E386" s="80"/>
+      <c r="F386" s="101"/>
     </row>
     <row r="387" spans="1:6" ht="47.25">
       <c r="A387" s="60" t="s">
@@ -12457,13 +12463,13 @@
       <c r="C387" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="D387" s="101" t="s">
+      <c r="D387" s="97" t="s">
         <v>1200</v>
       </c>
-      <c r="E387" s="81" t="s">
+      <c r="E387" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="F387" s="79"/>
+      <c r="F387" s="101"/>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="60" t="s">
@@ -12475,11 +12481,11 @@
       <c r="C388" s="62" t="s">
         <v>1119</v>
       </c>
-      <c r="D388" s="101"/>
-      <c r="E388" s="81" t="s">
+      <c r="D388" s="97"/>
+      <c r="E388" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F388" s="79"/>
+      <c r="F388" s="101"/>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="60" t="s">
@@ -12491,11 +12497,11 @@
       <c r="C389" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="D389" s="101"/>
-      <c r="E389" s="81" t="s">
+      <c r="D389" s="97"/>
+      <c r="E389" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F389" s="79"/>
+      <c r="F389" s="101"/>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="60" t="s">
@@ -12507,9 +12513,9 @@
       <c r="C390" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D390" s="90"/>
-      <c r="E390" s="81"/>
-      <c r="F390" s="79"/>
+      <c r="D390" s="87"/>
+      <c r="E390" s="80"/>
+      <c r="F390" s="101"/>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="60" t="s">
@@ -12521,9 +12527,9 @@
       <c r="C391" s="66" t="s">
         <v>1079</v>
       </c>
-      <c r="D391" s="90"/>
-      <c r="E391" s="81"/>
-      <c r="F391" s="79"/>
+      <c r="D391" s="87"/>
+      <c r="E391" s="80"/>
+      <c r="F391" s="101"/>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="60" t="s">
@@ -12535,13 +12541,13 @@
       <c r="C392" s="69" t="s">
         <v>1080</v>
       </c>
-      <c r="D392" s="85" t="s">
+      <c r="D392" s="82" t="s">
         <v>1206</v>
       </c>
-      <c r="E392" s="81" t="s">
+      <c r="E392" s="80" t="s">
         <v>501</v>
       </c>
-      <c r="F392" s="79"/>
+      <c r="F392" s="101"/>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="60" t="s">
@@ -12553,11 +12559,11 @@
       <c r="C393" s="62" t="s">
         <v>1123</v>
       </c>
-      <c r="D393" s="101"/>
-      <c r="E393" s="81" t="s">
+      <c r="D393" s="97"/>
+      <c r="E393" s="80" t="s">
         <v>465</v>
       </c>
-      <c r="F393" s="79"/>
+      <c r="F393" s="101"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="60" t="s">
@@ -12569,11 +12575,11 @@
       <c r="C394" s="62" t="s">
         <v>1124</v>
       </c>
-      <c r="D394" s="101"/>
-      <c r="E394" s="81" t="s">
+      <c r="D394" s="97"/>
+      <c r="E394" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="F394" s="79"/>
+      <c r="F394" s="101"/>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="60" t="s">
@@ -12585,11 +12591,11 @@
       <c r="C395" s="72" t="s">
         <v>1125</v>
       </c>
-      <c r="D395" s="105"/>
-      <c r="E395" s="81" t="s">
+      <c r="D395" s="100"/>
+      <c r="E395" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="F395" s="79"/>
+      <c r="F395" s="101"/>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="60" t="s">
@@ -12601,9 +12607,9 @@
       <c r="C396" s="66" t="s">
         <v>1127</v>
       </c>
-      <c r="D396" s="90"/>
-      <c r="E396" s="81"/>
-      <c r="F396" s="79"/>
+      <c r="D396" s="87"/>
+      <c r="E396" s="80"/>
+      <c r="F396" s="101"/>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="60" t="s">
@@ -12615,13 +12621,13 @@
       <c r="C397" s="72" t="s">
         <v>1128</v>
       </c>
-      <c r="D397" s="105" t="s">
+      <c r="D397" s="100" t="s">
         <v>1207</v>
       </c>
-      <c r="E397" s="81" t="s">
+      <c r="E397" s="80" t="s">
         <v>526</v>
       </c>
-      <c r="F397" s="79"/>
+      <c r="F397" s="101"/>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="60" t="s">
@@ -12633,11 +12639,11 @@
       <c r="C398" s="72" t="s">
         <v>1129</v>
       </c>
-      <c r="D398" s="105"/>
-      <c r="E398" s="81" t="s">
+      <c r="D398" s="100"/>
+      <c r="E398" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="F398" s="79"/>
+      <c r="F398" s="101"/>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="60" t="s">
@@ -12649,11 +12655,11 @@
       <c r="C399" s="72" t="s">
         <v>1131</v>
       </c>
-      <c r="D399" s="105"/>
-      <c r="E399" s="97" t="s">
+      <c r="D399" s="100"/>
+      <c r="E399" s="93" t="s">
         <v>528</v>
       </c>
-      <c r="F399" s="79"/>
+      <c r="F399" s="101"/>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="60" t="s">
@@ -12665,9 +12671,9 @@
       <c r="C400" s="66" t="s">
         <v>1063</v>
       </c>
-      <c r="D400" s="86"/>
-      <c r="E400" s="81"/>
-      <c r="F400" s="79"/>
+      <c r="D400" s="83"/>
+      <c r="E400" s="80"/>
+      <c r="F400" s="101"/>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="60" t="s">
@@ -12679,13 +12685,13 @@
       <c r="C401" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="D401" s="101" t="s">
+      <c r="D401" s="97" t="s">
         <v>1208</v>
       </c>
-      <c r="E401" s="81" t="s">
+      <c r="E401" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="F401" s="79"/>
+      <c r="F401" s="101"/>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="60" t="s">
@@ -12697,11 +12703,11 @@
       <c r="C402" s="62" t="s">
         <v>1133</v>
       </c>
-      <c r="D402" s="94"/>
-      <c r="E402" s="81" t="s">
+      <c r="D402" s="91"/>
+      <c r="E402" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="F402" s="79"/>
+      <c r="F402" s="101"/>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="60" t="s">
@@ -12713,11 +12719,11 @@
       <c r="C403" s="62" t="s">
         <v>1068</v>
       </c>
-      <c r="D403" s="94"/>
-      <c r="E403" s="81" t="s">
+      <c r="D403" s="91"/>
+      <c r="E403" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F403" s="79"/>
+      <c r="F403" s="101"/>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="60" t="s">
@@ -12729,11 +12735,11 @@
       <c r="C404" s="69" t="s">
         <v>1070</v>
       </c>
-      <c r="D404" s="82"/>
-      <c r="E404" s="82" t="s">
+      <c r="D404" s="81"/>
+      <c r="E404" s="81" t="s">
         <v>479</v>
       </c>
-      <c r="F404" s="79"/>
+      <c r="F404" s="101"/>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="60" t="s">
@@ -12745,11 +12751,11 @@
       <c r="C405" s="62" t="s">
         <v>1051</v>
       </c>
-      <c r="D405" s="94"/>
-      <c r="E405" s="81" t="s">
+      <c r="D405" s="91"/>
+      <c r="E405" s="80" t="s">
         <v>482</v>
       </c>
-      <c r="F405" s="79"/>
+      <c r="F405" s="101"/>
     </row>
     <row r="406" spans="1:6" ht="31.5">
       <c r="A406" s="60" t="s">
@@ -12761,11 +12767,11 @@
       <c r="C406" s="62" t="s">
         <v>1105</v>
       </c>
-      <c r="D406" s="101"/>
-      <c r="E406" s="81" t="s">
+      <c r="D406" s="97"/>
+      <c r="E406" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="F406" s="79"/>
+      <c r="F406" s="101"/>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="60" t="s">
@@ -12777,9 +12783,9 @@
       <c r="C407" s="66" t="s">
         <v>1053</v>
       </c>
-      <c r="D407" s="90"/>
-      <c r="E407" s="81"/>
-      <c r="F407" s="79"/>
+      <c r="D407" s="87"/>
+      <c r="E407" s="80"/>
+      <c r="F407" s="101"/>
     </row>
     <row r="408" spans="1:6" ht="47.25">
       <c r="A408" s="60" t="s">
@@ -12791,13 +12797,13 @@
       <c r="C408" s="62" t="s">
         <v>487</v>
       </c>
-      <c r="D408" s="101" t="s">
+      <c r="D408" s="97" t="s">
         <v>1209</v>
       </c>
-      <c r="E408" s="81" t="s">
+      <c r="E408" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="F408" s="79"/>
+      <c r="F408" s="101"/>
     </row>
     <row r="409" spans="1:6" ht="31.5">
       <c r="A409" s="60" t="s">
@@ -12809,11 +12815,11 @@
       <c r="C409" s="62" t="s">
         <v>490</v>
       </c>
-      <c r="D409" s="101"/>
-      <c r="E409" s="81" t="s">
+      <c r="D409" s="97"/>
+      <c r="E409" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="F409" s="79"/>
+      <c r="F409" s="101"/>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="60" t="s">
@@ -12825,11 +12831,11 @@
       <c r="C410" s="62" t="s">
         <v>1139</v>
       </c>
-      <c r="D410" s="101"/>
-      <c r="E410" s="81" t="s">
+      <c r="D410" s="97"/>
+      <c r="E410" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="F410" s="79"/>
+      <c r="F410" s="101"/>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="60" t="s">
@@ -12841,11 +12847,11 @@
       <c r="C411" s="62" t="s">
         <v>1106</v>
       </c>
-      <c r="D411" s="101"/>
-      <c r="E411" s="81" t="s">
+      <c r="D411" s="97"/>
+      <c r="E411" s="80" t="s">
         <v>498</v>
       </c>
-      <c r="F411" s="79"/>
+      <c r="F411" s="101"/>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="60" t="s">
@@ -12857,9 +12863,9 @@
       <c r="C412" s="66" t="s">
         <v>1057</v>
       </c>
-      <c r="D412" s="90"/>
-      <c r="E412" s="81"/>
-      <c r="F412" s="79"/>
+      <c r="D412" s="87"/>
+      <c r="E412" s="80"/>
+      <c r="F412" s="101"/>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="60" t="s">
@@ -12871,13 +12877,13 @@
       <c r="C413" s="62" t="s">
         <v>1059</v>
       </c>
-      <c r="D413" s="94" t="s">
+      <c r="D413" s="91" t="s">
         <v>1219</v>
       </c>
-      <c r="E413" s="81" t="s">
+      <c r="E413" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F413" s="79"/>
+      <c r="F413" s="101"/>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="60" t="s">
@@ -12889,11 +12895,11 @@
       <c r="C414" s="71" t="s">
         <v>1061</v>
       </c>
-      <c r="D414" s="85"/>
-      <c r="E414" s="81" t="s">
+      <c r="D414" s="82"/>
+      <c r="E414" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F414" s="79"/>
+      <c r="F414" s="101"/>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="60" t="s">
@@ -12905,9 +12911,9 @@
       <c r="C415" s="66" t="s">
         <v>1063</v>
       </c>
-      <c r="D415" s="90"/>
-      <c r="E415" s="81"/>
-      <c r="F415" s="79"/>
+      <c r="D415" s="87"/>
+      <c r="E415" s="80"/>
+      <c r="F415" s="101"/>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="60" t="s">
@@ -12919,13 +12925,13 @@
       <c r="C416" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="D416" s="101" t="s">
+      <c r="D416" s="97" t="s">
         <v>1220</v>
       </c>
-      <c r="E416" s="81" t="s">
+      <c r="E416" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="F416" s="79"/>
+      <c r="F416" s="101"/>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="60" t="s">
@@ -12937,11 +12943,11 @@
       <c r="C417" s="62" t="s">
         <v>1092</v>
       </c>
-      <c r="D417" s="94"/>
-      <c r="E417" s="97" t="s">
+      <c r="D417" s="91"/>
+      <c r="E417" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="F417" s="79"/>
+      <c r="F417" s="101"/>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="60" t="s">
@@ -12953,11 +12959,11 @@
       <c r="C418" s="62" t="s">
         <v>1068</v>
       </c>
-      <c r="D418" s="94"/>
-      <c r="E418" s="81" t="s">
+      <c r="D418" s="91"/>
+      <c r="E418" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F418" s="79"/>
+      <c r="F418" s="101"/>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="60" t="s">
@@ -12969,11 +12975,11 @@
       <c r="C419" s="69" t="s">
         <v>1070</v>
       </c>
-      <c r="D419" s="82"/>
-      <c r="E419" s="81" t="s">
+      <c r="D419" s="81"/>
+      <c r="E419" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F419" s="79"/>
+      <c r="F419" s="101"/>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="60" t="s">
@@ -12985,11 +12991,11 @@
       <c r="C420" s="71" t="s">
         <v>1072</v>
       </c>
-      <c r="D420" s="85"/>
-      <c r="E420" s="81" t="s">
+      <c r="D420" s="82"/>
+      <c r="E420" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F420" s="79"/>
+      <c r="F420" s="101"/>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="60" t="s">
@@ -13001,9 +13007,9 @@
       <c r="C421" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D421" s="80"/>
-      <c r="E421" s="79"/>
-      <c r="F421" s="79"/>
+      <c r="D421" s="79"/>
+      <c r="E421" s="101"/>
+      <c r="F421" s="101"/>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="60" t="s">
@@ -13015,9 +13021,9 @@
       <c r="C422" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="D422" s="101"/>
-      <c r="E422" s="94"/>
-      <c r="F422" s="81" t="s">
+      <c r="D422" s="97"/>
+      <c r="E422" s="91"/>
+      <c r="F422" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -13031,9 +13037,9 @@
       <c r="C423" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D423" s="101"/>
-      <c r="E423" s="94"/>
-      <c r="F423" s="81" t="s">
+      <c r="D423" s="97"/>
+      <c r="E423" s="91"/>
+      <c r="F423" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -13047,9 +13053,9 @@
       <c r="C424" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D424" s="101"/>
-      <c r="E424" s="94"/>
-      <c r="F424" s="81" t="s">
+      <c r="D424" s="97"/>
+      <c r="E424" s="91"/>
+      <c r="F424" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -13063,9 +13069,9 @@
       <c r="C425" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D425" s="80"/>
-      <c r="E425" s="80"/>
-      <c r="F425" s="81"/>
+      <c r="D425" s="79"/>
+      <c r="E425" s="79"/>
+      <c r="F425" s="80"/>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="60" t="s">
@@ -13077,9 +13083,9 @@
       <c r="C426" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D426" s="101"/>
-      <c r="E426" s="94"/>
-      <c r="F426" s="81" t="s">
+      <c r="D426" s="97"/>
+      <c r="E426" s="91"/>
+      <c r="F426" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -13093,9 +13099,9 @@
       <c r="C427" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D427" s="101"/>
-      <c r="E427" s="94"/>
-      <c r="F427" s="81" t="s">
+      <c r="D427" s="97"/>
+      <c r="E427" s="91"/>
+      <c r="F427" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -13109,9 +13115,9 @@
       <c r="C428" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D428" s="80"/>
-      <c r="E428" s="81"/>
-      <c r="F428" s="79"/>
+      <c r="D428" s="79"/>
+      <c r="E428" s="80"/>
+      <c r="F428" s="101"/>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="60" t="s">
@@ -13123,9 +13129,9 @@
       <c r="C429" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D429" s="90"/>
-      <c r="E429" s="81"/>
-      <c r="F429" s="79"/>
+      <c r="D429" s="87"/>
+      <c r="E429" s="80"/>
+      <c r="F429" s="101"/>
     </row>
     <row r="430" spans="1:6" ht="47.25">
       <c r="A430" s="60" t="s">
@@ -13137,13 +13143,13 @@
       <c r="C430" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="D430" s="101" t="s">
+      <c r="D430" s="97" t="s">
         <v>1200</v>
       </c>
-      <c r="E430" s="81" t="s">
+      <c r="E430" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="F430" s="79"/>
+      <c r="F430" s="101"/>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="60" t="s">
@@ -13155,11 +13161,11 @@
       <c r="C431" s="62" t="s">
         <v>1119</v>
       </c>
-      <c r="D431" s="101"/>
-      <c r="E431" s="81" t="s">
+      <c r="D431" s="97"/>
+      <c r="E431" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F431" s="79"/>
+      <c r="F431" s="101"/>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="60" t="s">
@@ -13171,11 +13177,11 @@
       <c r="C432" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="D432" s="101"/>
-      <c r="E432" s="81" t="s">
+      <c r="D432" s="97"/>
+      <c r="E432" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="F432" s="79"/>
+      <c r="F432" s="101"/>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="60" t="s">
@@ -13187,9 +13193,9 @@
       <c r="C433" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D433" s="90"/>
-      <c r="E433" s="81"/>
-      <c r="F433" s="79"/>
+      <c r="D433" s="87"/>
+      <c r="E433" s="80"/>
+      <c r="F433" s="101"/>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="60" t="s">
@@ -13201,9 +13207,9 @@
       <c r="C434" s="66" t="s">
         <v>1079</v>
       </c>
-      <c r="D434" s="90"/>
-      <c r="E434" s="81"/>
-      <c r="F434" s="79"/>
+      <c r="D434" s="87"/>
+      <c r="E434" s="80"/>
+      <c r="F434" s="101"/>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="60" t="s">
@@ -13215,13 +13221,13 @@
       <c r="C435" s="62" t="s">
         <v>1162</v>
       </c>
-      <c r="D435" s="101" t="s">
+      <c r="D435" s="97" t="s">
         <v>1221</v>
       </c>
-      <c r="E435" s="81" t="s">
+      <c r="E435" s="80" t="s">
         <v>465</v>
       </c>
-      <c r="F435" s="79"/>
+      <c r="F435" s="101"/>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="60" t="s">
@@ -13233,11 +13239,11 @@
       <c r="C436" s="62" t="s">
         <v>1124</v>
       </c>
-      <c r="D436" s="101"/>
-      <c r="E436" s="81" t="s">
+      <c r="D436" s="97"/>
+      <c r="E436" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="F436" s="79"/>
+      <c r="F436" s="101"/>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="60" t="s">
@@ -13249,11 +13255,11 @@
       <c r="C437" s="71" t="s">
         <v>1165</v>
       </c>
-      <c r="D437" s="85"/>
-      <c r="E437" s="81" t="s">
+      <c r="D437" s="82"/>
+      <c r="E437" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F437" s="79"/>
+      <c r="F437" s="101"/>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="60" t="s">
@@ -13265,11 +13271,11 @@
       <c r="C438" s="72" t="s">
         <v>1167</v>
       </c>
-      <c r="D438" s="105"/>
-      <c r="E438" s="81" t="s">
+      <c r="D438" s="100"/>
+      <c r="E438" s="80" t="s">
         <v>498</v>
       </c>
-      <c r="F438" s="79"/>
+      <c r="F438" s="101"/>
     </row>
     <row r="439" spans="1:6" ht="31.5">
       <c r="A439" s="60" t="s">
@@ -13281,11 +13287,11 @@
       <c r="C439" s="72" t="s">
         <v>1169</v>
       </c>
-      <c r="D439" s="105"/>
-      <c r="E439" s="81" t="s">
+      <c r="D439" s="100"/>
+      <c r="E439" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="F439" s="79"/>
+      <c r="F439" s="101"/>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="60" t="s">
@@ -13297,11 +13303,11 @@
       <c r="C440" s="72" t="s">
         <v>1170</v>
       </c>
-      <c r="D440" s="105"/>
-      <c r="E440" s="81" t="s">
+      <c r="D440" s="100"/>
+      <c r="E440" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="F440" s="79"/>
+      <c r="F440" s="101"/>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="60" t="s">
@@ -13313,9 +13319,9 @@
       <c r="C441" s="66" t="s">
         <v>1057</v>
       </c>
-      <c r="D441" s="90"/>
-      <c r="E441" s="81"/>
-      <c r="F441" s="79"/>
+      <c r="D441" s="87"/>
+      <c r="E441" s="80"/>
+      <c r="F441" s="101"/>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="60" t="s">
@@ -13327,13 +13333,13 @@
       <c r="C442" s="62" t="s">
         <v>1059</v>
       </c>
-      <c r="D442" s="101" t="s">
+      <c r="D442" s="97" t="s">
         <v>1219</v>
       </c>
-      <c r="E442" s="81" t="s">
+      <c r="E442" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F442" s="79"/>
+      <c r="F442" s="101"/>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="60" t="s">
@@ -13345,11 +13351,11 @@
       <c r="C443" s="71" t="s">
         <v>1061</v>
       </c>
-      <c r="D443" s="85"/>
-      <c r="E443" s="81" t="s">
+      <c r="D443" s="82"/>
+      <c r="E443" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F443" s="79"/>
+      <c r="F443" s="101"/>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="60" t="s">
@@ -13361,9 +13367,9 @@
       <c r="C444" s="66" t="s">
         <v>1063</v>
       </c>
-      <c r="D444" s="90"/>
-      <c r="E444" s="81"/>
-      <c r="F444" s="79"/>
+      <c r="D444" s="87"/>
+      <c r="E444" s="80"/>
+      <c r="F444" s="101"/>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="60" t="s">
@@ -13375,13 +13381,13 @@
       <c r="C445" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="D445" s="94" t="s">
+      <c r="D445" s="91" t="s">
         <v>1220</v>
       </c>
-      <c r="E445" s="81" t="s">
+      <c r="E445" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="F445" s="79"/>
+      <c r="F445" s="101"/>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="60" t="s">
@@ -13393,11 +13399,11 @@
       <c r="C446" s="62" t="s">
         <v>1092</v>
       </c>
-      <c r="D446" s="94"/>
-      <c r="E446" s="81" t="s">
+      <c r="D446" s="91"/>
+      <c r="E446" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="F446" s="79"/>
+      <c r="F446" s="101"/>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="60" t="s">
@@ -13409,11 +13415,11 @@
       <c r="C447" s="62" t="s">
         <v>1068</v>
       </c>
-      <c r="D447" s="94"/>
-      <c r="E447" s="81" t="s">
+      <c r="D447" s="91"/>
+      <c r="E447" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F447" s="79"/>
+      <c r="F447" s="101"/>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="60" t="s">
@@ -13425,11 +13431,11 @@
       <c r="C448" s="69" t="s">
         <v>1070</v>
       </c>
-      <c r="D448" s="82"/>
-      <c r="E448" s="81" t="s">
+      <c r="D448" s="81"/>
+      <c r="E448" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F448" s="79"/>
+      <c r="F448" s="101"/>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="60" t="s">
@@ -13441,11 +13447,11 @@
       <c r="C449" s="71" t="s">
         <v>1072</v>
       </c>
-      <c r="D449" s="82"/>
-      <c r="E449" s="81" t="s">
+      <c r="D449" s="81"/>
+      <c r="E449" s="80" t="s">
         <v>1216</v>
       </c>
-      <c r="F449" s="79"/>
+      <c r="F449" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13639,7 +13645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>

--- a/docs/coverage-testing/collapsed.xlsx
+++ b/docs/coverage-testing/collapsed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18170CB8-4187-4EE6-AE51-6FC49653D6DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDCED8E3-CB33-4627-991E-7ECD5780368C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="975" windowWidth="28650" windowHeight="16305" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="975" windowWidth="28650" windowHeight="16305" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="1138">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3569,7 +3569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3592,11 +3592,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3698,6 +3716,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4085,9 +4121,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IV450"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -7783,7 +7817,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -15014,7 +15048,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>796</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>797</v>
       </c>
@@ -17462,7 +17498,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -17564,48 +17600,6 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17624,7 +17618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="38" customWidth="1"/>
     <col min="2" max="2" width="53.375" style="31" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="31" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="31" customWidth="1"/>
@@ -17635,7 +17629,7 @@
     <col min="1026" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="40" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>796</v>
       </c>
@@ -17657,8 +17651,257 @@
       <c r="G1" s="33" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="39"/>
+      <c r="BM1" s="39"/>
+      <c r="BN1" s="39"/>
+      <c r="BO1" s="39"/>
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="39"/>
+      <c r="BR1" s="39"/>
+      <c r="BS1" s="39"/>
+      <c r="BT1" s="39"/>
+      <c r="BU1" s="39"/>
+      <c r="BV1" s="39"/>
+      <c r="BW1" s="39"/>
+      <c r="BX1" s="39"/>
+      <c r="BY1" s="39"/>
+      <c r="BZ1" s="39"/>
+      <c r="CA1" s="39"/>
+      <c r="CB1" s="39"/>
+      <c r="CC1" s="39"/>
+      <c r="CD1" s="39"/>
+      <c r="CE1" s="39"/>
+      <c r="CF1" s="39"/>
+      <c r="CG1" s="39"/>
+      <c r="CH1" s="39"/>
+      <c r="CI1" s="39"/>
+      <c r="CJ1" s="39"/>
+      <c r="CK1" s="39"/>
+      <c r="CL1" s="39"/>
+      <c r="CM1" s="39"/>
+      <c r="CN1" s="39"/>
+      <c r="CO1" s="39"/>
+      <c r="CP1" s="39"/>
+      <c r="CQ1" s="39"/>
+      <c r="CR1" s="39"/>
+      <c r="CS1" s="39"/>
+      <c r="CT1" s="39"/>
+      <c r="CU1" s="39"/>
+      <c r="CV1" s="39"/>
+      <c r="CW1" s="39"/>
+      <c r="CX1" s="39"/>
+      <c r="CY1" s="39"/>
+      <c r="CZ1" s="39"/>
+      <c r="DA1" s="39"/>
+      <c r="DB1" s="39"/>
+      <c r="DC1" s="39"/>
+      <c r="DD1" s="39"/>
+      <c r="DE1" s="39"/>
+      <c r="DF1" s="39"/>
+      <c r="DG1" s="39"/>
+      <c r="DH1" s="39"/>
+      <c r="DI1" s="39"/>
+      <c r="DJ1" s="39"/>
+      <c r="DK1" s="39"/>
+      <c r="DL1" s="39"/>
+      <c r="DM1" s="39"/>
+      <c r="DN1" s="39"/>
+      <c r="DO1" s="39"/>
+      <c r="DP1" s="39"/>
+      <c r="DQ1" s="39"/>
+      <c r="DR1" s="39"/>
+      <c r="DS1" s="39"/>
+      <c r="DT1" s="39"/>
+      <c r="DU1" s="39"/>
+      <c r="DV1" s="39"/>
+      <c r="DW1" s="39"/>
+      <c r="DX1" s="39"/>
+      <c r="DY1" s="39"/>
+      <c r="DZ1" s="39"/>
+      <c r="EA1" s="39"/>
+      <c r="EB1" s="39"/>
+      <c r="EC1" s="39"/>
+      <c r="ED1" s="39"/>
+      <c r="EE1" s="39"/>
+      <c r="EF1" s="39"/>
+      <c r="EG1" s="39"/>
+      <c r="EH1" s="39"/>
+      <c r="EI1" s="39"/>
+      <c r="EJ1" s="39"/>
+      <c r="EK1" s="39"/>
+      <c r="EL1" s="39"/>
+      <c r="EM1" s="39"/>
+      <c r="EN1" s="39"/>
+      <c r="EO1" s="39"/>
+      <c r="EP1" s="39"/>
+      <c r="EQ1" s="39"/>
+      <c r="ER1" s="39"/>
+      <c r="ES1" s="39"/>
+      <c r="ET1" s="39"/>
+      <c r="EU1" s="39"/>
+      <c r="EV1" s="39"/>
+      <c r="EW1" s="39"/>
+      <c r="EX1" s="39"/>
+      <c r="EY1" s="39"/>
+      <c r="EZ1" s="39"/>
+      <c r="FA1" s="39"/>
+      <c r="FB1" s="39"/>
+      <c r="FC1" s="39"/>
+      <c r="FD1" s="39"/>
+      <c r="FE1" s="39"/>
+      <c r="FF1" s="39"/>
+      <c r="FG1" s="39"/>
+      <c r="FH1" s="39"/>
+      <c r="FI1" s="39"/>
+      <c r="FJ1" s="39"/>
+      <c r="FK1" s="39"/>
+      <c r="FL1" s="39"/>
+      <c r="FM1" s="39"/>
+      <c r="FN1" s="39"/>
+      <c r="FO1" s="39"/>
+      <c r="FP1" s="39"/>
+      <c r="FQ1" s="39"/>
+      <c r="FR1" s="39"/>
+      <c r="FS1" s="39"/>
+      <c r="FT1" s="39"/>
+      <c r="FU1" s="39"/>
+      <c r="FV1" s="39"/>
+      <c r="FW1" s="39"/>
+      <c r="FX1" s="39"/>
+      <c r="FY1" s="39"/>
+      <c r="FZ1" s="39"/>
+      <c r="GA1" s="39"/>
+      <c r="GB1" s="39"/>
+      <c r="GC1" s="39"/>
+      <c r="GD1" s="39"/>
+      <c r="GE1" s="39"/>
+      <c r="GF1" s="39"/>
+      <c r="GG1" s="39"/>
+      <c r="GH1" s="39"/>
+      <c r="GI1" s="39"/>
+      <c r="GJ1" s="39"/>
+      <c r="GK1" s="39"/>
+      <c r="GL1" s="39"/>
+      <c r="GM1" s="39"/>
+      <c r="GN1" s="39"/>
+      <c r="GO1" s="39"/>
+      <c r="GP1" s="39"/>
+      <c r="GQ1" s="39"/>
+      <c r="GR1" s="39"/>
+      <c r="GS1" s="39"/>
+      <c r="GT1" s="39"/>
+      <c r="GU1" s="39"/>
+      <c r="GV1" s="39"/>
+      <c r="GW1" s="39"/>
+      <c r="GX1" s="39"/>
+      <c r="GY1" s="39"/>
+      <c r="GZ1" s="39"/>
+      <c r="HA1" s="39"/>
+      <c r="HB1" s="39"/>
+      <c r="HC1" s="39"/>
+      <c r="HD1" s="39"/>
+      <c r="HE1" s="39"/>
+      <c r="HF1" s="39"/>
+      <c r="HG1" s="39"/>
+      <c r="HH1" s="39"/>
+      <c r="HI1" s="39"/>
+      <c r="HJ1" s="39"/>
+      <c r="HK1" s="39"/>
+      <c r="HL1" s="39"/>
+      <c r="HM1" s="39"/>
+      <c r="HN1" s="39"/>
+      <c r="HO1" s="39"/>
+      <c r="HP1" s="39"/>
+      <c r="HQ1" s="39"/>
+      <c r="HR1" s="39"/>
+      <c r="HS1" s="39"/>
+      <c r="HT1" s="39"/>
+      <c r="HU1" s="39"/>
+      <c r="HV1" s="39"/>
+      <c r="HW1" s="39"/>
+      <c r="HX1" s="39"/>
+      <c r="HY1" s="39"/>
+      <c r="HZ1" s="39"/>
+      <c r="IA1" s="39"/>
+      <c r="IB1" s="39"/>
+      <c r="IC1" s="39"/>
+      <c r="ID1" s="39"/>
+      <c r="IE1" s="39"/>
+      <c r="IF1" s="39"/>
+      <c r="IG1" s="39"/>
+      <c r="IH1" s="39"/>
+      <c r="II1" s="39"/>
+      <c r="IJ1" s="39"/>
+      <c r="IK1" s="39"/>
+      <c r="IL1" s="39"/>
+      <c r="IM1" s="39"/>
+      <c r="IN1" s="39"/>
+      <c r="IO1" s="39"/>
+      <c r="IP1" s="39"/>
+      <c r="IQ1" s="39"/>
+      <c r="IR1" s="39"/>
+      <c r="IS1" s="39"/>
+      <c r="IT1" s="39"/>
+      <c r="IU1" s="39"/>
+      <c r="IV1" s="39"/>
+    </row>
+    <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>1075</v>
       </c>
@@ -17679,7 +17922,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>658</v>
       </c>
@@ -17698,7 +17941,7 @@
       </c>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>583</v>
       </c>
@@ -17717,7 +17960,7 @@
       </c>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>586</v>
       </c>
@@ -17736,7 +17979,7 @@
       </c>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>589</v>
       </c>
@@ -17755,7 +17998,7 @@
       </c>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1">
+    <row r="7" spans="1:256" ht="31.5" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>592</v>
       </c>
@@ -17778,7 +18021,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1">
+    <row r="8" spans="1:256" ht="31.5" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>598</v>
       </c>
@@ -17797,7 +18040,7 @@
       </c>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>601</v>
       </c>
@@ -17816,7 +18059,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1">
+    <row r="10" spans="1:256" ht="31.5" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>604</v>
       </c>
@@ -17835,7 +18078,7 @@
       </c>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>607</v>
       </c>
@@ -17854,7 +18097,7 @@
       </c>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:7" ht="33.6" customHeight="1">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1">
       <c r="A12" s="33" t="s">
         <v>610</v>
       </c>
@@ -17873,7 +18116,7 @@
       </c>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>613</v>
       </c>
@@ -17896,7 +18139,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1">
+    <row r="14" spans="1:256" ht="31.5" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>623</v>
       </c>
@@ -17919,7 +18162,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1">
+    <row r="15" spans="1:256" ht="31.5" customHeight="1">
       <c r="A15" s="33" t="s">
         <v>626</v>
       </c>
@@ -17938,7 +18181,7 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>661</v>
       </c>
@@ -18095,13 +18338,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:IV3"/>
+  <dimension ref="A1:IV2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="53.375" style="30" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="30" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="30" customWidth="1"/>
@@ -18111,7 +18354,7 @@
     <col min="1026" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>796</v>
       </c>
@@ -18133,255 +18376,255 @@
       <c r="G1" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="4"/>
-      <c r="DC1" s="4"/>
-      <c r="DD1" s="4"/>
-      <c r="DE1" s="4"/>
-      <c r="DF1" s="4"/>
-      <c r="DG1" s="4"/>
-      <c r="DH1" s="4"/>
-      <c r="DI1" s="4"/>
-      <c r="DJ1" s="4"/>
-      <c r="DK1" s="4"/>
-      <c r="DL1" s="4"/>
-      <c r="DM1" s="4"/>
-      <c r="DN1" s="4"/>
-      <c r="DO1" s="4"/>
-      <c r="DP1" s="4"/>
-      <c r="DQ1" s="4"/>
-      <c r="DR1" s="4"/>
-      <c r="DS1" s="4"/>
-      <c r="DT1" s="4"/>
-      <c r="DU1" s="4"/>
-      <c r="DV1" s="4"/>
-      <c r="DW1" s="4"/>
-      <c r="DX1" s="4"/>
-      <c r="DY1" s="4"/>
-      <c r="DZ1" s="4"/>
-      <c r="EA1" s="4"/>
-      <c r="EB1" s="4"/>
-      <c r="EC1" s="4"/>
-      <c r="ED1" s="4"/>
-      <c r="EE1" s="4"/>
-      <c r="EF1" s="4"/>
-      <c r="EG1" s="4"/>
-      <c r="EH1" s="4"/>
-      <c r="EI1" s="4"/>
-      <c r="EJ1" s="4"/>
-      <c r="EK1" s="4"/>
-      <c r="EL1" s="4"/>
-      <c r="EM1" s="4"/>
-      <c r="EN1" s="4"/>
-      <c r="EO1" s="4"/>
-      <c r="EP1" s="4"/>
-      <c r="EQ1" s="4"/>
-      <c r="ER1" s="4"/>
-      <c r="ES1" s="4"/>
-      <c r="ET1" s="4"/>
-      <c r="EU1" s="4"/>
-      <c r="EV1" s="4"/>
-      <c r="EW1" s="4"/>
-      <c r="EX1" s="4"/>
-      <c r="EY1" s="4"/>
-      <c r="EZ1" s="4"/>
-      <c r="FA1" s="4"/>
-      <c r="FB1" s="4"/>
-      <c r="FC1" s="4"/>
-      <c r="FD1" s="4"/>
-      <c r="FE1" s="4"/>
-      <c r="FF1" s="4"/>
-      <c r="FG1" s="4"/>
-      <c r="FH1" s="4"/>
-      <c r="FI1" s="4"/>
-      <c r="FJ1" s="4"/>
-      <c r="FK1" s="4"/>
-      <c r="FL1" s="4"/>
-      <c r="FM1" s="4"/>
-      <c r="FN1" s="4"/>
-      <c r="FO1" s="4"/>
-      <c r="FP1" s="4"/>
-      <c r="FQ1" s="4"/>
-      <c r="FR1" s="4"/>
-      <c r="FS1" s="4"/>
-      <c r="FT1" s="4"/>
-      <c r="FU1" s="4"/>
-      <c r="FV1" s="4"/>
-      <c r="FW1" s="4"/>
-      <c r="FX1" s="4"/>
-      <c r="FY1" s="4"/>
-      <c r="FZ1" s="4"/>
-      <c r="GA1" s="4"/>
-      <c r="GB1" s="4"/>
-      <c r="GC1" s="4"/>
-      <c r="GD1" s="4"/>
-      <c r="GE1" s="4"/>
-      <c r="GF1" s="4"/>
-      <c r="GG1" s="4"/>
-      <c r="GH1" s="4"/>
-      <c r="GI1" s="4"/>
-      <c r="GJ1" s="4"/>
-      <c r="GK1" s="4"/>
-      <c r="GL1" s="4"/>
-      <c r="GM1" s="4"/>
-      <c r="GN1" s="4"/>
-      <c r="GO1" s="4"/>
-      <c r="GP1" s="4"/>
-      <c r="GQ1" s="4"/>
-      <c r="GR1" s="4"/>
-      <c r="GS1" s="4"/>
-      <c r="GT1" s="4"/>
-      <c r="GU1" s="4"/>
-      <c r="GV1" s="4"/>
-      <c r="GW1" s="4"/>
-      <c r="GX1" s="4"/>
-      <c r="GY1" s="4"/>
-      <c r="GZ1" s="4"/>
-      <c r="HA1" s="4"/>
-      <c r="HB1" s="4"/>
-      <c r="HC1" s="4"/>
-      <c r="HD1" s="4"/>
-      <c r="HE1" s="4"/>
-      <c r="HF1" s="4"/>
-      <c r="HG1" s="4"/>
-      <c r="HH1" s="4"/>
-      <c r="HI1" s="4"/>
-      <c r="HJ1" s="4"/>
-      <c r="HK1" s="4"/>
-      <c r="HL1" s="4"/>
-      <c r="HM1" s="4"/>
-      <c r="HN1" s="4"/>
-      <c r="HO1" s="4"/>
-      <c r="HP1" s="4"/>
-      <c r="HQ1" s="4"/>
-      <c r="HR1" s="4"/>
-      <c r="HS1" s="4"/>
-      <c r="HT1" s="4"/>
-      <c r="HU1" s="4"/>
-      <c r="HV1" s="4"/>
-      <c r="HW1" s="4"/>
-      <c r="HX1" s="4"/>
-      <c r="HY1" s="4"/>
-      <c r="HZ1" s="4"/>
-      <c r="IA1" s="4"/>
-      <c r="IB1" s="4"/>
-      <c r="IC1" s="4"/>
-      <c r="ID1" s="4"/>
-      <c r="IE1" s="4"/>
-      <c r="IF1" s="4"/>
-      <c r="IG1" s="4"/>
-      <c r="IH1" s="4"/>
-      <c r="II1" s="4"/>
-      <c r="IJ1" s="4"/>
-      <c r="IK1" s="4"/>
-      <c r="IL1" s="4"/>
-      <c r="IM1" s="4"/>
-      <c r="IN1" s="4"/>
-      <c r="IO1" s="4"/>
-      <c r="IP1" s="4"/>
-      <c r="IQ1" s="4"/>
-      <c r="IR1" s="4"/>
-      <c r="IS1" s="4"/>
-      <c r="IT1" s="4"/>
-      <c r="IU1" s="4"/>
-      <c r="IV1" s="4"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="36"/>
+      <c r="DN1" s="36"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36"/>
+      <c r="DS1" s="36"/>
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="36"/>
+      <c r="DX1" s="36"/>
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="36"/>
+      <c r="EC1" s="36"/>
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="36"/>
+      <c r="EH1" s="36"/>
+      <c r="EI1" s="36"/>
+      <c r="EJ1" s="36"/>
+      <c r="EK1" s="36"/>
+      <c r="EL1" s="36"/>
+      <c r="EM1" s="36"/>
+      <c r="EN1" s="36"/>
+      <c r="EO1" s="36"/>
+      <c r="EP1" s="36"/>
+      <c r="EQ1" s="36"/>
+      <c r="ER1" s="36"/>
+      <c r="ES1" s="36"/>
+      <c r="ET1" s="36"/>
+      <c r="EU1" s="36"/>
+      <c r="EV1" s="36"/>
+      <c r="EW1" s="36"/>
+      <c r="EX1" s="36"/>
+      <c r="EY1" s="36"/>
+      <c r="EZ1" s="36"/>
+      <c r="FA1" s="36"/>
+      <c r="FB1" s="36"/>
+      <c r="FC1" s="36"/>
+      <c r="FD1" s="36"/>
+      <c r="FE1" s="36"/>
+      <c r="FF1" s="36"/>
+      <c r="FG1" s="36"/>
+      <c r="FH1" s="36"/>
+      <c r="FI1" s="36"/>
+      <c r="FJ1" s="36"/>
+      <c r="FK1" s="36"/>
+      <c r="FL1" s="36"/>
+      <c r="FM1" s="36"/>
+      <c r="FN1" s="36"/>
+      <c r="FO1" s="36"/>
+      <c r="FP1" s="36"/>
+      <c r="FQ1" s="36"/>
+      <c r="FR1" s="36"/>
+      <c r="FS1" s="36"/>
+      <c r="FT1" s="36"/>
+      <c r="FU1" s="36"/>
+      <c r="FV1" s="36"/>
+      <c r="FW1" s="36"/>
+      <c r="FX1" s="36"/>
+      <c r="FY1" s="36"/>
+      <c r="FZ1" s="36"/>
+      <c r="GA1" s="36"/>
+      <c r="GB1" s="36"/>
+      <c r="GC1" s="36"/>
+      <c r="GD1" s="36"/>
+      <c r="GE1" s="36"/>
+      <c r="GF1" s="36"/>
+      <c r="GG1" s="36"/>
+      <c r="GH1" s="36"/>
+      <c r="GI1" s="36"/>
+      <c r="GJ1" s="36"/>
+      <c r="GK1" s="36"/>
+      <c r="GL1" s="36"/>
+      <c r="GM1" s="36"/>
+      <c r="GN1" s="36"/>
+      <c r="GO1" s="36"/>
+      <c r="GP1" s="36"/>
+      <c r="GQ1" s="36"/>
+      <c r="GR1" s="36"/>
+      <c r="GS1" s="36"/>
+      <c r="GT1" s="36"/>
+      <c r="GU1" s="36"/>
+      <c r="GV1" s="36"/>
+      <c r="GW1" s="36"/>
+      <c r="GX1" s="36"/>
+      <c r="GY1" s="36"/>
+      <c r="GZ1" s="36"/>
+      <c r="HA1" s="36"/>
+      <c r="HB1" s="36"/>
+      <c r="HC1" s="36"/>
+      <c r="HD1" s="36"/>
+      <c r="HE1" s="36"/>
+      <c r="HF1" s="36"/>
+      <c r="HG1" s="36"/>
+      <c r="HH1" s="36"/>
+      <c r="HI1" s="36"/>
+      <c r="HJ1" s="36"/>
+      <c r="HK1" s="36"/>
+      <c r="HL1" s="36"/>
+      <c r="HM1" s="36"/>
+      <c r="HN1" s="36"/>
+      <c r="HO1" s="36"/>
+      <c r="HP1" s="36"/>
+      <c r="HQ1" s="36"/>
+      <c r="HR1" s="36"/>
+      <c r="HS1" s="36"/>
+      <c r="HT1" s="36"/>
+      <c r="HU1" s="36"/>
+      <c r="HV1" s="36"/>
+      <c r="HW1" s="36"/>
+      <c r="HX1" s="36"/>
+      <c r="HY1" s="36"/>
+      <c r="HZ1" s="36"/>
+      <c r="IA1" s="36"/>
+      <c r="IB1" s="36"/>
+      <c r="IC1" s="36"/>
+      <c r="ID1" s="36"/>
+      <c r="IE1" s="36"/>
+      <c r="IF1" s="36"/>
+      <c r="IG1" s="36"/>
+      <c r="IH1" s="36"/>
+      <c r="II1" s="36"/>
+      <c r="IJ1" s="36"/>
+      <c r="IK1" s="36"/>
+      <c r="IL1" s="36"/>
+      <c r="IM1" s="36"/>
+      <c r="IN1" s="36"/>
+      <c r="IO1" s="36"/>
+      <c r="IP1" s="36"/>
+      <c r="IQ1" s="36"/>
+      <c r="IR1" s="36"/>
+      <c r="IS1" s="36"/>
+      <c r="IT1" s="36"/>
+      <c r="IU1" s="36"/>
+      <c r="IV1" s="36"/>
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
@@ -18404,17 +18647,8 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="3" spans="1:256">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>